--- a/Bisbats/Catalunya/Lleida/Blancafort/Sacraments/Baptismes/Excel/Baptismes_Parroquia_Blancafort.xlsx
+++ b/Bisbats/Catalunya/Lleida/Blancafort/Sacraments/Baptismes/Excel/Baptismes_Parroquia_Blancafort.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vstudio-code\repositorisArbre\DadesGenerals\Bisbats\Catalunya\Lleida\Blancafort\Sacraments\Baptismes\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFC71DD6-F407-453A-B63A-4515E21231E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{859C1A04-8637-4F28-9B9B-CCC25462FEF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="40">
   <si>
     <t>Cognoms</t>
   </si>
@@ -100,6 +100,51 @@
   </si>
   <si>
     <t>Farré Ludriga</t>
+  </si>
+  <si>
+    <t>Gracia Jubillà</t>
+  </si>
+  <si>
+    <t>Bendicho Jubilla</t>
+  </si>
+  <si>
+    <t>Gessé Eguanito</t>
+  </si>
+  <si>
+    <t>Benavarre Gessé</t>
+  </si>
+  <si>
+    <t>Gessé Álvarez</t>
+  </si>
+  <si>
+    <t>Bendicho Jubillá</t>
+  </si>
+  <si>
+    <t>Gessé Ros</t>
+  </si>
+  <si>
+    <t>Cunyat Vigo</t>
+  </si>
+  <si>
+    <t>Gessé Àlbarez</t>
+  </si>
+  <si>
+    <t>Benabarre Gessé</t>
+  </si>
+  <si>
+    <t>Fontelles Gessé</t>
+  </si>
+  <si>
+    <t>FALTA</t>
+  </si>
+  <si>
+    <t>Puig Montanuy</t>
+  </si>
+  <si>
+    <t>Farré Tolsà</t>
+  </si>
+  <si>
+    <t>Gessé Jubillà</t>
   </si>
 </sst>
 </file>
@@ -430,10 +475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P13"/>
+  <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -646,6 +691,368 @@
         <v>1924</v>
       </c>
     </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14">
+        <v>8</v>
+      </c>
+      <c r="C14">
+        <v>1924</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>1924</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16">
+        <v>9</v>
+      </c>
+      <c r="C16">
+        <v>1925</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17">
+        <v>10</v>
+      </c>
+      <c r="C17">
+        <v>1925</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18">
+        <v>10</v>
+      </c>
+      <c r="C18">
+        <v>1925</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19">
+        <v>11</v>
+      </c>
+      <c r="C19">
+        <v>1925</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20">
+        <v>11</v>
+      </c>
+      <c r="C20">
+        <v>1925</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21">
+        <v>12</v>
+      </c>
+      <c r="C21">
+        <v>1926</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22">
+        <v>12</v>
+      </c>
+      <c r="C22">
+        <v>1926</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23">
+        <v>13</v>
+      </c>
+      <c r="C23">
+        <v>1927</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24">
+        <v>14</v>
+      </c>
+      <c r="C24">
+        <v>1927</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>14</v>
+      </c>
+      <c r="C25">
+        <v>1928</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26">
+        <v>15</v>
+      </c>
+      <c r="C26">
+        <v>1929</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27">
+        <v>15</v>
+      </c>
+      <c r="C27">
+        <v>1929</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28">
+        <v>16</v>
+      </c>
+      <c r="C28">
+        <v>1929</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29">
+        <v>17</v>
+      </c>
+      <c r="C29">
+        <v>1929</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30">
+        <v>17</v>
+      </c>
+      <c r="C30">
+        <v>1929</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31">
+        <v>18</v>
+      </c>
+      <c r="C31">
+        <v>1930</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>19</v>
+      </c>
+      <c r="C32">
+        <v>1930</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33">
+        <v>20</v>
+      </c>
+      <c r="C33">
+        <v>1932</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>31</v>
+      </c>
+      <c r="B34">
+        <v>20</v>
+      </c>
+      <c r="C34">
+        <v>1933</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35">
+        <v>21</v>
+      </c>
+      <c r="C35">
+        <v>1934</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>23</v>
+      </c>
+      <c r="C37">
+        <v>1936</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>25</v>
+      </c>
+      <c r="C39">
+        <v>1938</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>31</v>
+      </c>
+      <c r="B40">
+        <v>25</v>
+      </c>
+      <c r="C40">
+        <v>1939</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>38</v>
+      </c>
+      <c r="B41">
+        <v>26</v>
+      </c>
+      <c r="C41">
+        <v>1942</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>35</v>
+      </c>
+      <c r="B42">
+        <v>27</v>
+      </c>
+      <c r="C42">
+        <v>1944</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>36</v>
+      </c>
+      <c r="B43">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>36</v>
+      </c>
+      <c r="B44">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>35</v>
+      </c>
+      <c r="B45">
+        <v>30</v>
+      </c>
+      <c r="C45">
+        <v>1947</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>39</v>
+      </c>
+      <c r="B46">
+        <v>31</v>
+      </c>
+      <c r="C46">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>35</v>
+      </c>
+      <c r="B47">
+        <v>32</v>
+      </c>
+      <c r="C47">
+        <v>1952</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Bisbats/Catalunya/Lleida/Blancafort/Sacraments/Baptismes/Excel/Baptismes_Parroquia_Blancafort.xlsx
+++ b/Bisbats/Catalunya/Lleida/Blancafort/Sacraments/Baptismes/Excel/Baptismes_Parroquia_Blancafort.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vstudio-code\repositorisArbre\DadesGenerals\Bisbats\Catalunya\Lleida\Blancafort\Sacraments\Baptismes\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{859C1A04-8637-4F28-9B9B-CCC25462FEF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A562194-B584-4C94-A491-281A0A8A24A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,11 +25,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="42">
   <si>
     <t>Cognoms</t>
   </si>
   <si>
+    <t>Llibre</t>
+  </si>
+  <si>
     <t>Any</t>
   </si>
   <si>
@@ -145,6 +148,9 @@
   </si>
   <si>
     <t>Gessé Jubillà</t>
+  </si>
+  <si>
+    <t>6 Baptismes 1919-1952</t>
   </si>
 </sst>
 </file>
@@ -475,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P47"/>
+  <dimension ref="A1:Q47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -493,63 +499,66 @@
     <col min="10" max="10" width="24" customWidth="1"/>
     <col min="11" max="11" width="23.85546875" customWidth="1"/>
     <col min="14" max="14" width="16.5703125" customWidth="1"/>
-    <col min="15" max="15" width="19.28515625" customWidth="1"/>
-    <col min="16" max="16" width="11.140625" customWidth="1"/>
+    <col min="15" max="16" width="19.28515625" customWidth="1"/>
+    <col min="17" max="17" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -558,12 +567,15 @@
         <v>1919</v>
       </c>
       <c r="P2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -572,12 +584,15 @@
         <v>1920</v>
       </c>
       <c r="P3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -586,12 +601,15 @@
         <v>1921</v>
       </c>
       <c r="P4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -600,12 +618,15 @@
         <v>1922</v>
       </c>
       <c r="P5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6">
         <v>3</v>
@@ -613,10 +634,13 @@
       <c r="C6">
         <v>1922</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7">
         <v>4</v>
@@ -624,10 +648,13 @@
       <c r="C7">
         <v>1922</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8">
         <v>5</v>
@@ -635,10 +662,13 @@
       <c r="C8">
         <v>1922</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9">
         <v>5</v>
@@ -646,10 +676,13 @@
       <c r="C9">
         <v>1922</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10">
         <v>6</v>
@@ -657,10 +690,13 @@
       <c r="C10">
         <v>1923</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11">
         <v>6</v>
@@ -668,10 +704,13 @@
       <c r="C11">
         <v>1923</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B12">
         <v>7</v>
@@ -679,10 +718,13 @@
       <c r="C12">
         <v>1923</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B13">
         <v>7</v>
@@ -690,10 +732,13 @@
       <c r="C13">
         <v>1924</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B14">
         <v>8</v>
@@ -701,10 +746,13 @@
       <c r="C14">
         <v>1924</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B15">
         <v>8</v>
@@ -712,10 +760,13 @@
       <c r="C15">
         <v>1924</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B16">
         <v>9</v>
@@ -723,10 +774,13 @@
       <c r="C16">
         <v>1925</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="P16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B17">
         <v>10</v>
@@ -734,10 +788,13 @@
       <c r="C17">
         <v>1925</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="P17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B18">
         <v>10</v>
@@ -745,10 +802,13 @@
       <c r="C18">
         <v>1925</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="P18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B19">
         <v>11</v>
@@ -756,10 +816,13 @@
       <c r="C19">
         <v>1925</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="P19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B20">
         <v>11</v>
@@ -767,10 +830,13 @@
       <c r="C20">
         <v>1925</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="P20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B21">
         <v>12</v>
@@ -778,10 +844,13 @@
       <c r="C21">
         <v>1926</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="P21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B22">
         <v>12</v>
@@ -789,10 +858,13 @@
       <c r="C22">
         <v>1926</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="P22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B23">
         <v>13</v>
@@ -800,10 +872,13 @@
       <c r="C23">
         <v>1927</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="P23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B24">
         <v>14</v>
@@ -811,10 +886,13 @@
       <c r="C24">
         <v>1927</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="P24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25">
         <v>14</v>
@@ -822,10 +900,13 @@
       <c r="C25">
         <v>1928</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="P25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B26">
         <v>15</v>
@@ -833,10 +914,13 @@
       <c r="C26">
         <v>1929</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="P26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B27">
         <v>15</v>
@@ -844,10 +928,13 @@
       <c r="C27">
         <v>1929</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="P27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B28">
         <v>16</v>
@@ -855,10 +942,13 @@
       <c r="C28">
         <v>1929</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="P28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B29">
         <v>17</v>
@@ -866,10 +956,13 @@
       <c r="C29">
         <v>1929</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="P29" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B30">
         <v>17</v>
@@ -877,10 +970,13 @@
       <c r="C30">
         <v>1929</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="P30" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B31">
         <v>18</v>
@@ -888,10 +984,13 @@
       <c r="C31">
         <v>1930</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="P31" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B32">
         <v>19</v>
@@ -899,10 +998,13 @@
       <c r="C32">
         <v>1930</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="P32" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B33">
         <v>20</v>
@@ -910,10 +1012,13 @@
       <c r="C33">
         <v>1932</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="P33" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B34">
         <v>20</v>
@@ -921,10 +1026,13 @@
       <c r="C34">
         <v>1933</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="P34" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B35">
         <v>21</v>
@@ -932,18 +1040,24 @@
       <c r="C35">
         <v>1934</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="P35" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B36">
         <v>22</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="P36" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B37">
         <v>23</v>
@@ -951,18 +1065,24 @@
       <c r="C37">
         <v>1936</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="P37" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B38">
         <v>24</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="P38" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B39">
         <v>25</v>
@@ -970,10 +1090,13 @@
       <c r="C39">
         <v>1938</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="P39" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B40">
         <v>25</v>
@@ -981,10 +1104,13 @@
       <c r="C40">
         <v>1939</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="P40" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B41">
         <v>26</v>
@@ -992,10 +1118,13 @@
       <c r="C41">
         <v>1942</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="P41" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B42">
         <v>27</v>
@@ -1003,26 +1132,35 @@
       <c r="C42">
         <v>1944</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="P42" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B43">
         <v>28</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="P43" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B44">
         <v>29</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="P44" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B45">
         <v>30</v>
@@ -1030,10 +1168,13 @@
       <c r="C45">
         <v>1947</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="P45" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B46">
         <v>31</v>
@@ -1041,16 +1182,22 @@
       <c r="C46">
         <v>1950</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="P46" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B47">
         <v>32</v>
       </c>
       <c r="C47">
         <v>1952</v>
+      </c>
+      <c r="P47" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/Bisbats/Catalunya/Lleida/Blancafort/Sacraments/Baptismes/Excel/Baptismes_Parroquia_Blancafort.xlsx
+++ b/Bisbats/Catalunya/Lleida/Blancafort/Sacraments/Baptismes/Excel/Baptismes_Parroquia_Blancafort.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vstudio-code\repositorisArbre\DadesGenerals\Bisbats\Catalunya\Lleida\Blancafort\Sacraments\Baptismes\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A562194-B584-4C94-A491-281A0A8A24A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{830BEEB2-A9AD-4BCB-8D74-F2C29D15D27D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$Q$1</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="98">
   <si>
     <t>Cognoms</t>
   </si>
@@ -151,6 +154,174 @@
   </si>
   <si>
     <t>6 Baptismes 1919-1952</t>
+  </si>
+  <si>
+    <t>Castells Cusul</t>
+  </si>
+  <si>
+    <t>Gessé Sauri</t>
+  </si>
+  <si>
+    <t>Gessé Miranda</t>
+  </si>
+  <si>
+    <t>29/03/1897</t>
+  </si>
+  <si>
+    <t>Gessé Miranda Bonaventura Joaquim</t>
+  </si>
+  <si>
+    <t>Bonaventura Gessé i Teresa Gessé</t>
+  </si>
+  <si>
+    <t>Joan Gessé Gessé</t>
+  </si>
+  <si>
+    <t>Medardo Miranda (Sant esteve del Mall) i Antonia Peiret (Ribera de cornudella)</t>
+  </si>
+  <si>
+    <t>Bonaventura Gessé</t>
+  </si>
+  <si>
+    <t>Josepa Pena</t>
+  </si>
+  <si>
+    <t>Bendicho Gessé</t>
+  </si>
+  <si>
+    <t>Badia Safon</t>
+  </si>
+  <si>
+    <t>Badia Castells</t>
+  </si>
+  <si>
+    <t>Jubillà Gessé</t>
+  </si>
+  <si>
+    <t>Pedra Mas</t>
+  </si>
+  <si>
+    <t>Gessé Gessé</t>
+  </si>
+  <si>
+    <t>Garcia Gessé</t>
+  </si>
+  <si>
+    <t>29/06/1898</t>
+  </si>
+  <si>
+    <t>Gessé Miranda Pere Joan</t>
+  </si>
+  <si>
+    <t>Paula Cortés</t>
+  </si>
+  <si>
+    <t>Castells Casal</t>
+  </si>
+  <si>
+    <t>Castells Rourera</t>
+  </si>
+  <si>
+    <t>Puig Burgués</t>
+  </si>
+  <si>
+    <t>Gessé Gessé Encarnació</t>
+  </si>
+  <si>
+    <t>Gessé Miranda Paula</t>
+  </si>
+  <si>
+    <t>Bonaventura Gessé Gessé</t>
+  </si>
+  <si>
+    <t>Teresa Gessé Gessé</t>
+  </si>
+  <si>
+    <t>Josep Burgués Gessé (De corsà) (Matrimoni a San joan Bautista de Lleida) 03/04/1920)</t>
+  </si>
+  <si>
+    <t>Badia Bertran</t>
+  </si>
+  <si>
+    <t>Carrera Estada</t>
+  </si>
+  <si>
+    <t>Jubillà Sauri</t>
+  </si>
+  <si>
+    <t>Maria Miranda Peiret (Saln Llorenç, Osca)</t>
+  </si>
+  <si>
+    <t>Bonaventura Gessé Farré</t>
+  </si>
+  <si>
+    <t>Teresa Miranda Peiret</t>
+  </si>
+  <si>
+    <t>Gessé Miranda Antoni</t>
+  </si>
+  <si>
+    <t>5 Baptismes 1896-1915</t>
+  </si>
+  <si>
+    <t>Àlbarez Gessé</t>
+  </si>
+  <si>
+    <t>Castells Gessé</t>
+  </si>
+  <si>
+    <t>Gessé Miranda Aleix</t>
+  </si>
+  <si>
+    <t>Mateu Gessé Gessé (Vivin a Corçà)</t>
+  </si>
+  <si>
+    <t>Josepa Pena Piquer (Finestres)</t>
+  </si>
+  <si>
+    <t>Encarnació Ros Llena  (Montanyana) 14/01/1928</t>
+  </si>
+  <si>
+    <t>Gessé Pociello</t>
+  </si>
+  <si>
+    <t>Solana Pedra</t>
+  </si>
+  <si>
+    <t>Albarez Gessé</t>
+  </si>
+  <si>
+    <t>Gessé Miranda Miquel</t>
+  </si>
+  <si>
+    <t>Gessé Miranda Maria de las Mercedes</t>
+  </si>
+  <si>
+    <t>Miquel Burgués Porta</t>
+  </si>
+  <si>
+    <t>Agustina Gessé Gessé (Corçà)</t>
+  </si>
+  <si>
+    <t>Un pel borrosa</t>
+  </si>
+  <si>
+    <t>Álbarez Gessé</t>
+  </si>
+  <si>
+    <t>Teresa Pena Gessé (Finestres)</t>
+  </si>
+  <si>
+    <t>Francisco Pociello Miranda (Finestres)</t>
+  </si>
+  <si>
+    <t>Burgués Nadal</t>
+  </si>
+  <si>
+    <t>36a</t>
+  </si>
+  <si>
+    <t>Exposito Garcia</t>
   </si>
 </sst>
 </file>
@@ -193,13 +364,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -481,23 +656,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q47"/>
+  <dimension ref="A1:Q112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C111" sqref="C111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="45.7109375" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
     <col min="4" max="4" width="38.140625" customWidth="1"/>
     <col min="5" max="5" width="36.42578125" customWidth="1"/>
     <col min="6" max="6" width="27.28515625" customWidth="1"/>
     <col min="7" max="7" width="23.28515625" customWidth="1"/>
+    <col min="8" max="8" width="31.140625" customWidth="1"/>
     <col min="9" max="9" width="22.5703125" customWidth="1"/>
     <col min="10" max="10" width="24" customWidth="1"/>
     <col min="11" max="11" width="23.85546875" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" customWidth="1"/>
     <col min="14" max="14" width="16.5703125" customWidth="1"/>
     <col min="15" max="16" width="19.28515625" customWidth="1"/>
     <col min="17" max="17" width="11.140625" customWidth="1"/>
@@ -1200,7 +1379,921 @@
         <v>41</v>
       </c>
     </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>42</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48">
+        <v>1896</v>
+      </c>
+      <c r="P48" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>43</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>46</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <v>1897</v>
+      </c>
+      <c r="D50" t="s">
+        <v>48</v>
+      </c>
+      <c r="E50" t="s">
+        <v>73</v>
+      </c>
+      <c r="F50" t="s">
+        <v>47</v>
+      </c>
+      <c r="G50" t="s">
+        <v>49</v>
+      </c>
+      <c r="I50" t="s">
+        <v>45</v>
+      </c>
+      <c r="J50" t="s">
+        <v>50</v>
+      </c>
+      <c r="K50" t="s">
+        <v>51</v>
+      </c>
+      <c r="L50" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51">
+        <v>2</v>
+      </c>
+      <c r="C51">
+        <v>1897</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>53</v>
+      </c>
+      <c r="B52">
+        <v>3</v>
+      </c>
+      <c r="C52">
+        <v>1897</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>54</v>
+      </c>
+      <c r="B53">
+        <v>3</v>
+      </c>
+      <c r="C53">
+        <v>1897</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>55</v>
+      </c>
+      <c r="B54">
+        <v>4</v>
+      </c>
+      <c r="C54">
+        <v>1897</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55">
+        <v>4</v>
+      </c>
+      <c r="C55">
+        <v>1897</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>57</v>
+      </c>
+      <c r="B56">
+        <v>5</v>
+      </c>
+      <c r="C56">
+        <v>1897</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>58</v>
+      </c>
+      <c r="B57">
+        <v>5</v>
+      </c>
+      <c r="C57">
+        <v>1898</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>60</v>
+      </c>
+      <c r="B58">
+        <v>6</v>
+      </c>
+      <c r="C58">
+        <v>1898</v>
+      </c>
+      <c r="D58" t="s">
+        <v>48</v>
+      </c>
+      <c r="E58" t="s">
+        <v>73</v>
+      </c>
+      <c r="F58" t="s">
+        <v>47</v>
+      </c>
+      <c r="G58" t="s">
+        <v>49</v>
+      </c>
+      <c r="I58" t="s">
+        <v>59</v>
+      </c>
+      <c r="J58" t="s">
+        <v>50</v>
+      </c>
+      <c r="K58" t="s">
+        <v>61</v>
+      </c>
+      <c r="L58" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>62</v>
+      </c>
+      <c r="B59">
+        <v>6</v>
+      </c>
+      <c r="C59">
+        <v>1898</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>63</v>
+      </c>
+      <c r="B60">
+        <v>7</v>
+      </c>
+      <c r="C60">
+        <v>1899</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>64</v>
+      </c>
+      <c r="B61">
+        <v>7</v>
+      </c>
+      <c r="C61">
+        <v>1899</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>43</v>
+      </c>
+      <c r="B62">
+        <v>8</v>
+      </c>
+      <c r="C62">
+        <v>1899</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>65</v>
+      </c>
+      <c r="B63">
+        <v>8</v>
+      </c>
+      <c r="C63">
+        <v>1899</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>56</v>
+      </c>
+      <c r="B64">
+        <v>9</v>
+      </c>
+      <c r="C64">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>66</v>
+      </c>
+      <c r="B65">
+        <v>10</v>
+      </c>
+      <c r="C65">
+        <v>1900</v>
+      </c>
+      <c r="D65" t="s">
+        <v>48</v>
+      </c>
+      <c r="E65" t="s">
+        <v>73</v>
+      </c>
+      <c r="F65" t="s">
+        <v>47</v>
+      </c>
+      <c r="G65" t="s">
+        <v>49</v>
+      </c>
+      <c r="H65" t="s">
+        <v>69</v>
+      </c>
+      <c r="I65" s="3">
+        <v>109</v>
+      </c>
+      <c r="J65" t="s">
+        <v>67</v>
+      </c>
+      <c r="K65" t="s">
+        <v>68</v>
+      </c>
+      <c r="L65" s="3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>55</v>
+      </c>
+      <c r="B66">
+        <v>11</v>
+      </c>
+      <c r="C66">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>53</v>
+      </c>
+      <c r="B67">
+        <v>12</v>
+      </c>
+      <c r="C67">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>64</v>
+      </c>
+      <c r="B68">
+        <v>12</v>
+      </c>
+      <c r="C68">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>58</v>
+      </c>
+      <c r="B69">
+        <v>13</v>
+      </c>
+      <c r="C69">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>54</v>
+      </c>
+      <c r="B70">
+        <v>14</v>
+      </c>
+      <c r="C70">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>62</v>
+      </c>
+      <c r="B71">
+        <v>14</v>
+      </c>
+      <c r="C71">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>70</v>
+      </c>
+      <c r="B72">
+        <v>15</v>
+      </c>
+      <c r="C72">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>71</v>
+      </c>
+      <c r="B73">
+        <v>15</v>
+      </c>
+      <c r="C73">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>43</v>
+      </c>
+      <c r="B74">
+        <v>16</v>
+      </c>
+      <c r="C74">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>72</v>
+      </c>
+      <c r="B75">
+        <v>17</v>
+      </c>
+      <c r="C75">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>76</v>
+      </c>
+      <c r="B76">
+        <v>17</v>
+      </c>
+      <c r="C76">
+        <v>1902</v>
+      </c>
+      <c r="D76" t="s">
+        <v>48</v>
+      </c>
+      <c r="E76" t="s">
+        <v>73</v>
+      </c>
+      <c r="F76" t="s">
+        <v>47</v>
+      </c>
+      <c r="G76" t="s">
+        <v>49</v>
+      </c>
+      <c r="I76" s="3">
+        <v>747</v>
+      </c>
+      <c r="J76" t="s">
+        <v>74</v>
+      </c>
+      <c r="K76" t="s">
+        <v>75</v>
+      </c>
+      <c r="L76" s="3">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>78</v>
+      </c>
+      <c r="B77">
+        <v>18</v>
+      </c>
+      <c r="C77">
+        <v>1902</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>64</v>
+      </c>
+      <c r="B78">
+        <v>19</v>
+      </c>
+      <c r="C78">
+        <v>1902</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>79</v>
+      </c>
+      <c r="B79">
+        <v>19</v>
+      </c>
+      <c r="C79">
+        <v>1902</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>80</v>
+      </c>
+      <c r="B80">
+        <v>20</v>
+      </c>
+      <c r="C80">
+        <v>1902</v>
+      </c>
+      <c r="D80" t="s">
+        <v>48</v>
+      </c>
+      <c r="E80" t="s">
+        <v>73</v>
+      </c>
+      <c r="F80" t="s">
+        <v>47</v>
+      </c>
+      <c r="G80" t="s">
+        <v>49</v>
+      </c>
+      <c r="H80" t="s">
+        <v>83</v>
+      </c>
+      <c r="I80" s="3">
+        <v>1093</v>
+      </c>
+      <c r="J80" t="s">
+        <v>81</v>
+      </c>
+      <c r="K80" t="s">
+        <v>82</v>
+      </c>
+      <c r="L80" s="3">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>70</v>
+      </c>
+      <c r="B81">
+        <v>20</v>
+      </c>
+      <c r="C81">
+        <v>1903</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>58</v>
+      </c>
+      <c r="B82">
+        <v>21</v>
+      </c>
+      <c r="C82">
+        <v>1903</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>54</v>
+      </c>
+      <c r="B83">
+        <v>22</v>
+      </c>
+      <c r="C83">
+        <v>1903</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>55</v>
+      </c>
+      <c r="B84">
+        <v>22</v>
+      </c>
+      <c r="C84">
+        <v>1903</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>23</v>
+      </c>
+      <c r="C85">
+        <v>1903</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>62</v>
+      </c>
+      <c r="B86">
+        <v>24</v>
+      </c>
+      <c r="C86">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>64</v>
+      </c>
+      <c r="B87">
+        <v>24</v>
+      </c>
+      <c r="C87">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>72</v>
+      </c>
+      <c r="B88">
+        <v>25</v>
+      </c>
+      <c r="C88">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>85</v>
+      </c>
+      <c r="B89">
+        <v>26</v>
+      </c>
+      <c r="C89">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>43</v>
+      </c>
+      <c r="B90">
+        <v>26</v>
+      </c>
+      <c r="C90">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>86</v>
+      </c>
+      <c r="B91">
+        <v>27</v>
+      </c>
+      <c r="C91">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>54</v>
+      </c>
+      <c r="B92">
+        <v>27</v>
+      </c>
+      <c r="C92">
+        <v>1905</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>87</v>
+      </c>
+      <c r="B93">
+        <v>28</v>
+      </c>
+      <c r="C93">
+        <v>1905</v>
+      </c>
+      <c r="D93" t="s">
+        <v>48</v>
+      </c>
+      <c r="E93" t="s">
+        <v>73</v>
+      </c>
+      <c r="F93" t="s">
+        <v>47</v>
+      </c>
+      <c r="G93" t="s">
+        <v>49</v>
+      </c>
+      <c r="I93" s="3">
+        <v>1917</v>
+      </c>
+      <c r="J93" t="s">
+        <v>89</v>
+      </c>
+      <c r="L93" s="3">
+        <v>1919</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>88</v>
+      </c>
+      <c r="B94">
+        <v>28</v>
+      </c>
+      <c r="C94">
+        <v>1905</v>
+      </c>
+      <c r="D94" t="s">
+        <v>48</v>
+      </c>
+      <c r="E94" t="s">
+        <v>73</v>
+      </c>
+      <c r="F94" t="s">
+        <v>47</v>
+      </c>
+      <c r="G94" t="s">
+        <v>49</v>
+      </c>
+      <c r="I94" s="3">
+        <v>1917</v>
+      </c>
+      <c r="K94" t="s">
+        <v>90</v>
+      </c>
+      <c r="L94" s="3">
+        <v>1919</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>56</v>
+      </c>
+      <c r="B95">
+        <v>29</v>
+      </c>
+      <c r="C95">
+        <v>1905</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>84</v>
+      </c>
+      <c r="B96">
+        <v>29</v>
+      </c>
+      <c r="C96">
+        <v>1905</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>57</v>
+      </c>
+      <c r="B97">
+        <v>30</v>
+      </c>
+      <c r="C97">
+        <v>1906</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>58</v>
+      </c>
+      <c r="B98">
+        <v>31</v>
+      </c>
+      <c r="C98">
+        <v>1906</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>64</v>
+      </c>
+      <c r="B99">
+        <v>31</v>
+      </c>
+      <c r="C99">
+        <v>1906</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>62</v>
+      </c>
+      <c r="B100">
+        <v>32</v>
+      </c>
+      <c r="C100">
+        <v>1906</v>
+      </c>
+      <c r="Q100" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>92</v>
+      </c>
+      <c r="B101">
+        <v>33</v>
+      </c>
+      <c r="C101">
+        <v>1905</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>44</v>
+      </c>
+      <c r="B102">
+        <v>33</v>
+      </c>
+      <c r="C102">
+        <v>1907</v>
+      </c>
+      <c r="D102" t="s">
+        <v>48</v>
+      </c>
+      <c r="E102" t="s">
+        <v>73</v>
+      </c>
+      <c r="F102" t="s">
+        <v>47</v>
+      </c>
+      <c r="G102" t="s">
+        <v>49</v>
+      </c>
+      <c r="I102" s="3">
+        <v>2685</v>
+      </c>
+      <c r="J102" t="s">
+        <v>94</v>
+      </c>
+      <c r="K102" t="s">
+        <v>93</v>
+      </c>
+      <c r="L102" s="3">
+        <v>2687</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>95</v>
+      </c>
+      <c r="B103">
+        <v>34</v>
+      </c>
+      <c r="C103">
+        <v>1907</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>64</v>
+      </c>
+      <c r="B104">
+        <v>35</v>
+      </c>
+      <c r="C104">
+        <v>1907</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>84</v>
+      </c>
+      <c r="B105">
+        <v>36</v>
+      </c>
+      <c r="C105">
+        <v>1907</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>43</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C106">
+        <v>1931</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>43</v>
+      </c>
+      <c r="B107">
+        <v>37</v>
+      </c>
+      <c r="C107">
+        <v>1907</v>
+      </c>
+    </row>
+    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>54</v>
+      </c>
+      <c r="B108">
+        <v>37</v>
+      </c>
+      <c r="C108">
+        <v>1907</v>
+      </c>
+    </row>
+    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>79</v>
+      </c>
+      <c r="B109">
+        <v>38</v>
+      </c>
+      <c r="C109">
+        <v>1907</v>
+      </c>
+    </row>
+    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>97</v>
+      </c>
+      <c r="B110">
+        <v>39</v>
+      </c>
+      <c r="C110">
+        <v>1908</v>
+      </c>
+    </row>
+    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>62</v>
+      </c>
+      <c r="B111">
+        <v>40</v>
+      </c>
+      <c r="C111">
+        <v>1908</v>
+      </c>
+    </row>
+    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>92</v>
+      </c>
+      <c r="B112">
+        <v>40</v>
+      </c>
+      <c r="C112">
+        <v>1908</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:Q1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Bisbats/Catalunya/Lleida/Blancafort/Sacraments/Baptismes/Excel/Baptismes_Parroquia_Blancafort.xlsx
+++ b/Bisbats/Catalunya/Lleida/Blancafort/Sacraments/Baptismes/Excel/Baptismes_Parroquia_Blancafort.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vstudio-code\repositorisArbre\DadesGenerals\Bisbats\Catalunya\Lleida\Blancafort\Sacraments\Baptismes\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{830BEEB2-A9AD-4BCB-8D74-F2C29D15D27D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18694B12-13F3-4D74-AF9C-DC61EA491A46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="141">
   <si>
     <t>Cognoms</t>
   </si>
@@ -303,9 +303,6 @@
     <t>Agustina Gessé Gessé (Corçà)</t>
   </si>
   <si>
-    <t>Un pel borrosa</t>
-  </si>
-  <si>
     <t>Álbarez Gessé</t>
   </si>
   <si>
@@ -322,6 +319,138 @@
   </si>
   <si>
     <t>Exposito Garcia</t>
+  </si>
+  <si>
+    <t>Agustí Puig Cortés</t>
+  </si>
+  <si>
+    <t>Antonia Cortés Adillon (Corçà)</t>
+  </si>
+  <si>
+    <t>Mateu Gessé</t>
+  </si>
+  <si>
+    <t>Gessé Miranda Teresa Antonia</t>
+  </si>
+  <si>
+    <t>Gessé Ruana</t>
+  </si>
+  <si>
+    <t>Gessé Badia</t>
+  </si>
+  <si>
+    <t>Borrossa</t>
+  </si>
+  <si>
+    <t>Gessé Miranda Josep</t>
+  </si>
+  <si>
+    <t>Josefa Arcas Ardiaca (Fet) 07/02/1942</t>
+  </si>
+  <si>
+    <t>Marti Pena Piquer (Finestres)</t>
+  </si>
+  <si>
+    <t>Teresa Miranda Peiret (Sant Llorenç vivin a Finestres)</t>
+  </si>
+  <si>
+    <t>Farré Piqué</t>
+  </si>
+  <si>
+    <t>Gessé Miranda Maria del Carme Rosalia</t>
+  </si>
+  <si>
+    <t>Aleix Gessé Miranda</t>
+  </si>
+  <si>
+    <t>Paula Gessé Miranda</t>
+  </si>
+  <si>
+    <t>6 Baptismes 1852-1895</t>
+  </si>
+  <si>
+    <t>Badia Gessé</t>
+  </si>
+  <si>
+    <t>Gras Ros</t>
+  </si>
+  <si>
+    <t>Castells Bendicho</t>
+  </si>
+  <si>
+    <t>Gessé Queral</t>
+  </si>
+  <si>
+    <t>Bendicho Romera</t>
+  </si>
+  <si>
+    <t>Camarasa Bendicho</t>
+  </si>
+  <si>
+    <t>3a</t>
+  </si>
+  <si>
+    <t>Rodrigo Gessé</t>
+  </si>
+  <si>
+    <t>Pedra Aran</t>
+  </si>
+  <si>
+    <t>Badia Estada</t>
+  </si>
+  <si>
+    <t>Novau Alaman</t>
+  </si>
+  <si>
+    <t>Pedra Gessé</t>
+  </si>
+  <si>
+    <t>Gessé Mauri</t>
+  </si>
+  <si>
+    <t>Puig Gessé</t>
+  </si>
+  <si>
+    <t>Bendicho Romeu</t>
+  </si>
+  <si>
+    <t>Gessé Rourera</t>
+  </si>
+  <si>
+    <t>Gortés Gessé</t>
+  </si>
+  <si>
+    <t>Nadal Gessé</t>
+  </si>
+  <si>
+    <t>Estada Trago</t>
+  </si>
+  <si>
+    <t>Camarasa Marsol</t>
+  </si>
+  <si>
+    <t>Gesse Queral</t>
+  </si>
+  <si>
+    <t>Cortes Gessé</t>
+  </si>
+  <si>
+    <t>Blasi Badia</t>
+  </si>
+  <si>
+    <t>Cortés Gessé</t>
+  </si>
+  <si>
+    <t>Benducho Romeu</t>
+  </si>
+  <si>
+    <t>Castells Marsol</t>
+  </si>
+  <si>
+    <t>Nadal Bendicho</t>
+  </si>
+  <si>
+    <t>Gessé Santamaria</t>
   </si>
 </sst>
 </file>
@@ -656,11 +785,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q112"/>
+  <dimension ref="A1:Q184"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C111" sqref="C111"/>
+      <pane ySplit="1" topLeftCell="A156" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A185" sqref="A185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1393,7 +1522,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>43</v>
       </c>
@@ -1403,8 +1532,11 @@
       <c r="C49">
         <v>1896</v>
       </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P49" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>46</v>
       </c>
@@ -1438,8 +1570,11 @@
       <c r="L50" s="4" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P50" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>52</v>
       </c>
@@ -1449,8 +1584,11 @@
       <c r="C51">
         <v>1897</v>
       </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P51" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>53</v>
       </c>
@@ -1460,8 +1598,11 @@
       <c r="C52">
         <v>1897</v>
       </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P52" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>54</v>
       </c>
@@ -1471,8 +1612,11 @@
       <c r="C53">
         <v>1897</v>
       </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P53" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>55</v>
       </c>
@@ -1482,8 +1626,11 @@
       <c r="C54">
         <v>1897</v>
       </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P54" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>56</v>
       </c>
@@ -1493,8 +1640,11 @@
       <c r="C55">
         <v>1897</v>
       </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P55" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>57</v>
       </c>
@@ -1504,8 +1654,11 @@
       <c r="C56">
         <v>1897</v>
       </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P56" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>58</v>
       </c>
@@ -1515,8 +1668,11 @@
       <c r="C57">
         <v>1898</v>
       </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P57" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>60</v>
       </c>
@@ -1550,8 +1706,11 @@
       <c r="L58" s="4" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P58" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>62</v>
       </c>
@@ -1561,8 +1720,11 @@
       <c r="C59">
         <v>1898</v>
       </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P59" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>63</v>
       </c>
@@ -1572,8 +1734,11 @@
       <c r="C60">
         <v>1899</v>
       </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P60" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>64</v>
       </c>
@@ -1583,8 +1748,11 @@
       <c r="C61">
         <v>1899</v>
       </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P61" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>43</v>
       </c>
@@ -1594,8 +1762,11 @@
       <c r="C62">
         <v>1899</v>
       </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P62" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>65</v>
       </c>
@@ -1605,8 +1776,11 @@
       <c r="C63">
         <v>1899</v>
       </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P63" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>56</v>
       </c>
@@ -1616,8 +1790,11 @@
       <c r="C64">
         <v>1900</v>
       </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P64" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>66</v>
       </c>
@@ -1654,8 +1831,11 @@
       <c r="L65" s="3">
         <v>110</v>
       </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P65" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>55</v>
       </c>
@@ -1665,8 +1845,11 @@
       <c r="C66">
         <v>1900</v>
       </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P66" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>53</v>
       </c>
@@ -1676,8 +1859,11 @@
       <c r="C67">
         <v>1900</v>
       </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P67" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>64</v>
       </c>
@@ -1687,8 +1873,11 @@
       <c r="C68">
         <v>1900</v>
       </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P68" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>58</v>
       </c>
@@ -1698,8 +1887,11 @@
       <c r="C69">
         <v>1901</v>
       </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P69" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>54</v>
       </c>
@@ -1709,8 +1901,11 @@
       <c r="C70">
         <v>1901</v>
       </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P70" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>62</v>
       </c>
@@ -1720,8 +1915,11 @@
       <c r="C71">
         <v>1901</v>
       </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P71" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>70</v>
       </c>
@@ -1731,8 +1929,11 @@
       <c r="C72">
         <v>1901</v>
       </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P72" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>71</v>
       </c>
@@ -1742,8 +1943,11 @@
       <c r="C73">
         <v>1901</v>
       </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P73" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>43</v>
       </c>
@@ -1753,8 +1957,11 @@
       <c r="C74">
         <v>1901</v>
       </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P74" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>72</v>
       </c>
@@ -1764,8 +1971,11 @@
       <c r="C75">
         <v>1901</v>
       </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P75" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>76</v>
       </c>
@@ -1799,8 +2009,11 @@
       <c r="L76" s="3">
         <v>750</v>
       </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P76" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>78</v>
       </c>
@@ -1810,8 +2023,11 @@
       <c r="C77">
         <v>1902</v>
       </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P77" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>64</v>
       </c>
@@ -1821,8 +2037,11 @@
       <c r="C78">
         <v>1902</v>
       </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P78" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>79</v>
       </c>
@@ -1832,8 +2051,11 @@
       <c r="C79">
         <v>1902</v>
       </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P79" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>80</v>
       </c>
@@ -1870,8 +2092,11 @@
       <c r="L80" s="3">
         <v>1096</v>
       </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P80" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>70</v>
       </c>
@@ -1881,8 +2106,11 @@
       <c r="C81">
         <v>1903</v>
       </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P81" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>58</v>
       </c>
@@ -1892,8 +2120,11 @@
       <c r="C82">
         <v>1903</v>
       </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P82" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>54</v>
       </c>
@@ -1903,8 +2134,11 @@
       <c r="C83">
         <v>1903</v>
       </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P83" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>55</v>
       </c>
@@ -1914,8 +2148,11 @@
       <c r="C84">
         <v>1903</v>
       </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P84" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>84</v>
       </c>
@@ -1925,8 +2162,11 @@
       <c r="C85">
         <v>1903</v>
       </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P85" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>62</v>
       </c>
@@ -1936,8 +2176,11 @@
       <c r="C86">
         <v>1904</v>
       </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P86" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>64</v>
       </c>
@@ -1947,8 +2190,11 @@
       <c r="C87">
         <v>1904</v>
       </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P87" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>72</v>
       </c>
@@ -1958,8 +2204,11 @@
       <c r="C88">
         <v>1904</v>
       </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P88" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>85</v>
       </c>
@@ -1969,8 +2218,11 @@
       <c r="C89">
         <v>1904</v>
       </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P89" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>43</v>
       </c>
@@ -1980,8 +2232,11 @@
       <c r="C90">
         <v>1904</v>
       </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P90" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>86</v>
       </c>
@@ -1991,8 +2246,11 @@
       <c r="C91">
         <v>1904</v>
       </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P91" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>54</v>
       </c>
@@ -2002,8 +2260,11 @@
       <c r="C92">
         <v>1905</v>
       </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P92" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>87</v>
       </c>
@@ -2034,8 +2295,11 @@
       <c r="L93" s="3">
         <v>1919</v>
       </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P93" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>88</v>
       </c>
@@ -2066,8 +2330,11 @@
       <c r="L94" s="3">
         <v>1919</v>
       </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P94" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>56</v>
       </c>
@@ -2077,8 +2344,11 @@
       <c r="C95">
         <v>1905</v>
       </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P95" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>84</v>
       </c>
@@ -2087,6 +2357,9 @@
       </c>
       <c r="C96">
         <v>1905</v>
+      </c>
+      <c r="P96" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="97" spans="1:17" x14ac:dyDescent="0.25">
@@ -2099,6 +2372,9 @@
       <c r="C97">
         <v>1906</v>
       </c>
+      <c r="P97" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="98" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
@@ -2110,6 +2386,9 @@
       <c r="C98">
         <v>1906</v>
       </c>
+      <c r="P98" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="99" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
@@ -2121,6 +2400,9 @@
       <c r="C99">
         <v>1906</v>
       </c>
+      <c r="P99" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="100" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
@@ -2132,19 +2414,25 @@
       <c r="C100">
         <v>1906</v>
       </c>
+      <c r="P100" t="s">
+        <v>77</v>
+      </c>
       <c r="Q100" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B101">
         <v>33</v>
       </c>
       <c r="C101">
         <v>1905</v>
+      </c>
+      <c r="P101" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.25">
@@ -2173,24 +2461,30 @@
         <v>2685</v>
       </c>
       <c r="J102" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K102" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L102" s="3">
         <v>2687</v>
       </c>
+      <c r="P102" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="103" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B103">
         <v>34</v>
       </c>
       <c r="C103">
         <v>1907</v>
+      </c>
+      <c r="P103" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="104" spans="1:17" x14ac:dyDescent="0.25">
@@ -2203,6 +2497,9 @@
       <c r="C104">
         <v>1907</v>
       </c>
+      <c r="P104" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="105" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
@@ -2214,16 +2511,22 @@
       <c r="C105">
         <v>1907</v>
       </c>
+      <c r="P105" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="106" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>43</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C106">
         <v>1931</v>
+      </c>
+      <c r="P106" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="107" spans="1:17" x14ac:dyDescent="0.25">
@@ -2236,6 +2539,9 @@
       <c r="C107">
         <v>1907</v>
       </c>
+      <c r="P107" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="108" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
@@ -2247,6 +2553,9 @@
       <c r="C108">
         <v>1907</v>
       </c>
+      <c r="P108" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="109" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
@@ -2258,16 +2567,22 @@
       <c r="C109">
         <v>1907</v>
       </c>
+      <c r="P109" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="110" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B110">
         <v>39</v>
       </c>
       <c r="C110">
         <v>1908</v>
+      </c>
+      <c r="P110" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="111" spans="1:17" x14ac:dyDescent="0.25">
@@ -2280,16 +2595,946 @@
       <c r="C111">
         <v>1908</v>
       </c>
+      <c r="P111" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="112" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B112">
         <v>40</v>
       </c>
       <c r="C112">
         <v>1908</v>
+      </c>
+      <c r="P112" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>100</v>
+      </c>
+      <c r="B113">
+        <v>41</v>
+      </c>
+      <c r="C113">
+        <v>1909</v>
+      </c>
+      <c r="D113" t="s">
+        <v>48</v>
+      </c>
+      <c r="E113" t="s">
+        <v>73</v>
+      </c>
+      <c r="F113" t="s">
+        <v>47</v>
+      </c>
+      <c r="G113" t="s">
+        <v>49</v>
+      </c>
+      <c r="I113" s="3">
+        <v>3603</v>
+      </c>
+      <c r="J113" t="s">
+        <v>97</v>
+      </c>
+      <c r="K113" t="s">
+        <v>98</v>
+      </c>
+      <c r="L113" s="3">
+        <v>3611</v>
+      </c>
+      <c r="P113" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>99</v>
+      </c>
+      <c r="B114">
+        <v>42</v>
+      </c>
+      <c r="C114">
+        <v>1909</v>
+      </c>
+      <c r="P114" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>57</v>
+      </c>
+      <c r="B115">
+        <v>42</v>
+      </c>
+      <c r="C115">
+        <v>1910</v>
+      </c>
+      <c r="P115" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>101</v>
+      </c>
+      <c r="B116">
+        <v>43</v>
+      </c>
+      <c r="C116">
+        <v>1910</v>
+      </c>
+      <c r="P116" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>64</v>
+      </c>
+      <c r="B117">
+        <v>44</v>
+      </c>
+      <c r="C117">
+        <v>1910</v>
+      </c>
+      <c r="P117" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>102</v>
+      </c>
+      <c r="B118">
+        <v>45</v>
+      </c>
+      <c r="C118">
+        <v>1911</v>
+      </c>
+      <c r="P118" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>84</v>
+      </c>
+      <c r="B119">
+        <v>46</v>
+      </c>
+      <c r="C119">
+        <v>1911</v>
+      </c>
+      <c r="P119" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>94</v>
+      </c>
+      <c r="B120">
+        <v>46</v>
+      </c>
+      <c r="C120">
+        <v>1911</v>
+      </c>
+      <c r="P120" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="121" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>54</v>
+      </c>
+      <c r="B121">
+        <v>47</v>
+      </c>
+      <c r="C121">
+        <v>1911</v>
+      </c>
+      <c r="P121" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="122" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>101</v>
+      </c>
+      <c r="B122">
+        <v>48</v>
+      </c>
+      <c r="C122">
+        <v>1912</v>
+      </c>
+      <c r="P122" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q122" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="123" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>99</v>
+      </c>
+      <c r="B123">
+        <v>48</v>
+      </c>
+      <c r="C123">
+        <v>1912</v>
+      </c>
+      <c r="P123" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="124" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>104</v>
+      </c>
+      <c r="B124">
+        <v>49</v>
+      </c>
+      <c r="C124">
+        <v>1912</v>
+      </c>
+      <c r="D124" t="s">
+        <v>48</v>
+      </c>
+      <c r="E124" t="s">
+        <v>73</v>
+      </c>
+      <c r="F124" t="s">
+        <v>47</v>
+      </c>
+      <c r="G124" t="s">
+        <v>49</v>
+      </c>
+      <c r="H124" t="s">
+        <v>105</v>
+      </c>
+      <c r="I124" s="3">
+        <v>4501</v>
+      </c>
+      <c r="J124" t="s">
+        <v>106</v>
+      </c>
+      <c r="K124" t="s">
+        <v>107</v>
+      </c>
+      <c r="L124" s="3">
+        <v>4502</v>
+      </c>
+      <c r="P124" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="125" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>79</v>
+      </c>
+      <c r="B125">
+        <v>50</v>
+      </c>
+      <c r="C125">
+        <v>1912</v>
+      </c>
+      <c r="P125" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="126" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>108</v>
+      </c>
+      <c r="B126">
+        <v>51</v>
+      </c>
+      <c r="C126">
+        <v>1914</v>
+      </c>
+      <c r="P126" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="127" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>101</v>
+      </c>
+      <c r="B127">
+        <v>52</v>
+      </c>
+      <c r="C127">
+        <v>1914</v>
+      </c>
+      <c r="P127" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="128" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>64</v>
+      </c>
+      <c r="B128">
+        <v>53</v>
+      </c>
+      <c r="C128">
+        <v>1914</v>
+      </c>
+      <c r="P128" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>109</v>
+      </c>
+      <c r="B129">
+        <v>53</v>
+      </c>
+      <c r="C129">
+        <v>1915</v>
+      </c>
+      <c r="D129" t="s">
+        <v>48</v>
+      </c>
+      <c r="E129" t="s">
+        <v>73</v>
+      </c>
+      <c r="F129" t="s">
+        <v>47</v>
+      </c>
+      <c r="G129" t="s">
+        <v>49</v>
+      </c>
+      <c r="I129" s="3">
+        <v>5734</v>
+      </c>
+      <c r="J129" t="s">
+        <v>110</v>
+      </c>
+      <c r="K129" t="s">
+        <v>111</v>
+      </c>
+      <c r="L129" s="3">
+        <v>5735</v>
+      </c>
+      <c r="P129" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>99</v>
+      </c>
+      <c r="B130">
+        <v>54</v>
+      </c>
+      <c r="C130">
+        <v>1915</v>
+      </c>
+      <c r="P130" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>113</v>
+      </c>
+      <c r="B131">
+        <v>1</v>
+      </c>
+      <c r="C131">
+        <v>1852</v>
+      </c>
+      <c r="P131" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>114</v>
+      </c>
+      <c r="B132">
+        <v>1</v>
+      </c>
+      <c r="C132">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>115</v>
+      </c>
+      <c r="B133">
+        <v>1</v>
+      </c>
+      <c r="C133">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>57</v>
+      </c>
+      <c r="B134">
+        <v>2</v>
+      </c>
+      <c r="C134">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>116</v>
+      </c>
+      <c r="B135">
+        <v>2</v>
+      </c>
+      <c r="C135">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>117</v>
+      </c>
+      <c r="B136">
+        <v>3</v>
+      </c>
+      <c r="C136">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>118</v>
+      </c>
+      <c r="B137">
+        <v>3</v>
+      </c>
+      <c r="C137">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>117</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>120</v>
+      </c>
+      <c r="B139">
+        <v>4</v>
+      </c>
+      <c r="C139">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>57</v>
+      </c>
+      <c r="B140">
+        <v>4</v>
+      </c>
+      <c r="C140">
+        <v>1853</v>
+      </c>
+    </row>
+    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>121</v>
+      </c>
+      <c r="B141">
+        <v>4</v>
+      </c>
+      <c r="C141">
+        <v>1853</v>
+      </c>
+    </row>
+    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>122</v>
+      </c>
+      <c r="B142">
+        <v>5</v>
+      </c>
+      <c r="C142">
+        <v>1853</v>
+      </c>
+    </row>
+    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>113</v>
+      </c>
+      <c r="B143">
+        <v>5</v>
+      </c>
+      <c r="C143">
+        <v>1853</v>
+      </c>
+    </row>
+    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>123</v>
+      </c>
+      <c r="B144">
+        <v>6</v>
+      </c>
+      <c r="C144">
+        <v>1853</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>54</v>
+      </c>
+      <c r="B145">
+        <v>6</v>
+      </c>
+      <c r="C145">
+        <v>1853</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>116</v>
+      </c>
+      <c r="B146">
+        <v>6</v>
+      </c>
+      <c r="C146">
+        <v>1854</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>124</v>
+      </c>
+      <c r="B147">
+        <v>7</v>
+      </c>
+      <c r="C147">
+        <v>1854</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>125</v>
+      </c>
+      <c r="B148">
+        <v>7</v>
+      </c>
+      <c r="C148">
+        <v>1854</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>126</v>
+      </c>
+      <c r="B149">
+        <v>8</v>
+      </c>
+      <c r="C149">
+        <v>1854</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>127</v>
+      </c>
+      <c r="B150">
+        <v>8</v>
+      </c>
+      <c r="C150">
+        <v>1854</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>102</v>
+      </c>
+      <c r="B151">
+        <v>8</v>
+      </c>
+      <c r="C151">
+        <v>1854</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>115</v>
+      </c>
+      <c r="B152">
+        <v>9</v>
+      </c>
+      <c r="C152">
+        <v>1854</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>128</v>
+      </c>
+      <c r="B153">
+        <v>9</v>
+      </c>
+      <c r="C153">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>129</v>
+      </c>
+      <c r="B154">
+        <v>9</v>
+      </c>
+      <c r="C154">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>130</v>
+      </c>
+      <c r="B155">
+        <v>10</v>
+      </c>
+      <c r="C155">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>120</v>
+      </c>
+      <c r="B156">
+        <v>10</v>
+      </c>
+      <c r="C156">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>121</v>
+      </c>
+      <c r="B157">
+        <v>10</v>
+      </c>
+      <c r="C157">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>54</v>
+      </c>
+      <c r="B158">
+        <v>11</v>
+      </c>
+      <c r="C158">
+        <v>1856</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>127</v>
+      </c>
+      <c r="B159">
+        <v>11</v>
+      </c>
+      <c r="C159">
+        <v>1856</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>113</v>
+      </c>
+      <c r="B160">
+        <v>12</v>
+      </c>
+      <c r="C160">
+        <v>1856</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>102</v>
+      </c>
+      <c r="B161">
+        <v>12</v>
+      </c>
+      <c r="C161">
+        <v>1856</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>131</v>
+      </c>
+      <c r="B162">
+        <v>13</v>
+      </c>
+      <c r="C162">
+        <v>1857</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>115</v>
+      </c>
+      <c r="B163">
+        <v>13</v>
+      </c>
+      <c r="C163">
+        <v>1857</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>132</v>
+      </c>
+      <c r="B164">
+        <v>14</v>
+      </c>
+      <c r="C164">
+        <v>1857</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>133</v>
+      </c>
+      <c r="B165">
+        <v>15</v>
+      </c>
+      <c r="C165">
+        <v>1857</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>127</v>
+      </c>
+      <c r="B166">
+        <v>16</v>
+      </c>
+      <c r="C166">
+        <v>1858</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>134</v>
+      </c>
+      <c r="B167">
+        <v>16</v>
+      </c>
+      <c r="C167">
+        <v>1858</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>130</v>
+      </c>
+      <c r="B168">
+        <v>16</v>
+      </c>
+      <c r="C168">
+        <v>1858</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>135</v>
+      </c>
+      <c r="B169">
+        <v>17</v>
+      </c>
+      <c r="C169">
+        <v>1858</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>57</v>
+      </c>
+      <c r="B170">
+        <v>17</v>
+      </c>
+      <c r="C170">
+        <v>1858</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>54</v>
+      </c>
+      <c r="B171">
+        <v>18</v>
+      </c>
+      <c r="C171">
+        <v>1858</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>121</v>
+      </c>
+      <c r="B172">
+        <v>18</v>
+      </c>
+      <c r="C172">
+        <v>1858</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>115</v>
+      </c>
+      <c r="B173">
+        <v>19</v>
+      </c>
+      <c r="C173">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>132</v>
+      </c>
+      <c r="B174">
+        <v>19</v>
+      </c>
+      <c r="C174">
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>136</v>
+      </c>
+      <c r="B175">
+        <v>20</v>
+      </c>
+      <c r="C175">
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>113</v>
+      </c>
+      <c r="B176">
+        <v>20</v>
+      </c>
+      <c r="C176">
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>54</v>
+      </c>
+      <c r="B177">
+        <v>20</v>
+      </c>
+      <c r="C177">
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>137</v>
+      </c>
+      <c r="B178">
+        <v>21</v>
+      </c>
+      <c r="C178">
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>138</v>
+      </c>
+      <c r="B179">
+        <v>21</v>
+      </c>
+      <c r="C179">
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>122</v>
+      </c>
+      <c r="B180">
+        <v>22</v>
+      </c>
+      <c r="C180">
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>131</v>
+      </c>
+      <c r="B181">
+        <v>22</v>
+      </c>
+      <c r="C181">
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>139</v>
+      </c>
+      <c r="B182">
+        <v>22</v>
+      </c>
+      <c r="C182">
+        <v>1861</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>57</v>
+      </c>
+      <c r="B183">
+        <v>23</v>
+      </c>
+      <c r="C183">
+        <v>1861</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>140</v>
+      </c>
+      <c r="B184">
+        <v>23</v>
+      </c>
+      <c r="C184">
+        <v>1861</v>
       </c>
     </row>
   </sheetData>

--- a/Bisbats/Catalunya/Lleida/Blancafort/Sacraments/Baptismes/Excel/Baptismes_Parroquia_Blancafort.xlsx
+++ b/Bisbats/Catalunya/Lleida/Blancafort/Sacraments/Baptismes/Excel/Baptismes_Parroquia_Blancafort.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vstudio-code\repositorisArbre\DadesGenerals\Bisbats\Catalunya\Lleida\Blancafort\Sacraments\Baptismes\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18694B12-13F3-4D74-AF9C-DC61EA491A46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC60CF3B-2615-46E6-B70B-2C9493E4B601}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="197">
   <si>
     <t>Cognoms</t>
   </si>
@@ -451,6 +451,174 @@
   </si>
   <si>
     <t>Gessé Santamaria</t>
+  </si>
+  <si>
+    <t>Cortés Ensenyat</t>
+  </si>
+  <si>
+    <t>Gessé Riu</t>
+  </si>
+  <si>
+    <t>25/07/1863</t>
+  </si>
+  <si>
+    <t>Gessé Gessé Clara Antonia Josepa</t>
+  </si>
+  <si>
+    <t>Bonaventura Gessé Medarda Farré</t>
+  </si>
+  <si>
+    <t>Joan Gessé i Teresa Punyet</t>
+  </si>
+  <si>
+    <t>Mateu Puig</t>
+  </si>
+  <si>
+    <t>Antonia Gessé</t>
+  </si>
+  <si>
+    <t>Estada Fragó</t>
+  </si>
+  <si>
+    <t>Incognit</t>
+  </si>
+  <si>
+    <t>12/02/1866</t>
+  </si>
+  <si>
+    <t>Gessé Gessé Mateu Joan Josep</t>
+  </si>
+  <si>
+    <t>Teresa Gessé Punyet</t>
+  </si>
+  <si>
+    <t>Gessé Llaquet</t>
+  </si>
+  <si>
+    <t>Juvillà Gras</t>
+  </si>
+  <si>
+    <t>Tomàs Guardia</t>
+  </si>
+  <si>
+    <t>Nadal Pociello</t>
+  </si>
+  <si>
+    <t>20/08/1868</t>
+  </si>
+  <si>
+    <t>Gessé Gessé Jaume Joaquim</t>
+  </si>
+  <si>
+    <t>Jaume Gessé i Maria Ros</t>
+  </si>
+  <si>
+    <t>Josep Gessé i Maria Ensenyat</t>
+  </si>
+  <si>
+    <t>Joaquim Mas</t>
+  </si>
+  <si>
+    <t>Rosa Ricol (Millà)</t>
+  </si>
+  <si>
+    <t>21/09/1868</t>
+  </si>
+  <si>
+    <t>Gessé Gessé Mateu Antoni Josep</t>
+  </si>
+  <si>
+    <t>Bentura Gessé i Magdalena Farré</t>
+  </si>
+  <si>
+    <t>Bentura Gessé Farré</t>
+  </si>
+  <si>
+    <t>Jaume Gessé Ros</t>
+  </si>
+  <si>
+    <t>Antonia Gessé Ensenyat</t>
+  </si>
+  <si>
+    <t>Bentura Gessé i Medarda Farré</t>
+  </si>
+  <si>
+    <t>Maria Puig</t>
+  </si>
+  <si>
+    <t>Teresa Gessé Puig</t>
+  </si>
+  <si>
+    <t>Puig Cortés</t>
+  </si>
+  <si>
+    <t>Gessé Gessé Maria Antonia Josepa</t>
+  </si>
+  <si>
+    <t>11/06/1870</t>
+  </si>
+  <si>
+    <t>Antoni Gesse i Antonia Queral</t>
+  </si>
+  <si>
+    <t>Blasi Gessé i Maria Badia</t>
+  </si>
+  <si>
+    <t>Antoni Gessé</t>
+  </si>
+  <si>
+    <t>Antonia Queral</t>
+  </si>
+  <si>
+    <t>Gessé Cirés</t>
+  </si>
+  <si>
+    <t>Gessé Ensenyat</t>
+  </si>
+  <si>
+    <t>Gessé Camarasa</t>
+  </si>
+  <si>
+    <t>Antoni Gessé Queral</t>
+  </si>
+  <si>
+    <t>Francisca Gessé Badia</t>
+  </si>
+  <si>
+    <t>Mora Guitart</t>
+  </si>
+  <si>
+    <t>Gessé Gessé Margarida Dolors</t>
+  </si>
+  <si>
+    <t>04/02/1863</t>
+  </si>
+  <si>
+    <t>Josep Gessé</t>
+  </si>
+  <si>
+    <t>Rosa Camarasa</t>
+  </si>
+  <si>
+    <t>Gessé Gessé Francesca Maria</t>
+  </si>
+  <si>
+    <t>Gessé Gessé Agustina Josepa</t>
+  </si>
+  <si>
+    <t>07/02/1863</t>
+  </si>
+  <si>
+    <t>06/02/1863</t>
+  </si>
+  <si>
+    <t>Agustí Puig</t>
+  </si>
+  <si>
+    <t>Maria Gessé</t>
+  </si>
+  <si>
+    <t>Gessé Saurí</t>
   </si>
 </sst>
 </file>
@@ -785,11 +953,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q184"/>
+  <dimension ref="A1:Q254"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A156" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A185" sqref="A185"/>
+      <pane ySplit="1" topLeftCell="A225" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C252" sqref="C252:C254"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3537,6 +3705,968 @@
         <v>1861</v>
       </c>
     </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>141</v>
+      </c>
+      <c r="B185">
+        <v>24</v>
+      </c>
+      <c r="C185">
+        <v>1861</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>54</v>
+      </c>
+      <c r="B186">
+        <v>24</v>
+      </c>
+      <c r="C186">
+        <v>1861</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>113</v>
+      </c>
+      <c r="B187">
+        <v>25</v>
+      </c>
+      <c r="C187">
+        <v>1861</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>113</v>
+      </c>
+      <c r="B188">
+        <v>25</v>
+      </c>
+      <c r="C188">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>121</v>
+      </c>
+      <c r="B189">
+        <v>26</v>
+      </c>
+      <c r="C189">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>142</v>
+      </c>
+      <c r="B190">
+        <v>26</v>
+      </c>
+      <c r="C190">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>115</v>
+      </c>
+      <c r="B191">
+        <v>27</v>
+      </c>
+      <c r="C191">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>127</v>
+      </c>
+      <c r="B192">
+        <v>27</v>
+      </c>
+      <c r="C192">
+        <v>1863</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>113</v>
+      </c>
+      <c r="B193">
+        <v>28</v>
+      </c>
+      <c r="C193">
+        <v>1863</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>132</v>
+      </c>
+      <c r="B194">
+        <v>28</v>
+      </c>
+      <c r="C194">
+        <v>1863</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>138</v>
+      </c>
+      <c r="B195">
+        <v>29</v>
+      </c>
+      <c r="C195">
+        <v>1863</v>
+      </c>
+    </row>
+    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>144</v>
+      </c>
+      <c r="B196">
+        <v>29</v>
+      </c>
+      <c r="C196">
+        <v>1863</v>
+      </c>
+      <c r="D196" t="s">
+        <v>74</v>
+      </c>
+      <c r="E196" t="s">
+        <v>153</v>
+      </c>
+      <c r="F196" t="s">
+        <v>145</v>
+      </c>
+      <c r="G196" t="s">
+        <v>146</v>
+      </c>
+      <c r="I196" t="s">
+        <v>143</v>
+      </c>
+      <c r="J196" t="s">
+        <v>147</v>
+      </c>
+      <c r="K196" t="s">
+        <v>148</v>
+      </c>
+      <c r="L196" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>140</v>
+      </c>
+      <c r="B197">
+        <v>30</v>
+      </c>
+      <c r="C197">
+        <v>1863</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>113</v>
+      </c>
+      <c r="B198">
+        <v>30</v>
+      </c>
+      <c r="C198">
+        <v>1863</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>149</v>
+      </c>
+      <c r="B199">
+        <v>31</v>
+      </c>
+      <c r="C199">
+        <v>1863</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>134</v>
+      </c>
+      <c r="B200">
+        <v>31</v>
+      </c>
+      <c r="C200">
+        <v>1864</v>
+      </c>
+    </row>
+    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>54</v>
+      </c>
+      <c r="B201">
+        <v>32</v>
+      </c>
+      <c r="C201">
+        <v>1864</v>
+      </c>
+    </row>
+    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>150</v>
+      </c>
+      <c r="B202">
+        <v>32</v>
+      </c>
+      <c r="C202">
+        <v>1864</v>
+      </c>
+    </row>
+    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>142</v>
+      </c>
+      <c r="B203">
+        <v>32</v>
+      </c>
+      <c r="C203">
+        <v>1864</v>
+      </c>
+    </row>
+    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>122</v>
+      </c>
+      <c r="B204">
+        <v>33</v>
+      </c>
+      <c r="C204">
+        <v>1864</v>
+      </c>
+    </row>
+    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>138</v>
+      </c>
+      <c r="B205">
+        <v>33</v>
+      </c>
+      <c r="C205">
+        <v>1865</v>
+      </c>
+    </row>
+    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>113</v>
+      </c>
+      <c r="B206">
+        <v>33</v>
+      </c>
+      <c r="C206">
+        <v>1865</v>
+      </c>
+    </row>
+    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>127</v>
+      </c>
+      <c r="B207">
+        <v>34</v>
+      </c>
+      <c r="C207">
+        <v>1865</v>
+      </c>
+    </row>
+    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>152</v>
+      </c>
+      <c r="B208">
+        <v>34</v>
+      </c>
+      <c r="C208">
+        <v>1866</v>
+      </c>
+      <c r="D208" t="s">
+        <v>167</v>
+      </c>
+      <c r="E208" t="s">
+        <v>172</v>
+      </c>
+      <c r="F208" t="s">
+        <v>170</v>
+      </c>
+      <c r="G208" t="s">
+        <v>146</v>
+      </c>
+      <c r="I208" t="s">
+        <v>151</v>
+      </c>
+      <c r="J208" t="s">
+        <v>147</v>
+      </c>
+      <c r="K208" t="s">
+        <v>171</v>
+      </c>
+      <c r="L208" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>115</v>
+      </c>
+      <c r="B209">
+        <v>34</v>
+      </c>
+      <c r="C209">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>140</v>
+      </c>
+      <c r="B210">
+        <v>35</v>
+      </c>
+      <c r="C210">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>154</v>
+      </c>
+      <c r="B211">
+        <v>35</v>
+      </c>
+      <c r="C211">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>113</v>
+      </c>
+      <c r="B212">
+        <v>35</v>
+      </c>
+      <c r="C212">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>52</v>
+      </c>
+      <c r="B213">
+        <v>36</v>
+      </c>
+      <c r="C213">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>155</v>
+      </c>
+      <c r="B214">
+        <v>36</v>
+      </c>
+      <c r="C214">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>136</v>
+      </c>
+      <c r="B215">
+        <v>36</v>
+      </c>
+      <c r="C215">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>156</v>
+      </c>
+      <c r="B216">
+        <v>37</v>
+      </c>
+      <c r="C216">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>142</v>
+      </c>
+      <c r="B217">
+        <v>37</v>
+      </c>
+      <c r="C217">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>121</v>
+      </c>
+      <c r="B218">
+        <v>37</v>
+      </c>
+      <c r="C218">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>157</v>
+      </c>
+      <c r="B219">
+        <v>38</v>
+      </c>
+      <c r="C219">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>113</v>
+      </c>
+      <c r="B220">
+        <v>38</v>
+      </c>
+      <c r="C220">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>102</v>
+      </c>
+      <c r="B221">
+        <v>39</v>
+      </c>
+      <c r="C221">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>140</v>
+      </c>
+      <c r="B222">
+        <v>39</v>
+      </c>
+      <c r="C222">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>102</v>
+      </c>
+      <c r="B223">
+        <v>40</v>
+      </c>
+      <c r="C223">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>159</v>
+      </c>
+      <c r="B224">
+        <v>40</v>
+      </c>
+      <c r="C224">
+        <v>1868</v>
+      </c>
+      <c r="D224" t="s">
+        <v>168</v>
+      </c>
+      <c r="E224" t="s">
+        <v>169</v>
+      </c>
+      <c r="F224" t="s">
+        <v>160</v>
+      </c>
+      <c r="G224" t="s">
+        <v>161</v>
+      </c>
+      <c r="I224" t="s">
+        <v>158</v>
+      </c>
+      <c r="J224" t="s">
+        <v>162</v>
+      </c>
+      <c r="K224" t="s">
+        <v>163</v>
+      </c>
+      <c r="L224" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="225" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>165</v>
+      </c>
+      <c r="B225">
+        <v>41</v>
+      </c>
+      <c r="C225">
+        <v>1868</v>
+      </c>
+      <c r="D225" t="s">
+        <v>167</v>
+      </c>
+      <c r="E225" t="s">
+        <v>153</v>
+      </c>
+      <c r="F225" t="s">
+        <v>166</v>
+      </c>
+      <c r="G225" t="s">
+        <v>146</v>
+      </c>
+      <c r="I225" t="s">
+        <v>164</v>
+      </c>
+      <c r="J225" t="s">
+        <v>147</v>
+      </c>
+      <c r="K225" t="s">
+        <v>148</v>
+      </c>
+      <c r="L225" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="226" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>115</v>
+      </c>
+      <c r="B226">
+        <v>41</v>
+      </c>
+      <c r="C226">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="227" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>113</v>
+      </c>
+      <c r="B227">
+        <v>42</v>
+      </c>
+      <c r="C227">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="228" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>142</v>
+      </c>
+      <c r="B228">
+        <v>42</v>
+      </c>
+      <c r="C228">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="229" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>157</v>
+      </c>
+      <c r="B229">
+        <v>43</v>
+      </c>
+      <c r="C229">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="230" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>127</v>
+      </c>
+      <c r="B230">
+        <v>43</v>
+      </c>
+      <c r="C230">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="231" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>173</v>
+      </c>
+      <c r="B231">
+        <v>43</v>
+      </c>
+      <c r="C231">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="232" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>138</v>
+      </c>
+      <c r="B232">
+        <v>44</v>
+      </c>
+      <c r="C232">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="233" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>113</v>
+      </c>
+      <c r="B233">
+        <v>44</v>
+      </c>
+      <c r="C233">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="234" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>52</v>
+      </c>
+      <c r="B234">
+        <v>44</v>
+      </c>
+      <c r="C234">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="235" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>174</v>
+      </c>
+      <c r="B235">
+        <v>45</v>
+      </c>
+      <c r="C235">
+        <v>1870</v>
+      </c>
+      <c r="D235" t="s">
+        <v>183</v>
+      </c>
+      <c r="E235" t="s">
+        <v>184</v>
+      </c>
+      <c r="F235" t="s">
+        <v>176</v>
+      </c>
+      <c r="G235" t="s">
+        <v>177</v>
+      </c>
+      <c r="I235" t="s">
+        <v>175</v>
+      </c>
+      <c r="J235" t="s">
+        <v>178</v>
+      </c>
+      <c r="K235" t="s">
+        <v>179</v>
+      </c>
+      <c r="L235" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="236" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>180</v>
+      </c>
+      <c r="B236">
+        <v>45</v>
+      </c>
+      <c r="C236">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="237" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>181</v>
+      </c>
+      <c r="B237">
+        <v>45</v>
+      </c>
+      <c r="C237">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="238" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>132</v>
+      </c>
+      <c r="B238">
+        <v>46</v>
+      </c>
+      <c r="C238">
+        <v>1871</v>
+      </c>
+    </row>
+    <row r="239" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>157</v>
+      </c>
+      <c r="B239">
+        <v>46</v>
+      </c>
+      <c r="C239">
+        <v>1871</v>
+      </c>
+    </row>
+    <row r="240" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>113</v>
+      </c>
+      <c r="B240">
+        <v>46</v>
+      </c>
+      <c r="C240">
+        <v>1871</v>
+      </c>
+    </row>
+    <row r="241" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>182</v>
+      </c>
+      <c r="B241">
+        <v>47</v>
+      </c>
+      <c r="C241">
+        <v>1871</v>
+      </c>
+    </row>
+    <row r="242" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>140</v>
+      </c>
+      <c r="B242">
+        <v>47</v>
+      </c>
+      <c r="C242">
+        <v>1871</v>
+      </c>
+    </row>
+    <row r="243" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>43</v>
+      </c>
+      <c r="B243">
+        <v>47</v>
+      </c>
+      <c r="C243">
+        <v>1872</v>
+      </c>
+    </row>
+    <row r="244" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>142</v>
+      </c>
+      <c r="B244">
+        <v>48</v>
+      </c>
+      <c r="C244">
+        <v>1872</v>
+      </c>
+    </row>
+    <row r="245" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>102</v>
+      </c>
+      <c r="B245">
+        <v>48</v>
+      </c>
+      <c r="C245">
+        <v>1872</v>
+      </c>
+    </row>
+    <row r="246" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>185</v>
+      </c>
+      <c r="B246">
+        <v>48</v>
+      </c>
+      <c r="C246">
+        <v>1873</v>
+      </c>
+    </row>
+    <row r="247" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>186</v>
+      </c>
+      <c r="B247">
+        <v>49</v>
+      </c>
+      <c r="C247">
+        <v>1873</v>
+      </c>
+      <c r="D247" t="s">
+        <v>183</v>
+      </c>
+      <c r="E247" t="s">
+        <v>184</v>
+      </c>
+      <c r="F247" t="s">
+        <v>176</v>
+      </c>
+      <c r="G247" t="s">
+        <v>177</v>
+      </c>
+      <c r="I247" t="s">
+        <v>187</v>
+      </c>
+      <c r="J247" t="s">
+        <v>188</v>
+      </c>
+      <c r="K247" t="s">
+        <v>189</v>
+      </c>
+      <c r="L247" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="248" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>190</v>
+      </c>
+      <c r="B248">
+        <v>49</v>
+      </c>
+      <c r="C248">
+        <v>1873</v>
+      </c>
+      <c r="D248" t="s">
+        <v>167</v>
+      </c>
+      <c r="E248" t="s">
+        <v>153</v>
+      </c>
+      <c r="F248" t="s">
+        <v>170</v>
+      </c>
+      <c r="G248" t="s">
+        <v>146</v>
+      </c>
+      <c r="I248" t="s">
+        <v>193</v>
+      </c>
+      <c r="J248" t="s">
+        <v>194</v>
+      </c>
+      <c r="K248" t="s">
+        <v>195</v>
+      </c>
+      <c r="L248" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="249" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>191</v>
+      </c>
+      <c r="B249">
+        <v>49</v>
+      </c>
+      <c r="C249">
+        <v>1873</v>
+      </c>
+      <c r="D249" t="s">
+        <v>167</v>
+      </c>
+      <c r="E249" t="s">
+        <v>153</v>
+      </c>
+      <c r="F249" t="s">
+        <v>170</v>
+      </c>
+      <c r="G249" t="s">
+        <v>146</v>
+      </c>
+      <c r="I249" t="s">
+        <v>193</v>
+      </c>
+      <c r="J249" t="s">
+        <v>194</v>
+      </c>
+      <c r="K249" t="s">
+        <v>195</v>
+      </c>
+      <c r="L249" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="250" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>55</v>
+      </c>
+      <c r="B250">
+        <v>50</v>
+      </c>
+      <c r="C250">
+        <v>1873</v>
+      </c>
+    </row>
+    <row r="251" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>182</v>
+      </c>
+      <c r="B251">
+        <v>50</v>
+      </c>
+      <c r="C251">
+        <v>1873</v>
+      </c>
+    </row>
+    <row r="252" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>173</v>
+      </c>
+      <c r="B252">
+        <v>51</v>
+      </c>
+      <c r="C252">
+        <v>1873</v>
+      </c>
+    </row>
+    <row r="253" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>140</v>
+      </c>
+      <c r="B253">
+        <v>51</v>
+      </c>
+      <c r="C253">
+        <v>1873</v>
+      </c>
+    </row>
+    <row r="254" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>196</v>
+      </c>
+      <c r="B254">
+        <v>51</v>
+      </c>
+      <c r="C254">
+        <v>1873</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:Q1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Bisbats/Catalunya/Lleida/Blancafort/Sacraments/Baptismes/Excel/Baptismes_Parroquia_Blancafort.xlsx
+++ b/Bisbats/Catalunya/Lleida/Blancafort/Sacraments/Baptismes/Excel/Baptismes_Parroquia_Blancafort.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vstudio-code\repositorisArbre\DadesGenerals\Bisbats\Catalunya\Lleida\Blancafort\Sacraments\Baptismes\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC60CF3B-2615-46E6-B70B-2C9493E4B601}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9BA46EF-6438-41C0-90DA-E5A3B24880D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="214">
   <si>
     <t>Cognoms</t>
   </si>
@@ -93,6 +93,9 @@
     <t>Millorable</t>
   </si>
   <si>
+    <t>Ensenyat Gessé</t>
+  </si>
+  <si>
     <t>Ensenyat Vigo</t>
   </si>
   <si>
@@ -619,6 +622,54 @@
   </si>
   <si>
     <t>Gessé Saurí</t>
+  </si>
+  <si>
+    <t>Gessé Gessé Jaume Francisco</t>
+  </si>
+  <si>
+    <t>Nadal Pociello Pau Salbador Josep</t>
+  </si>
+  <si>
+    <t>Jubilla Gras</t>
+  </si>
+  <si>
+    <t>Borrosa</t>
+  </si>
+  <si>
+    <t>Gessé Cires</t>
+  </si>
+  <si>
+    <t>Gessé Masana</t>
+  </si>
+  <si>
+    <t>Gessé Gessé Antoni Agusti</t>
+  </si>
+  <si>
+    <t>12/04/1878</t>
+  </si>
+  <si>
+    <t>10/04/1878</t>
+  </si>
+  <si>
+    <t>Andreu Tagries?</t>
+  </si>
+  <si>
+    <t>Gessé Pijuan</t>
+  </si>
+  <si>
+    <t>Mateu Badia</t>
+  </si>
+  <si>
+    <t>Gessé Massana</t>
+  </si>
+  <si>
+    <t>Bendicho Salse</t>
+  </si>
+  <si>
+    <t>Gessé Gessé Dolors Rosa</t>
+  </si>
+  <si>
+    <t>15/12/1880</t>
   </si>
 </sst>
 </file>
@@ -953,11 +1004,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q254"/>
+  <dimension ref="A1:Q289"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A225" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C252" sqref="C252:C254"/>
+      <pane ySplit="1" topLeftCell="A259" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A290" sqref="A290"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1043,7 +1094,7 @@
         <v>1919</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q2" t="s">
         <v>19</v>
@@ -1060,7 +1111,7 @@
         <v>1920</v>
       </c>
       <c r="P3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q3" t="s">
         <v>19</v>
@@ -1077,7 +1128,7 @@
         <v>1921</v>
       </c>
       <c r="P4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q4" t="s">
         <v>20</v>
@@ -1094,7 +1145,7 @@
         <v>1922</v>
       </c>
       <c r="P5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q5" t="s">
         <v>20</v>
@@ -1102,7 +1153,7 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6">
         <v>3</v>
@@ -1111,12 +1162,12 @@
         <v>1922</v>
       </c>
       <c r="P6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B7">
         <v>4</v>
@@ -1125,12 +1176,12 @@
         <v>1922</v>
       </c>
       <c r="P7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B8">
         <v>5</v>
@@ -1139,12 +1190,12 @@
         <v>1922</v>
       </c>
       <c r="P8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B9">
         <v>5</v>
@@ -1153,7 +1204,7 @@
         <v>1922</v>
       </c>
       <c r="P9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
@@ -1167,12 +1218,12 @@
         <v>1923</v>
       </c>
       <c r="P10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B11">
         <v>6</v>
@@ -1181,12 +1232,12 @@
         <v>1923</v>
       </c>
       <c r="P11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B12">
         <v>7</v>
@@ -1195,12 +1246,12 @@
         <v>1923</v>
       </c>
       <c r="P12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13">
         <v>7</v>
@@ -1209,12 +1260,12 @@
         <v>1924</v>
       </c>
       <c r="P13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B14">
         <v>8</v>
@@ -1223,7 +1274,7 @@
         <v>1924</v>
       </c>
       <c r="P14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
@@ -1237,12 +1288,12 @@
         <v>1924</v>
       </c>
       <c r="P15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B16">
         <v>9</v>
@@ -1251,12 +1302,12 @@
         <v>1925</v>
       </c>
       <c r="P16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B17">
         <v>10</v>
@@ -1265,12 +1316,12 @@
         <v>1925</v>
       </c>
       <c r="P17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B18">
         <v>10</v>
@@ -1279,12 +1330,12 @@
         <v>1925</v>
       </c>
       <c r="P18" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>11</v>
@@ -1293,12 +1344,12 @@
         <v>1925</v>
       </c>
       <c r="P19" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B20">
         <v>11</v>
@@ -1307,12 +1358,12 @@
         <v>1925</v>
       </c>
       <c r="P20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B21">
         <v>12</v>
@@ -1321,12 +1372,12 @@
         <v>1926</v>
       </c>
       <c r="P21" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B22">
         <v>12</v>
@@ -1335,12 +1386,12 @@
         <v>1926</v>
       </c>
       <c r="P22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B23">
         <v>13</v>
@@ -1349,12 +1400,12 @@
         <v>1927</v>
       </c>
       <c r="P23" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B24">
         <v>14</v>
@@ -1363,12 +1414,12 @@
         <v>1927</v>
       </c>
       <c r="P24" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B25">
         <v>14</v>
@@ -1377,12 +1428,12 @@
         <v>1928</v>
       </c>
       <c r="P25" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B26">
         <v>15</v>
@@ -1391,12 +1442,12 @@
         <v>1929</v>
       </c>
       <c r="P26" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B27">
         <v>15</v>
@@ -1405,12 +1456,12 @@
         <v>1929</v>
       </c>
       <c r="P27" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B28">
         <v>16</v>
@@ -1419,12 +1470,12 @@
         <v>1929</v>
       </c>
       <c r="P28" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B29">
         <v>17</v>
@@ -1433,12 +1484,12 @@
         <v>1929</v>
       </c>
       <c r="P29" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B30">
         <v>17</v>
@@ -1447,12 +1498,12 @@
         <v>1929</v>
       </c>
       <c r="P30" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B31">
         <v>18</v>
@@ -1461,12 +1512,12 @@
         <v>1930</v>
       </c>
       <c r="P31" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B32">
         <v>19</v>
@@ -1475,12 +1526,12 @@
         <v>1930</v>
       </c>
       <c r="P32" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B33">
         <v>20</v>
@@ -1489,12 +1540,12 @@
         <v>1932</v>
       </c>
       <c r="P33" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B34">
         <v>20</v>
@@ -1503,12 +1554,12 @@
         <v>1933</v>
       </c>
       <c r="P34" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B35">
         <v>21</v>
@@ -1517,23 +1568,23 @@
         <v>1934</v>
       </c>
       <c r="P35" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B36">
         <v>22</v>
       </c>
       <c r="P36" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B37">
         <v>23</v>
@@ -1542,23 +1593,23 @@
         <v>1936</v>
       </c>
       <c r="P37" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B38">
         <v>24</v>
       </c>
       <c r="P38" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B39">
         <v>25</v>
@@ -1567,12 +1618,12 @@
         <v>1938</v>
       </c>
       <c r="P39" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B40">
         <v>25</v>
@@ -1581,12 +1632,12 @@
         <v>1939</v>
       </c>
       <c r="P40" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B41">
         <v>26</v>
@@ -1595,12 +1646,12 @@
         <v>1942</v>
       </c>
       <c r="P41" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B42">
         <v>27</v>
@@ -1609,34 +1660,34 @@
         <v>1944</v>
       </c>
       <c r="P42" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B43">
         <v>28</v>
       </c>
       <c r="P43" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B44">
         <v>29</v>
       </c>
       <c r="P44" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B45">
         <v>30</v>
@@ -1645,12 +1696,12 @@
         <v>1947</v>
       </c>
       <c r="P45" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B46">
         <v>31</v>
@@ -1659,12 +1710,12 @@
         <v>1950</v>
       </c>
       <c r="P46" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B47">
         <v>32</v>
@@ -1673,12 +1724,12 @@
         <v>1952</v>
       </c>
       <c r="P47" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -1687,12 +1738,12 @@
         <v>1896</v>
       </c>
       <c r="P48" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -1701,12 +1752,12 @@
         <v>1896</v>
       </c>
       <c r="P49" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -1715,36 +1766,36 @@
         <v>1897</v>
       </c>
       <c r="D50" t="s">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>74</v>
+      </c>
+      <c r="F50" t="s">
         <v>48</v>
       </c>
-      <c r="E50" t="s">
-        <v>73</v>
-      </c>
-      <c r="F50" t="s">
-        <v>47</v>
-      </c>
       <c r="G50" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I50" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J50" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K50" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L50" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P50" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B51">
         <v>2</v>
@@ -1753,12 +1804,12 @@
         <v>1897</v>
       </c>
       <c r="P51" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B52">
         <v>3</v>
@@ -1767,12 +1818,12 @@
         <v>1897</v>
       </c>
       <c r="P52" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B53">
         <v>3</v>
@@ -1781,12 +1832,12 @@
         <v>1897</v>
       </c>
       <c r="P53" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B54">
         <v>4</v>
@@ -1795,12 +1846,12 @@
         <v>1897</v>
       </c>
       <c r="P54" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B55">
         <v>4</v>
@@ -1809,12 +1860,12 @@
         <v>1897</v>
       </c>
       <c r="P55" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B56">
         <v>5</v>
@@ -1823,12 +1874,12 @@
         <v>1897</v>
       </c>
       <c r="P56" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B57">
         <v>5</v>
@@ -1837,12 +1888,12 @@
         <v>1898</v>
       </c>
       <c r="P57" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B58">
         <v>6</v>
@@ -1851,36 +1902,36 @@
         <v>1898</v>
       </c>
       <c r="D58" t="s">
+        <v>49</v>
+      </c>
+      <c r="E58" t="s">
+        <v>74</v>
+      </c>
+      <c r="F58" t="s">
         <v>48</v>
       </c>
-      <c r="E58" t="s">
-        <v>73</v>
-      </c>
-      <c r="F58" t="s">
-        <v>47</v>
-      </c>
       <c r="G58" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I58" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J58" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K58" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L58" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P58" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B59">
         <v>6</v>
@@ -1889,12 +1940,12 @@
         <v>1898</v>
       </c>
       <c r="P59" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B60">
         <v>7</v>
@@ -1903,12 +1954,12 @@
         <v>1899</v>
       </c>
       <c r="P60" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B61">
         <v>7</v>
@@ -1917,12 +1968,12 @@
         <v>1899</v>
       </c>
       <c r="P61" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B62">
         <v>8</v>
@@ -1931,12 +1982,12 @@
         <v>1899</v>
       </c>
       <c r="P62" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B63">
         <v>8</v>
@@ -1945,12 +1996,12 @@
         <v>1899</v>
       </c>
       <c r="P63" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B64">
         <v>9</v>
@@ -1959,12 +2010,12 @@
         <v>1900</v>
       </c>
       <c r="P64" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B65">
         <v>10</v>
@@ -1973,39 +2024,39 @@
         <v>1900</v>
       </c>
       <c r="D65" t="s">
+        <v>49</v>
+      </c>
+      <c r="E65" t="s">
+        <v>74</v>
+      </c>
+      <c r="F65" t="s">
         <v>48</v>
       </c>
-      <c r="E65" t="s">
-        <v>73</v>
-      </c>
-      <c r="F65" t="s">
-        <v>47</v>
-      </c>
       <c r="G65" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H65" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I65" s="3">
         <v>109</v>
       </c>
       <c r="J65" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K65" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L65" s="3">
         <v>110</v>
       </c>
       <c r="P65" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B66">
         <v>11</v>
@@ -2014,12 +2065,12 @@
         <v>1900</v>
       </c>
       <c r="P66" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B67">
         <v>12</v>
@@ -2028,12 +2079,12 @@
         <v>1900</v>
       </c>
       <c r="P67" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B68">
         <v>12</v>
@@ -2042,12 +2093,12 @@
         <v>1900</v>
       </c>
       <c r="P68" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B69">
         <v>13</v>
@@ -2056,12 +2107,12 @@
         <v>1901</v>
       </c>
       <c r="P69" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B70">
         <v>14</v>
@@ -2070,12 +2121,12 @@
         <v>1901</v>
       </c>
       <c r="P70" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B71">
         <v>14</v>
@@ -2084,12 +2135,12 @@
         <v>1901</v>
       </c>
       <c r="P71" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B72">
         <v>15</v>
@@ -2098,12 +2149,12 @@
         <v>1901</v>
       </c>
       <c r="P72" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B73">
         <v>15</v>
@@ -2112,12 +2163,12 @@
         <v>1901</v>
       </c>
       <c r="P73" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B74">
         <v>16</v>
@@ -2126,12 +2177,12 @@
         <v>1901</v>
       </c>
       <c r="P74" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B75">
         <v>17</v>
@@ -2140,12 +2191,12 @@
         <v>1901</v>
       </c>
       <c r="P75" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B76">
         <v>17</v>
@@ -2154,36 +2205,36 @@
         <v>1902</v>
       </c>
       <c r="D76" t="s">
+        <v>49</v>
+      </c>
+      <c r="E76" t="s">
+        <v>74</v>
+      </c>
+      <c r="F76" t="s">
         <v>48</v>
       </c>
-      <c r="E76" t="s">
-        <v>73</v>
-      </c>
-      <c r="F76" t="s">
-        <v>47</v>
-      </c>
       <c r="G76" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I76" s="3">
         <v>747</v>
       </c>
       <c r="J76" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K76" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L76" s="3">
         <v>750</v>
       </c>
       <c r="P76" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B77">
         <v>18</v>
@@ -2192,12 +2243,12 @@
         <v>1902</v>
       </c>
       <c r="P77" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B78">
         <v>19</v>
@@ -2206,12 +2257,12 @@
         <v>1902</v>
       </c>
       <c r="P78" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B79">
         <v>19</v>
@@ -2220,12 +2271,12 @@
         <v>1902</v>
       </c>
       <c r="P79" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B80">
         <v>20</v>
@@ -2234,39 +2285,39 @@
         <v>1902</v>
       </c>
       <c r="D80" t="s">
+        <v>49</v>
+      </c>
+      <c r="E80" t="s">
+        <v>74</v>
+      </c>
+      <c r="F80" t="s">
         <v>48</v>
       </c>
-      <c r="E80" t="s">
-        <v>73</v>
-      </c>
-      <c r="F80" t="s">
-        <v>47</v>
-      </c>
       <c r="G80" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H80" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I80" s="3">
         <v>1093</v>
       </c>
       <c r="J80" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K80" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L80" s="3">
         <v>1096</v>
       </c>
       <c r="P80" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B81">
         <v>20</v>
@@ -2275,12 +2326,12 @@
         <v>1903</v>
       </c>
       <c r="P81" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B82">
         <v>21</v>
@@ -2289,12 +2340,12 @@
         <v>1903</v>
       </c>
       <c r="P82" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B83">
         <v>22</v>
@@ -2303,12 +2354,12 @@
         <v>1903</v>
       </c>
       <c r="P83" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B84">
         <v>22</v>
@@ -2317,12 +2368,12 @@
         <v>1903</v>
       </c>
       <c r="P84" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B85">
         <v>23</v>
@@ -2331,12 +2382,12 @@
         <v>1903</v>
       </c>
       <c r="P85" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B86">
         <v>24</v>
@@ -2345,12 +2396,12 @@
         <v>1904</v>
       </c>
       <c r="P86" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B87">
         <v>24</v>
@@ -2359,12 +2410,12 @@
         <v>1904</v>
       </c>
       <c r="P87" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B88">
         <v>25</v>
@@ -2373,12 +2424,12 @@
         <v>1904</v>
       </c>
       <c r="P88" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B89">
         <v>26</v>
@@ -2387,12 +2438,12 @@
         <v>1904</v>
       </c>
       <c r="P89" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B90">
         <v>26</v>
@@ -2401,12 +2452,12 @@
         <v>1904</v>
       </c>
       <c r="P90" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B91">
         <v>27</v>
@@ -2415,12 +2466,12 @@
         <v>1904</v>
       </c>
       <c r="P91" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B92">
         <v>27</v>
@@ -2429,12 +2480,12 @@
         <v>1905</v>
       </c>
       <c r="P92" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B93">
         <v>28</v>
@@ -2443,33 +2494,33 @@
         <v>1905</v>
       </c>
       <c r="D93" t="s">
+        <v>49</v>
+      </c>
+      <c r="E93" t="s">
+        <v>74</v>
+      </c>
+      <c r="F93" t="s">
         <v>48</v>
       </c>
-      <c r="E93" t="s">
-        <v>73</v>
-      </c>
-      <c r="F93" t="s">
-        <v>47</v>
-      </c>
       <c r="G93" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I93" s="3">
         <v>1917</v>
       </c>
       <c r="J93" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L93" s="3">
         <v>1919</v>
       </c>
       <c r="P93" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B94">
         <v>28</v>
@@ -2478,33 +2529,33 @@
         <v>1905</v>
       </c>
       <c r="D94" t="s">
+        <v>49</v>
+      </c>
+      <c r="E94" t="s">
+        <v>74</v>
+      </c>
+      <c r="F94" t="s">
         <v>48</v>
       </c>
-      <c r="E94" t="s">
-        <v>73</v>
-      </c>
-      <c r="F94" t="s">
-        <v>47</v>
-      </c>
       <c r="G94" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I94" s="3">
         <v>1917</v>
       </c>
       <c r="K94" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L94" s="3">
         <v>1919</v>
       </c>
       <c r="P94" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B95">
         <v>29</v>
@@ -2513,12 +2564,12 @@
         <v>1905</v>
       </c>
       <c r="P95" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B96">
         <v>29</v>
@@ -2527,12 +2578,12 @@
         <v>1905</v>
       </c>
       <c r="P96" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="97" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B97">
         <v>30</v>
@@ -2541,12 +2592,12 @@
         <v>1906</v>
       </c>
       <c r="P97" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="98" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B98">
         <v>31</v>
@@ -2555,12 +2606,12 @@
         <v>1906</v>
       </c>
       <c r="P98" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="99" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B99">
         <v>31</v>
@@ -2569,12 +2620,12 @@
         <v>1906</v>
       </c>
       <c r="P99" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="100" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B100">
         <v>32</v>
@@ -2583,15 +2634,15 @@
         <v>1906</v>
       </c>
       <c r="P100" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q100" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B101">
         <v>33</v>
@@ -2600,12 +2651,12 @@
         <v>1905</v>
       </c>
       <c r="P101" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B102">
         <v>33</v>
@@ -2614,36 +2665,36 @@
         <v>1907</v>
       </c>
       <c r="D102" t="s">
+        <v>49</v>
+      </c>
+      <c r="E102" t="s">
+        <v>74</v>
+      </c>
+      <c r="F102" t="s">
         <v>48</v>
       </c>
-      <c r="E102" t="s">
-        <v>73</v>
-      </c>
-      <c r="F102" t="s">
-        <v>47</v>
-      </c>
       <c r="G102" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I102" s="3">
         <v>2685</v>
       </c>
       <c r="J102" t="s">
+        <v>94</v>
+      </c>
+      <c r="K102" t="s">
         <v>93</v>
-      </c>
-      <c r="K102" t="s">
-        <v>92</v>
       </c>
       <c r="L102" s="3">
         <v>2687</v>
       </c>
       <c r="P102" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="103" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B103">
         <v>34</v>
@@ -2652,12 +2703,12 @@
         <v>1907</v>
       </c>
       <c r="P103" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="104" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B104">
         <v>35</v>
@@ -2666,12 +2717,12 @@
         <v>1907</v>
       </c>
       <c r="P104" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="105" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B105">
         <v>36</v>
@@ -2680,26 +2731,26 @@
         <v>1907</v>
       </c>
       <c r="P105" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="106" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C106">
         <v>1931</v>
       </c>
       <c r="P106" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="107" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B107">
         <v>37</v>
@@ -2708,12 +2759,12 @@
         <v>1907</v>
       </c>
       <c r="P107" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="108" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B108">
         <v>37</v>
@@ -2722,12 +2773,12 @@
         <v>1907</v>
       </c>
       <c r="P108" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="109" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B109">
         <v>38</v>
@@ -2736,12 +2787,12 @@
         <v>1907</v>
       </c>
       <c r="P109" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="110" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B110">
         <v>39</v>
@@ -2750,12 +2801,12 @@
         <v>1908</v>
       </c>
       <c r="P110" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="111" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B111">
         <v>40</v>
@@ -2764,12 +2815,12 @@
         <v>1908</v>
       </c>
       <c r="P111" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="112" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B112">
         <v>40</v>
@@ -2778,12 +2829,12 @@
         <v>1908</v>
       </c>
       <c r="P112" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="113" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B113">
         <v>41</v>
@@ -2792,36 +2843,36 @@
         <v>1909</v>
       </c>
       <c r="D113" t="s">
+        <v>49</v>
+      </c>
+      <c r="E113" t="s">
+        <v>74</v>
+      </c>
+      <c r="F113" t="s">
         <v>48</v>
       </c>
-      <c r="E113" t="s">
-        <v>73</v>
-      </c>
-      <c r="F113" t="s">
-        <v>47</v>
-      </c>
       <c r="G113" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I113" s="3">
         <v>3603</v>
       </c>
       <c r="J113" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K113" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L113" s="3">
         <v>3611</v>
       </c>
       <c r="P113" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="114" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B114">
         <v>42</v>
@@ -2830,12 +2881,12 @@
         <v>1909</v>
       </c>
       <c r="P114" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="115" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B115">
         <v>42</v>
@@ -2844,12 +2895,12 @@
         <v>1910</v>
       </c>
       <c r="P115" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="116" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B116">
         <v>43</v>
@@ -2858,12 +2909,12 @@
         <v>1910</v>
       </c>
       <c r="P116" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="117" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B117">
         <v>44</v>
@@ -2872,12 +2923,12 @@
         <v>1910</v>
       </c>
       <c r="P117" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="118" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B118">
         <v>45</v>
@@ -2886,12 +2937,12 @@
         <v>1911</v>
       </c>
       <c r="P118" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="119" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B119">
         <v>46</v>
@@ -2900,12 +2951,12 @@
         <v>1911</v>
       </c>
       <c r="P119" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="120" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B120">
         <v>46</v>
@@ -2914,12 +2965,12 @@
         <v>1911</v>
       </c>
       <c r="P120" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="121" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B121">
         <v>47</v>
@@ -2928,12 +2979,12 @@
         <v>1911</v>
       </c>
       <c r="P121" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="122" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B122">
         <v>48</v>
@@ -2942,15 +2993,15 @@
         <v>1912</v>
       </c>
       <c r="P122" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q122" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="123" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B123">
         <v>48</v>
@@ -2959,12 +3010,12 @@
         <v>1912</v>
       </c>
       <c r="P123" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="124" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B124">
         <v>49</v>
@@ -2973,39 +3024,39 @@
         <v>1912</v>
       </c>
       <c r="D124" t="s">
+        <v>49</v>
+      </c>
+      <c r="E124" t="s">
+        <v>74</v>
+      </c>
+      <c r="F124" t="s">
         <v>48</v>
       </c>
-      <c r="E124" t="s">
-        <v>73</v>
-      </c>
-      <c r="F124" t="s">
-        <v>47</v>
-      </c>
       <c r="G124" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H124" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I124" s="3">
         <v>4501</v>
       </c>
       <c r="J124" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K124" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L124" s="3">
         <v>4502</v>
       </c>
       <c r="P124" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="125" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B125">
         <v>50</v>
@@ -3014,12 +3065,12 @@
         <v>1912</v>
       </c>
       <c r="P125" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="126" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B126">
         <v>51</v>
@@ -3028,12 +3079,12 @@
         <v>1914</v>
       </c>
       <c r="P126" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="127" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B127">
         <v>52</v>
@@ -3042,12 +3093,12 @@
         <v>1914</v>
       </c>
       <c r="P127" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="128" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B128">
         <v>53</v>
@@ -3056,12 +3107,12 @@
         <v>1914</v>
       </c>
       <c r="P128" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="129" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B129">
         <v>53</v>
@@ -3070,36 +3121,36 @@
         <v>1915</v>
       </c>
       <c r="D129" t="s">
+        <v>49</v>
+      </c>
+      <c r="E129" t="s">
+        <v>74</v>
+      </c>
+      <c r="F129" t="s">
         <v>48</v>
       </c>
-      <c r="E129" t="s">
-        <v>73</v>
-      </c>
-      <c r="F129" t="s">
-        <v>47</v>
-      </c>
       <c r="G129" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I129" s="3">
         <v>5734</v>
       </c>
       <c r="J129" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K129" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L129" s="3">
         <v>5735</v>
       </c>
       <c r="P129" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="130" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B130">
         <v>54</v>
@@ -3108,12 +3159,12 @@
         <v>1915</v>
       </c>
       <c r="P130" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="131" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B131">
         <v>1</v>
@@ -3122,12 +3173,12 @@
         <v>1852</v>
       </c>
       <c r="P131" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="132" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B132">
         <v>1</v>
@@ -3138,7 +3189,7 @@
     </row>
     <row r="133" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B133">
         <v>1</v>
@@ -3149,7 +3200,7 @@
     </row>
     <row r="134" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B134">
         <v>2</v>
@@ -3160,7 +3211,7 @@
     </row>
     <row r="135" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B135">
         <v>2</v>
@@ -3171,7 +3222,7 @@
     </row>
     <row r="136" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B136">
         <v>3</v>
@@ -3182,7 +3233,7 @@
     </row>
     <row r="137" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B137">
         <v>3</v>
@@ -3193,15 +3244,15 @@
     </row>
     <row r="138" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="139" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B139">
         <v>4</v>
@@ -3212,7 +3263,7 @@
     </row>
     <row r="140" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B140">
         <v>4</v>
@@ -3223,7 +3274,7 @@
     </row>
     <row r="141" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B141">
         <v>4</v>
@@ -3234,7 +3285,7 @@
     </row>
     <row r="142" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B142">
         <v>5</v>
@@ -3245,7 +3296,7 @@
     </row>
     <row r="143" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B143">
         <v>5</v>
@@ -3256,7 +3307,7 @@
     </row>
     <row r="144" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B144">
         <v>6</v>
@@ -3267,7 +3318,7 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B145">
         <v>6</v>
@@ -3278,7 +3329,7 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B146">
         <v>6</v>
@@ -3289,7 +3340,7 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B147">
         <v>7</v>
@@ -3300,7 +3351,7 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B148">
         <v>7</v>
@@ -3311,7 +3362,7 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B149">
         <v>8</v>
@@ -3322,7 +3373,7 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B150">
         <v>8</v>
@@ -3333,7 +3384,7 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B151">
         <v>8</v>
@@ -3344,7 +3395,7 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B152">
         <v>9</v>
@@ -3355,7 +3406,7 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B153">
         <v>9</v>
@@ -3366,7 +3417,7 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B154">
         <v>9</v>
@@ -3377,7 +3428,7 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B155">
         <v>10</v>
@@ -3388,7 +3439,7 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B156">
         <v>10</v>
@@ -3399,7 +3450,7 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B157">
         <v>10</v>
@@ -3410,7 +3461,7 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B158">
         <v>11</v>
@@ -3421,7 +3472,7 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B159">
         <v>11</v>
@@ -3432,7 +3483,7 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B160">
         <v>12</v>
@@ -3443,7 +3494,7 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B161">
         <v>12</v>
@@ -3454,7 +3505,7 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B162">
         <v>13</v>
@@ -3465,7 +3516,7 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B163">
         <v>13</v>
@@ -3476,7 +3527,7 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B164">
         <v>14</v>
@@ -3487,7 +3538,7 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B165">
         <v>15</v>
@@ -3498,7 +3549,7 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B166">
         <v>16</v>
@@ -3509,7 +3560,7 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B167">
         <v>16</v>
@@ -3520,7 +3571,7 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B168">
         <v>16</v>
@@ -3531,7 +3582,7 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B169">
         <v>17</v>
@@ -3542,7 +3593,7 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B170">
         <v>17</v>
@@ -3553,7 +3604,7 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B171">
         <v>18</v>
@@ -3564,7 +3615,7 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B172">
         <v>18</v>
@@ -3575,7 +3626,7 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B173">
         <v>19</v>
@@ -3586,7 +3637,7 @@
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B174">
         <v>19</v>
@@ -3597,7 +3648,7 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B175">
         <v>20</v>
@@ -3608,7 +3659,7 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B176">
         <v>20</v>
@@ -3619,7 +3670,7 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B177">
         <v>20</v>
@@ -3630,7 +3681,7 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B178">
         <v>21</v>
@@ -3641,7 +3692,7 @@
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B179">
         <v>21</v>
@@ -3652,7 +3703,7 @@
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B180">
         <v>22</v>
@@ -3663,7 +3714,7 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B181">
         <v>22</v>
@@ -3674,7 +3725,7 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B182">
         <v>22</v>
@@ -3685,7 +3736,7 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B183">
         <v>23</v>
@@ -3696,7 +3747,7 @@
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B184">
         <v>23</v>
@@ -3707,7 +3758,7 @@
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B185">
         <v>24</v>
@@ -3718,7 +3769,7 @@
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B186">
         <v>24</v>
@@ -3729,7 +3780,7 @@
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B187">
         <v>25</v>
@@ -3740,7 +3791,7 @@
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B188">
         <v>25</v>
@@ -3751,7 +3802,7 @@
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B189">
         <v>26</v>
@@ -3762,7 +3813,7 @@
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B190">
         <v>26</v>
@@ -3773,7 +3824,7 @@
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B191">
         <v>27</v>
@@ -3784,7 +3835,7 @@
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B192">
         <v>27</v>
@@ -3795,7 +3846,7 @@
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B193">
         <v>28</v>
@@ -3806,7 +3857,7 @@
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B194">
         <v>28</v>
@@ -3817,7 +3868,7 @@
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B195">
         <v>29</v>
@@ -3828,7 +3879,7 @@
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B196">
         <v>29</v>
@@ -3837,33 +3888,33 @@
         <v>1863</v>
       </c>
       <c r="D196" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E196" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F196" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G196" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I196" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J196" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K196" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L196" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B197">
         <v>30</v>
@@ -3874,7 +3925,7 @@
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B198">
         <v>30</v>
@@ -3885,7 +3936,7 @@
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B199">
         <v>31</v>
@@ -3896,7 +3947,7 @@
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B200">
         <v>31</v>
@@ -3907,7 +3958,7 @@
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B201">
         <v>32</v>
@@ -3918,7 +3969,7 @@
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B202">
         <v>32</v>
@@ -3929,7 +3980,7 @@
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B203">
         <v>32</v>
@@ -3940,7 +3991,7 @@
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B204">
         <v>33</v>
@@ -3951,7 +4002,7 @@
     </row>
     <row r="205" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B205">
         <v>33</v>
@@ -3962,7 +4013,7 @@
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B206">
         <v>33</v>
@@ -3973,7 +4024,7 @@
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B207">
         <v>34</v>
@@ -3984,7 +4035,7 @@
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B208">
         <v>34</v>
@@ -3993,33 +4044,33 @@
         <v>1866</v>
       </c>
       <c r="D208" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E208" t="s">
+        <v>173</v>
+      </c>
+      <c r="F208" t="s">
+        <v>171</v>
+      </c>
+      <c r="G208" t="s">
+        <v>147</v>
+      </c>
+      <c r="I208" t="s">
+        <v>152</v>
+      </c>
+      <c r="J208" t="s">
+        <v>148</v>
+      </c>
+      <c r="K208" t="s">
         <v>172</v>
       </c>
-      <c r="F208" t="s">
-        <v>170</v>
-      </c>
-      <c r="G208" t="s">
-        <v>146</v>
-      </c>
-      <c r="I208" t="s">
-        <v>151</v>
-      </c>
-      <c r="J208" t="s">
-        <v>147</v>
-      </c>
-      <c r="K208" t="s">
-        <v>171</v>
-      </c>
       <c r="L208" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="209" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B209">
         <v>34</v>
@@ -4030,7 +4081,7 @@
     </row>
     <row r="210" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B210">
         <v>35</v>
@@ -4041,7 +4092,7 @@
     </row>
     <row r="211" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B211">
         <v>35</v>
@@ -4052,7 +4103,7 @@
     </row>
     <row r="212" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B212">
         <v>35</v>
@@ -4063,7 +4114,7 @@
     </row>
     <row r="213" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B213">
         <v>36</v>
@@ -4074,7 +4125,7 @@
     </row>
     <row r="214" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B214">
         <v>36</v>
@@ -4085,7 +4136,7 @@
     </row>
     <row r="215" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B215">
         <v>36</v>
@@ -4096,7 +4147,7 @@
     </row>
     <row r="216" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B216">
         <v>37</v>
@@ -4107,7 +4158,7 @@
     </row>
     <row r="217" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B217">
         <v>37</v>
@@ -4118,7 +4169,7 @@
     </row>
     <row r="218" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B218">
         <v>37</v>
@@ -4129,7 +4180,7 @@
     </row>
     <row r="219" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B219">
         <v>38</v>
@@ -4140,7 +4191,7 @@
     </row>
     <row r="220" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B220">
         <v>38</v>
@@ -4151,7 +4202,7 @@
     </row>
     <row r="221" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B221">
         <v>39</v>
@@ -4162,7 +4213,7 @@
     </row>
     <row r="222" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B222">
         <v>39</v>
@@ -4173,7 +4224,7 @@
     </row>
     <row r="223" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B223">
         <v>40</v>
@@ -4184,7 +4235,7 @@
     </row>
     <row r="224" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B224">
         <v>40</v>
@@ -4193,33 +4244,33 @@
         <v>1868</v>
       </c>
       <c r="D224" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E224" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F224" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G224" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I224" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J224" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K224" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L224" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="225" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B225">
         <v>41</v>
@@ -4228,33 +4279,33 @@
         <v>1868</v>
       </c>
       <c r="D225" t="s">
+        <v>168</v>
+      </c>
+      <c r="E225" t="s">
+        <v>154</v>
+      </c>
+      <c r="F225" t="s">
         <v>167</v>
       </c>
-      <c r="E225" t="s">
-        <v>153</v>
-      </c>
-      <c r="F225" t="s">
-        <v>166</v>
-      </c>
       <c r="G225" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I225" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="J225" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K225" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L225" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="226" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B226">
         <v>41</v>
@@ -4265,7 +4316,7 @@
     </row>
     <row r="227" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B227">
         <v>42</v>
@@ -4276,7 +4327,7 @@
     </row>
     <row r="228" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B228">
         <v>42</v>
@@ -4287,7 +4338,7 @@
     </row>
     <row r="229" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B229">
         <v>43</v>
@@ -4298,7 +4349,7 @@
     </row>
     <row r="230" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B230">
         <v>43</v>
@@ -4309,7 +4360,7 @@
     </row>
     <row r="231" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B231">
         <v>43</v>
@@ -4320,7 +4371,7 @@
     </row>
     <row r="232" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B232">
         <v>44</v>
@@ -4331,7 +4382,7 @@
     </row>
     <row r="233" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B233">
         <v>44</v>
@@ -4342,7 +4393,7 @@
     </row>
     <row r="234" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B234">
         <v>44</v>
@@ -4353,7 +4404,7 @@
     </row>
     <row r="235" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B235">
         <v>45</v>
@@ -4362,33 +4413,33 @@
         <v>1870</v>
       </c>
       <c r="D235" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E235" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F235" t="s">
+        <v>177</v>
+      </c>
+      <c r="G235" t="s">
+        <v>178</v>
+      </c>
+      <c r="I235" t="s">
         <v>176</v>
       </c>
-      <c r="G235" t="s">
-        <v>177</v>
-      </c>
-      <c r="I235" t="s">
-        <v>175</v>
-      </c>
       <c r="J235" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K235" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L235" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="236" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B236">
         <v>45</v>
@@ -4399,7 +4450,7 @@
     </row>
     <row r="237" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B237">
         <v>45</v>
@@ -4410,7 +4461,7 @@
     </row>
     <row r="238" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B238">
         <v>46</v>
@@ -4421,7 +4472,7 @@
     </row>
     <row r="239" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B239">
         <v>46</v>
@@ -4432,7 +4483,7 @@
     </row>
     <row r="240" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B240">
         <v>46</v>
@@ -4443,7 +4494,7 @@
     </row>
     <row r="241" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B241">
         <v>47</v>
@@ -4454,7 +4505,7 @@
     </row>
     <row r="242" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B242">
         <v>47</v>
@@ -4465,7 +4516,7 @@
     </row>
     <row r="243" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B243">
         <v>47</v>
@@ -4476,7 +4527,7 @@
     </row>
     <row r="244" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B244">
         <v>48</v>
@@ -4487,7 +4538,7 @@
     </row>
     <row r="245" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B245">
         <v>48</v>
@@ -4498,7 +4549,7 @@
     </row>
     <row r="246" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B246">
         <v>48</v>
@@ -4509,7 +4560,7 @@
     </row>
     <row r="247" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B247">
         <v>49</v>
@@ -4518,33 +4569,33 @@
         <v>1873</v>
       </c>
       <c r="D247" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E247" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F247" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G247" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I247" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J247" t="s">
+        <v>189</v>
+      </c>
+      <c r="K247" t="s">
+        <v>190</v>
+      </c>
+      <c r="L247" t="s">
         <v>188</v>
-      </c>
-      <c r="K247" t="s">
-        <v>189</v>
-      </c>
-      <c r="L247" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="248" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B248">
         <v>49</v>
@@ -4553,33 +4604,33 @@
         <v>1873</v>
       </c>
       <c r="D248" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E248" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F248" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G248" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I248" t="s">
+        <v>194</v>
+      </c>
+      <c r="J248" t="s">
+        <v>195</v>
+      </c>
+      <c r="K248" t="s">
+        <v>196</v>
+      </c>
+      <c r="L248" t="s">
         <v>193</v>
-      </c>
-      <c r="J248" t="s">
-        <v>194</v>
-      </c>
-      <c r="K248" t="s">
-        <v>195</v>
-      </c>
-      <c r="L248" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="249" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B249">
         <v>49</v>
@@ -4588,33 +4639,33 @@
         <v>1873</v>
       </c>
       <c r="D249" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E249" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F249" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G249" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I249" t="s">
+        <v>194</v>
+      </c>
+      <c r="J249" t="s">
+        <v>195</v>
+      </c>
+      <c r="K249" t="s">
+        <v>196</v>
+      </c>
+      <c r="L249" t="s">
         <v>193</v>
-      </c>
-      <c r="J249" t="s">
-        <v>194</v>
-      </c>
-      <c r="K249" t="s">
-        <v>195</v>
-      </c>
-      <c r="L249" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="250" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B250">
         <v>50</v>
@@ -4625,7 +4676,7 @@
     </row>
     <row r="251" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B251">
         <v>50</v>
@@ -4636,7 +4687,7 @@
     </row>
     <row r="252" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B252">
         <v>51</v>
@@ -4647,7 +4698,7 @@
     </row>
     <row r="253" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B253">
         <v>51</v>
@@ -4658,13 +4709,446 @@
     </row>
     <row r="254" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B254">
         <v>51</v>
       </c>
       <c r="C254">
         <v>1873</v>
+      </c>
+    </row>
+    <row r="255" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>198</v>
+      </c>
+      <c r="B255">
+        <v>52</v>
+      </c>
+      <c r="C255">
+        <v>1873</v>
+      </c>
+    </row>
+    <row r="256" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>199</v>
+      </c>
+      <c r="B256">
+        <v>52</v>
+      </c>
+      <c r="C256">
+        <v>1874</v>
+      </c>
+    </row>
+    <row r="257" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>114</v>
+      </c>
+      <c r="B257">
+        <v>53</v>
+      </c>
+      <c r="C257">
+        <v>1874</v>
+      </c>
+    </row>
+    <row r="258" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>143</v>
+      </c>
+      <c r="B258">
+        <v>53</v>
+      </c>
+      <c r="C258">
+        <v>1874</v>
+      </c>
+    </row>
+    <row r="259" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>53</v>
+      </c>
+      <c r="B259">
+        <v>54</v>
+      </c>
+      <c r="C259">
+        <v>1874</v>
+      </c>
+    </row>
+    <row r="260" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>103</v>
+      </c>
+      <c r="B260">
+        <v>54</v>
+      </c>
+      <c r="C260">
+        <v>1874</v>
+      </c>
+    </row>
+    <row r="261" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>200</v>
+      </c>
+      <c r="B261">
+        <v>55</v>
+      </c>
+      <c r="C261">
+        <v>1874</v>
+      </c>
+      <c r="Q261" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="262" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>202</v>
+      </c>
+      <c r="B262">
+        <v>55</v>
+      </c>
+      <c r="C262">
+        <v>1875</v>
+      </c>
+      <c r="Q262" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="263" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>21</v>
+      </c>
+      <c r="B263">
+        <v>56</v>
+      </c>
+      <c r="C263">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="264" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>58</v>
+      </c>
+      <c r="B264">
+        <v>56</v>
+      </c>
+      <c r="C264">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="265" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>183</v>
+      </c>
+      <c r="B265">
+        <v>57</v>
+      </c>
+      <c r="C265">
+        <v>1876</v>
+      </c>
+    </row>
+    <row r="266" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>141</v>
+      </c>
+      <c r="B266">
+        <v>57</v>
+      </c>
+      <c r="C266">
+        <v>1876</v>
+      </c>
+    </row>
+    <row r="267" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>103</v>
+      </c>
+      <c r="B267">
+        <v>58</v>
+      </c>
+      <c r="C267">
+        <v>1876</v>
+      </c>
+    </row>
+    <row r="268" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>174</v>
+      </c>
+      <c r="B268">
+        <v>58</v>
+      </c>
+      <c r="C268">
+        <v>1876</v>
+      </c>
+    </row>
+    <row r="269" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>203</v>
+      </c>
+      <c r="B269">
+        <v>59</v>
+      </c>
+      <c r="C269">
+        <v>1876</v>
+      </c>
+    </row>
+    <row r="270" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>200</v>
+      </c>
+      <c r="B270">
+        <v>59</v>
+      </c>
+      <c r="C270">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="271" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>44</v>
+      </c>
+      <c r="B271">
+        <v>60</v>
+      </c>
+      <c r="C271">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="272" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>58</v>
+      </c>
+      <c r="B272">
+        <v>60</v>
+      </c>
+      <c r="C272">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="273" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>158</v>
+      </c>
+      <c r="B273">
+        <v>61</v>
+      </c>
+      <c r="C273">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="274" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>21</v>
+      </c>
+      <c r="B274">
+        <v>61</v>
+      </c>
+      <c r="C274">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="275" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>183</v>
+      </c>
+      <c r="B275">
+        <v>63</v>
+      </c>
+      <c r="C275">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="276" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>53</v>
+      </c>
+      <c r="B276">
+        <v>63</v>
+      </c>
+      <c r="C276">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="277" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>181</v>
+      </c>
+      <c r="B277">
+        <v>64</v>
+      </c>
+      <c r="C277">
+        <v>1878</v>
+      </c>
+    </row>
+    <row r="278" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>204</v>
+      </c>
+      <c r="B278">
+        <v>64</v>
+      </c>
+      <c r="C278">
+        <v>1878</v>
+      </c>
+      <c r="D278" t="s">
+        <v>184</v>
+      </c>
+      <c r="E278" t="s">
+        <v>185</v>
+      </c>
+      <c r="F278" t="s">
+        <v>177</v>
+      </c>
+      <c r="G278" t="s">
+        <v>178</v>
+      </c>
+      <c r="I278" t="s">
+        <v>206</v>
+      </c>
+      <c r="J278" t="s">
+        <v>207</v>
+      </c>
+      <c r="K278" t="s">
+        <v>149</v>
+      </c>
+      <c r="L278" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="279" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>103</v>
+      </c>
+      <c r="B279">
+        <v>65</v>
+      </c>
+      <c r="C279">
+        <v>1878</v>
+      </c>
+    </row>
+    <row r="280" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>203</v>
+      </c>
+      <c r="B280">
+        <v>65</v>
+      </c>
+      <c r="C280">
+        <v>1878</v>
+      </c>
+    </row>
+    <row r="281" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>44</v>
+      </c>
+      <c r="B281">
+        <v>66</v>
+      </c>
+      <c r="C281">
+        <v>1879</v>
+      </c>
+    </row>
+    <row r="282" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>208</v>
+      </c>
+      <c r="B282">
+        <v>66</v>
+      </c>
+      <c r="C282">
+        <v>1879</v>
+      </c>
+    </row>
+    <row r="283" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>209</v>
+      </c>
+      <c r="B283">
+        <v>67</v>
+      </c>
+      <c r="C283">
+        <v>1879</v>
+      </c>
+    </row>
+    <row r="284" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>103</v>
+      </c>
+      <c r="B284">
+        <v>67</v>
+      </c>
+      <c r="C284">
+        <v>1880</v>
+      </c>
+    </row>
+    <row r="285" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>210</v>
+      </c>
+      <c r="B285">
+        <v>68</v>
+      </c>
+      <c r="C285">
+        <v>1880</v>
+      </c>
+    </row>
+    <row r="286" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>210</v>
+      </c>
+      <c r="B286">
+        <v>68</v>
+      </c>
+      <c r="C286">
+        <v>1880</v>
+      </c>
+    </row>
+    <row r="287" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>183</v>
+      </c>
+      <c r="B287">
+        <v>69</v>
+      </c>
+      <c r="C287">
+        <v>1880</v>
+      </c>
+    </row>
+    <row r="288" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>211</v>
+      </c>
+      <c r="B288">
+        <v>69</v>
+      </c>
+      <c r="C288">
+        <v>1880</v>
+      </c>
+    </row>
+    <row r="289" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>212</v>
+      </c>
+      <c r="B289">
+        <v>70</v>
+      </c>
+      <c r="C289">
+        <v>1880</v>
+      </c>
+      <c r="D289" t="s">
+        <v>169</v>
+      </c>
+      <c r="E289" t="s">
+        <v>170</v>
+      </c>
+      <c r="F289" t="s">
+        <v>161</v>
+      </c>
+      <c r="G289" t="s">
+        <v>162</v>
+      </c>
+      <c r="I289" t="s">
+        <v>213</v>
+      </c>
+      <c r="L289" t="s">
+        <v>213</v>
       </c>
     </row>
   </sheetData>

--- a/Bisbats/Catalunya/Lleida/Blancafort/Sacraments/Baptismes/Excel/Baptismes_Parroquia_Blancafort.xlsx
+++ b/Bisbats/Catalunya/Lleida/Blancafort/Sacraments/Baptismes/Excel/Baptismes_Parroquia_Blancafort.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vstudio-code\repositorisArbre\DadesGenerals\Bisbats\Catalunya\Lleida\Blancafort\Sacraments\Baptismes\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9BA46EF-6438-41C0-90DA-E5A3B24880D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B71A0723-FBF3-42CF-AABE-C70E92494207}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="230">
   <si>
     <t>Cognoms</t>
   </si>
@@ -670,6 +670,54 @@
   </si>
   <si>
     <t>15/12/1880</t>
+  </si>
+  <si>
+    <t>Gessé Gessé Concepció Teresa</t>
+  </si>
+  <si>
+    <t>Miquel Alansan? (Millà)</t>
+  </si>
+  <si>
+    <t>Sabina Gessé</t>
+  </si>
+  <si>
+    <t>Pedra Badia</t>
+  </si>
+  <si>
+    <t>17/05/1881</t>
+  </si>
+  <si>
+    <t>Gessé Gessé Maria Candida</t>
+  </si>
+  <si>
+    <t>Joan Mateu</t>
+  </si>
+  <si>
+    <t>Antonia Badia</t>
+  </si>
+  <si>
+    <t>Miquel Alamun? (Masos de Millà)</t>
+  </si>
+  <si>
+    <t>Jubillà Gras</t>
+  </si>
+  <si>
+    <t>Bendicho Gires</t>
+  </si>
+  <si>
+    <t>Biendicho Salse</t>
+  </si>
+  <si>
+    <t>Gracia Gessé</t>
+  </si>
+  <si>
+    <t>Rius Gessé</t>
+  </si>
+  <si>
+    <t>Castells Riu</t>
+  </si>
+  <si>
+    <t>Farré Estada</t>
   </si>
 </sst>
 </file>
@@ -1004,11 +1052,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q289"/>
+  <dimension ref="A1:Q307"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A259" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A290" sqref="A290"/>
+      <pane ySplit="1" topLeftCell="A283" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B308" sqref="B308"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5122,7 +5170,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="289" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>212</v>
       </c>
@@ -5147,8 +5195,263 @@
       <c r="I289" t="s">
         <v>213</v>
       </c>
+      <c r="J289" t="s">
+        <v>222</v>
+      </c>
+      <c r="K289" t="s">
+        <v>216</v>
+      </c>
       <c r="L289" t="s">
         <v>213</v>
+      </c>
+    </row>
+    <row r="290" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>214</v>
+      </c>
+      <c r="B290">
+        <v>71</v>
+      </c>
+      <c r="C290">
+        <v>1880</v>
+      </c>
+      <c r="D290" t="s">
+        <v>169</v>
+      </c>
+      <c r="E290" t="s">
+        <v>170</v>
+      </c>
+      <c r="F290" t="s">
+        <v>161</v>
+      </c>
+      <c r="G290" t="s">
+        <v>162</v>
+      </c>
+      <c r="I290" t="s">
+        <v>213</v>
+      </c>
+      <c r="J290" t="s">
+        <v>215</v>
+      </c>
+      <c r="K290" t="s">
+        <v>216</v>
+      </c>
+      <c r="L290" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="291" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>217</v>
+      </c>
+      <c r="B291">
+        <v>72</v>
+      </c>
+      <c r="C291">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="292" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>21</v>
+      </c>
+      <c r="B292">
+        <v>72</v>
+      </c>
+      <c r="C292">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="293" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>219</v>
+      </c>
+      <c r="B293">
+        <v>73</v>
+      </c>
+      <c r="C293">
+        <v>1881</v>
+      </c>
+      <c r="D293" t="s">
+        <v>184</v>
+      </c>
+      <c r="E293" t="s">
+        <v>185</v>
+      </c>
+      <c r="F293" t="s">
+        <v>177</v>
+      </c>
+      <c r="G293" t="s">
+        <v>178</v>
+      </c>
+      <c r="I293" t="s">
+        <v>218</v>
+      </c>
+      <c r="J293" t="s">
+        <v>220</v>
+      </c>
+      <c r="K293" t="s">
+        <v>221</v>
+      </c>
+      <c r="L293" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="294" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>103</v>
+      </c>
+      <c r="B294">
+        <v>74</v>
+      </c>
+      <c r="C294">
+        <v>1881</v>
+      </c>
+      <c r="Q294" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="295" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>223</v>
+      </c>
+      <c r="B295">
+        <v>74</v>
+      </c>
+      <c r="C295">
+        <v>1882</v>
+      </c>
+    </row>
+    <row r="296" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>183</v>
+      </c>
+      <c r="B296">
+        <v>75</v>
+      </c>
+      <c r="C296">
+        <v>1882</v>
+      </c>
+    </row>
+    <row r="297" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>44</v>
+      </c>
+      <c r="B297">
+        <v>75</v>
+      </c>
+      <c r="C297">
+        <v>1882</v>
+      </c>
+    </row>
+    <row r="298" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>224</v>
+      </c>
+      <c r="B298">
+        <v>76</v>
+      </c>
+      <c r="C298">
+        <v>1883</v>
+      </c>
+    </row>
+    <row r="299" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>158</v>
+      </c>
+      <c r="B299">
+        <v>76</v>
+      </c>
+      <c r="C299">
+        <v>1883</v>
+      </c>
+    </row>
+    <row r="300" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>225</v>
+      </c>
+      <c r="B300">
+        <v>77</v>
+      </c>
+      <c r="C300">
+        <v>1884</v>
+      </c>
+    </row>
+    <row r="301" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>57</v>
+      </c>
+      <c r="B301">
+        <v>77</v>
+      </c>
+      <c r="C301">
+        <v>1884</v>
+      </c>
+    </row>
+    <row r="302" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>208</v>
+      </c>
+      <c r="B302">
+        <v>78</v>
+      </c>
+      <c r="C302">
+        <v>1884</v>
+      </c>
+    </row>
+    <row r="303" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>21</v>
+      </c>
+      <c r="B303">
+        <v>78</v>
+      </c>
+      <c r="C303">
+        <v>1884</v>
+      </c>
+    </row>
+    <row r="304" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>226</v>
+      </c>
+      <c r="B304">
+        <v>79</v>
+      </c>
+      <c r="C304">
+        <v>1885</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>227</v>
+      </c>
+      <c r="B305">
+        <v>79</v>
+      </c>
+      <c r="C305">
+        <v>1885</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>228</v>
+      </c>
+      <c r="B306">
+        <v>80</v>
+      </c>
+      <c r="C306">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>229</v>
+      </c>
+      <c r="B307">
+        <v>80</v>
+      </c>
+      <c r="C307">
+        <v>1866</v>
       </c>
     </row>
   </sheetData>

--- a/Bisbats/Catalunya/Lleida/Blancafort/Sacraments/Baptismes/Excel/Baptismes_Parroquia_Blancafort.xlsx
+++ b/Bisbats/Catalunya/Lleida/Blancafort/Sacraments/Baptismes/Excel/Baptismes_Parroquia_Blancafort.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vstudio-code\repositorisArbre\DadesGenerals\Bisbats\Catalunya\Lleida\Blancafort\Sacraments\Baptismes\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B71A0723-FBF3-42CF-AABE-C70E92494207}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96C53757-E3B2-4DC7-BEE4-39EE0132F724}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="253">
   <si>
     <t>Cognoms</t>
   </si>
@@ -468,6 +468,9 @@
     <t>Gessé Gessé Clara Antonia Josepa</t>
   </si>
   <si>
+    <t>Teresa Gessé</t>
+  </si>
+  <si>
     <t>Bonaventura Gessé Medarda Farré</t>
   </si>
   <si>
@@ -718,6 +721,72 @@
   </si>
   <si>
     <t>Farré Estada</t>
+  </si>
+  <si>
+    <t>Gessé Castells</t>
+  </si>
+  <si>
+    <t>Badia Safont</t>
+  </si>
+  <si>
+    <t>05/01/1887</t>
+  </si>
+  <si>
+    <t>Gessé Gessé Antoni  Josep</t>
+  </si>
+  <si>
+    <t>04/01/1887</t>
+  </si>
+  <si>
+    <t>Antoni Gessé Santamaria</t>
+  </si>
+  <si>
+    <t>Maria Gessé Badia</t>
+  </si>
+  <si>
+    <t>Gessé Pijoan</t>
+  </si>
+  <si>
+    <t>12/03/1887</t>
+  </si>
+  <si>
+    <t>Gessé Gessé Antoni Josep</t>
+  </si>
+  <si>
+    <t>11/03/1887</t>
+  </si>
+  <si>
+    <t>Blas Gessé i Rosa Santamaria</t>
+  </si>
+  <si>
+    <t>Francisco Gessé i Raimunda Badia</t>
+  </si>
+  <si>
+    <t>Pere Castells</t>
+  </si>
+  <si>
+    <t>Melchora Garcia</t>
+  </si>
+  <si>
+    <t>Camarasa Castells</t>
+  </si>
+  <si>
+    <t>Gessé Piguan</t>
+  </si>
+  <si>
+    <t>Gessé Pena</t>
+  </si>
+  <si>
+    <t>Gessé Miranda Maria Teresa</t>
+  </si>
+  <si>
+    <t>14/07/1895</t>
+  </si>
+  <si>
+    <t>13/07/1895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medardo Miranda </t>
   </si>
 </sst>
 </file>
@@ -1052,11 +1121,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q307"/>
+  <dimension ref="A1:Q350"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A283" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B308" sqref="B308"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A335" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O364" sqref="O364"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3234,6 +3303,9 @@
       <c r="C132">
         <v>1852</v>
       </c>
+      <c r="P132" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="133" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
@@ -3245,6 +3317,9 @@
       <c r="C133">
         <v>1852</v>
       </c>
+      <c r="P133" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="134" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
@@ -3256,6 +3331,9 @@
       <c r="C134">
         <v>1852</v>
       </c>
+      <c r="P134" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="135" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
@@ -3267,6 +3345,9 @@
       <c r="C135">
         <v>1852</v>
       </c>
+      <c r="P135" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="136" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
@@ -3278,6 +3359,9 @@
       <c r="C136">
         <v>1852</v>
       </c>
+      <c r="P136" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="137" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
@@ -3289,6 +3373,9 @@
       <c r="C137">
         <v>1852</v>
       </c>
+      <c r="P137" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="138" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
@@ -3297,6 +3384,9 @@
       <c r="B138" s="4" t="s">
         <v>120</v>
       </c>
+      <c r="P138" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="139" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
@@ -3308,6 +3398,9 @@
       <c r="C139">
         <v>1852</v>
       </c>
+      <c r="P139" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="140" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
@@ -3319,6 +3412,9 @@
       <c r="C140">
         <v>1853</v>
       </c>
+      <c r="P140" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="141" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
@@ -3330,6 +3426,9 @@
       <c r="C141">
         <v>1853</v>
       </c>
+      <c r="P141" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="142" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
@@ -3341,6 +3440,9 @@
       <c r="C142">
         <v>1853</v>
       </c>
+      <c r="P142" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="143" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
@@ -3352,6 +3454,9 @@
       <c r="C143">
         <v>1853</v>
       </c>
+      <c r="P143" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="144" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
@@ -3363,8 +3468,11 @@
       <c r="C144">
         <v>1853</v>
       </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="P144" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="145" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>55</v>
       </c>
@@ -3374,8 +3482,11 @@
       <c r="C145">
         <v>1853</v>
       </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="P145" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="146" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>117</v>
       </c>
@@ -3385,8 +3496,11 @@
       <c r="C146">
         <v>1854</v>
       </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="P146" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="147" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>125</v>
       </c>
@@ -3396,8 +3510,11 @@
       <c r="C147">
         <v>1854</v>
       </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="P147" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="148" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>126</v>
       </c>
@@ -3407,8 +3524,11 @@
       <c r="C148">
         <v>1854</v>
       </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="P148" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="149" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>127</v>
       </c>
@@ -3418,8 +3538,11 @@
       <c r="C149">
         <v>1854</v>
       </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="P149" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="150" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>128</v>
       </c>
@@ -3429,8 +3552,11 @@
       <c r="C150">
         <v>1854</v>
       </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="P150" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="151" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>103</v>
       </c>
@@ -3440,8 +3566,11 @@
       <c r="C151">
         <v>1854</v>
       </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="P151" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="152" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>116</v>
       </c>
@@ -3451,8 +3580,11 @@
       <c r="C152">
         <v>1854</v>
       </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="P152" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="153" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>129</v>
       </c>
@@ -3462,8 +3594,11 @@
       <c r="C153">
         <v>1855</v>
       </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="P153" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="154" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>130</v>
       </c>
@@ -3473,8 +3608,11 @@
       <c r="C154">
         <v>1855</v>
       </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="P154" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="155" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>131</v>
       </c>
@@ -3484,8 +3622,11 @@
       <c r="C155">
         <v>1855</v>
       </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="P155" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="156" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>121</v>
       </c>
@@ -3495,8 +3636,11 @@
       <c r="C156">
         <v>1855</v>
       </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="P156" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="157" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>122</v>
       </c>
@@ -3506,8 +3650,11 @@
       <c r="C157">
         <v>1855</v>
       </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="P157" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="158" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>55</v>
       </c>
@@ -3517,8 +3664,11 @@
       <c r="C158">
         <v>1856</v>
       </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="P158" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="159" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>128</v>
       </c>
@@ -3528,8 +3678,11 @@
       <c r="C159">
         <v>1856</v>
       </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="P159" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="160" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>114</v>
       </c>
@@ -3539,8 +3692,11 @@
       <c r="C160">
         <v>1856</v>
       </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="P160" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="161" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>103</v>
       </c>
@@ -3550,8 +3706,11 @@
       <c r="C161">
         <v>1856</v>
       </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="P161" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="162" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>132</v>
       </c>
@@ -3561,8 +3720,11 @@
       <c r="C162">
         <v>1857</v>
       </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="P162" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="163" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>116</v>
       </c>
@@ -3572,8 +3734,11 @@
       <c r="C163">
         <v>1857</v>
       </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="P163" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="164" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>133</v>
       </c>
@@ -3583,8 +3748,11 @@
       <c r="C164">
         <v>1857</v>
       </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="P164" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="165" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>134</v>
       </c>
@@ -3594,8 +3762,11 @@
       <c r="C165">
         <v>1857</v>
       </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="P165" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="166" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>128</v>
       </c>
@@ -3605,8 +3776,11 @@
       <c r="C166">
         <v>1858</v>
       </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="P166" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="167" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>135</v>
       </c>
@@ -3616,8 +3790,11 @@
       <c r="C167">
         <v>1858</v>
       </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="P167" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="168" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>131</v>
       </c>
@@ -3627,8 +3804,11 @@
       <c r="C168">
         <v>1858</v>
       </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="P168" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="169" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>136</v>
       </c>
@@ -3638,8 +3818,11 @@
       <c r="C169">
         <v>1858</v>
       </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="P169" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="170" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>58</v>
       </c>
@@ -3649,8 +3832,11 @@
       <c r="C170">
         <v>1858</v>
       </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="P170" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="171" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>55</v>
       </c>
@@ -3660,8 +3846,11 @@
       <c r="C171">
         <v>1858</v>
       </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="P171" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="172" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>122</v>
       </c>
@@ -3671,8 +3860,11 @@
       <c r="C172">
         <v>1858</v>
       </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="P172" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="173" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>116</v>
       </c>
@@ -3682,8 +3874,11 @@
       <c r="C173">
         <v>1859</v>
       </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="P173" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="174" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>133</v>
       </c>
@@ -3693,8 +3888,11 @@
       <c r="C174">
         <v>1860</v>
       </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="P174" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="175" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>137</v>
       </c>
@@ -3704,8 +3902,11 @@
       <c r="C175">
         <v>1860</v>
       </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="P175" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="176" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>114</v>
       </c>
@@ -3715,8 +3916,11 @@
       <c r="C176">
         <v>1860</v>
       </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="P176" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="177" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>55</v>
       </c>
@@ -3726,8 +3930,11 @@
       <c r="C177">
         <v>1860</v>
       </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="P177" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="178" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>138</v>
       </c>
@@ -3737,8 +3944,11 @@
       <c r="C178">
         <v>1860</v>
       </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="P178" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="179" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>139</v>
       </c>
@@ -3748,8 +3958,11 @@
       <c r="C179">
         <v>1860</v>
       </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="P179" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="180" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>123</v>
       </c>
@@ -3759,8 +3972,11 @@
       <c r="C180">
         <v>1860</v>
       </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="P180" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="181" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>132</v>
       </c>
@@ -3770,8 +3986,11 @@
       <c r="C181">
         <v>1860</v>
       </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="P181" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="182" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>140</v>
       </c>
@@ -3781,8 +4000,11 @@
       <c r="C182">
         <v>1861</v>
       </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="P182" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="183" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>58</v>
       </c>
@@ -3792,8 +4014,11 @@
       <c r="C183">
         <v>1861</v>
       </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="P183" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="184" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>141</v>
       </c>
@@ -3803,8 +4028,11 @@
       <c r="C184">
         <v>1861</v>
       </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="P184" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="185" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>142</v>
       </c>
@@ -3814,8 +4042,11 @@
       <c r="C185">
         <v>1861</v>
       </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="P185" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="186" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>55</v>
       </c>
@@ -3825,8 +4056,11 @@
       <c r="C186">
         <v>1861</v>
       </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="P186" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="187" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>114</v>
       </c>
@@ -3836,8 +4070,11 @@
       <c r="C187">
         <v>1861</v>
       </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="P187" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="188" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>114</v>
       </c>
@@ -3847,8 +4084,11 @@
       <c r="C188">
         <v>1862</v>
       </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="P188" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="189" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>122</v>
       </c>
@@ -3858,8 +4098,11 @@
       <c r="C189">
         <v>1862</v>
       </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="P189" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="190" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>143</v>
       </c>
@@ -3869,8 +4112,11 @@
       <c r="C190">
         <v>1862</v>
       </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="P190" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="191" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>116</v>
       </c>
@@ -3880,8 +4126,11 @@
       <c r="C191">
         <v>1862</v>
       </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="P191" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="192" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>128</v>
       </c>
@@ -3891,8 +4140,11 @@
       <c r="C192">
         <v>1863</v>
       </c>
-    </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P192" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="193" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>114</v>
       </c>
@@ -3902,8 +4154,11 @@
       <c r="C193">
         <v>1863</v>
       </c>
-    </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P193" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="194" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>133</v>
       </c>
@@ -3913,8 +4168,11 @@
       <c r="C194">
         <v>1863</v>
       </c>
-    </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P194" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="195" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>139</v>
       </c>
@@ -3924,8 +4182,11 @@
       <c r="C195">
         <v>1863</v>
       </c>
-    </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P195" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="196" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>145</v>
       </c>
@@ -3939,28 +4200,31 @@
         <v>75</v>
       </c>
       <c r="E196" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F196" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G196" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I196" t="s">
         <v>144</v>
       </c>
       <c r="J196" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K196" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L196" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P196" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="197" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>141</v>
       </c>
@@ -3970,8 +4234,11 @@
       <c r="C197">
         <v>1863</v>
       </c>
-    </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P197" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="198" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>114</v>
       </c>
@@ -3981,10 +4248,13 @@
       <c r="C198">
         <v>1863</v>
       </c>
-    </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P198" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="199" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B199">
         <v>31</v>
@@ -3992,8 +4262,11 @@
       <c r="C199">
         <v>1863</v>
       </c>
-    </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P199" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="200" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>135</v>
       </c>
@@ -4003,8 +4276,11 @@
       <c r="C200">
         <v>1864</v>
       </c>
-    </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P200" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="201" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>55</v>
       </c>
@@ -4014,10 +4290,13 @@
       <c r="C201">
         <v>1864</v>
       </c>
-    </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P201" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="202" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B202">
         <v>32</v>
@@ -4025,8 +4304,11 @@
       <c r="C202">
         <v>1864</v>
       </c>
-    </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P202" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="203" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>143</v>
       </c>
@@ -4036,8 +4318,11 @@
       <c r="C203">
         <v>1864</v>
       </c>
-    </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P203" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="204" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>123</v>
       </c>
@@ -4047,8 +4332,11 @@
       <c r="C204">
         <v>1864</v>
       </c>
-    </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P204" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="205" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>139</v>
       </c>
@@ -4058,8 +4346,11 @@
       <c r="C205">
         <v>1865</v>
       </c>
-    </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P205" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="206" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>114</v>
       </c>
@@ -4069,8 +4360,11 @@
       <c r="C206">
         <v>1865</v>
       </c>
-    </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P206" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="207" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>128</v>
       </c>
@@ -4080,10 +4374,13 @@
       <c r="C207">
         <v>1865</v>
       </c>
-    </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P207" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="208" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B208">
         <v>34</v>
@@ -4092,31 +4389,34 @@
         <v>1866</v>
       </c>
       <c r="D208" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E208" t="s">
+        <v>174</v>
+      </c>
+      <c r="F208" t="s">
+        <v>172</v>
+      </c>
+      <c r="G208" t="s">
+        <v>148</v>
+      </c>
+      <c r="I208" t="s">
+        <v>153</v>
+      </c>
+      <c r="J208" t="s">
+        <v>149</v>
+      </c>
+      <c r="K208" t="s">
         <v>173</v>
       </c>
-      <c r="F208" t="s">
-        <v>171</v>
-      </c>
-      <c r="G208" t="s">
-        <v>147</v>
-      </c>
-      <c r="I208" t="s">
-        <v>152</v>
-      </c>
-      <c r="J208" t="s">
-        <v>148</v>
-      </c>
-      <c r="K208" t="s">
-        <v>172</v>
-      </c>
       <c r="L208" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+      <c r="P208" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="209" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>116</v>
       </c>
@@ -4126,8 +4426,11 @@
       <c r="C209">
         <v>1866</v>
       </c>
-    </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P209" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="210" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>141</v>
       </c>
@@ -4137,10 +4440,13 @@
       <c r="C210">
         <v>1866</v>
       </c>
-    </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P210" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="211" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B211">
         <v>35</v>
@@ -4148,8 +4454,11 @@
       <c r="C211">
         <v>1866</v>
       </c>
-    </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P211" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="212" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>114</v>
       </c>
@@ -4159,8 +4468,11 @@
       <c r="C212">
         <v>1866</v>
       </c>
-    </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P212" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="213" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>53</v>
       </c>
@@ -4170,10 +4482,13 @@
       <c r="C213">
         <v>1866</v>
       </c>
-    </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P213" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="214" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B214">
         <v>36</v>
@@ -4181,8 +4496,11 @@
       <c r="C214">
         <v>1866</v>
       </c>
-    </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P214" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="215" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>137</v>
       </c>
@@ -4192,10 +4510,13 @@
       <c r="C215">
         <v>1866</v>
       </c>
-    </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P215" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="216" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B216">
         <v>37</v>
@@ -4203,8 +4524,11 @@
       <c r="C216">
         <v>1867</v>
       </c>
-    </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P216" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="217" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>143</v>
       </c>
@@ -4214,8 +4538,11 @@
       <c r="C217">
         <v>1867</v>
       </c>
-    </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P217" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="218" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>122</v>
       </c>
@@ -4225,10 +4552,13 @@
       <c r="C218">
         <v>1867</v>
       </c>
-    </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P218" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="219" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B219">
         <v>38</v>
@@ -4236,8 +4566,11 @@
       <c r="C219">
         <v>1868</v>
       </c>
-    </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P219" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="220" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>114</v>
       </c>
@@ -4247,8 +4580,11 @@
       <c r="C220">
         <v>1868</v>
       </c>
-    </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P220" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="221" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>103</v>
       </c>
@@ -4258,8 +4594,11 @@
       <c r="C221">
         <v>1868</v>
       </c>
-    </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P221" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="222" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>141</v>
       </c>
@@ -4269,8 +4608,11 @@
       <c r="C222">
         <v>1868</v>
       </c>
-    </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P222" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="223" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>103</v>
       </c>
@@ -4280,10 +4622,13 @@
       <c r="C223">
         <v>1868</v>
       </c>
-    </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P223" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="224" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B224">
         <v>40</v>
@@ -4292,33 +4637,36 @@
         <v>1868</v>
       </c>
       <c r="D224" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E224" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F224" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G224" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="I224" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="J224" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K224" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L224" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+      <c r="P224" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="225" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B225">
         <v>41</v>
@@ -4327,31 +4675,34 @@
         <v>1868</v>
       </c>
       <c r="D225" t="s">
+        <v>169</v>
+      </c>
+      <c r="E225" t="s">
+        <v>155</v>
+      </c>
+      <c r="F225" t="s">
         <v>168</v>
       </c>
-      <c r="E225" t="s">
-        <v>154</v>
-      </c>
-      <c r="F225" t="s">
-        <v>167</v>
-      </c>
       <c r="G225" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I225" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="J225" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K225" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L225" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+      <c r="P225" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="226" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>116</v>
       </c>
@@ -4361,8 +4712,11 @@
       <c r="C226">
         <v>1869</v>
       </c>
-    </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P226" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="227" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>114</v>
       </c>
@@ -4372,8 +4726,11 @@
       <c r="C227">
         <v>1869</v>
       </c>
-    </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P227" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="228" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>143</v>
       </c>
@@ -4383,10 +4740,13 @@
       <c r="C228">
         <v>1869</v>
       </c>
-    </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P228" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="229" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B229">
         <v>43</v>
@@ -4394,8 +4754,11 @@
       <c r="C229">
         <v>1869</v>
       </c>
-    </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P229" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="230" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>128</v>
       </c>
@@ -4405,10 +4768,13 @@
       <c r="C230">
         <v>1869</v>
       </c>
-    </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P230" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="231" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B231">
         <v>43</v>
@@ -4416,8 +4782,11 @@
       <c r="C231">
         <v>1869</v>
       </c>
-    </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P231" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="232" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>139</v>
       </c>
@@ -4427,8 +4796,11 @@
       <c r="C232">
         <v>1869</v>
       </c>
-    </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P232" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="233" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>114</v>
       </c>
@@ -4438,8 +4810,11 @@
       <c r="C233">
         <v>1870</v>
       </c>
-    </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P233" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="234" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>53</v>
       </c>
@@ -4449,10 +4824,13 @@
       <c r="C234">
         <v>1870</v>
       </c>
-    </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P234" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="235" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B235">
         <v>45</v>
@@ -4461,33 +4839,36 @@
         <v>1870</v>
       </c>
       <c r="D235" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E235" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F235" t="s">
+        <v>178</v>
+      </c>
+      <c r="G235" t="s">
+        <v>179</v>
+      </c>
+      <c r="I235" t="s">
         <v>177</v>
       </c>
-      <c r="G235" t="s">
-        <v>178</v>
-      </c>
-      <c r="I235" t="s">
-        <v>176</v>
-      </c>
       <c r="J235" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K235" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L235" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+      <c r="P235" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="236" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B236">
         <v>45</v>
@@ -4495,10 +4876,13 @@
       <c r="C236">
         <v>1870</v>
       </c>
-    </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P236" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="237" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B237">
         <v>45</v>
@@ -4506,8 +4890,11 @@
       <c r="C237">
         <v>1870</v>
       </c>
-    </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P237" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="238" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>133</v>
       </c>
@@ -4517,10 +4904,13 @@
       <c r="C238">
         <v>1871</v>
       </c>
-    </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P238" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="239" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B239">
         <v>46</v>
@@ -4528,8 +4918,11 @@
       <c r="C239">
         <v>1871</v>
       </c>
-    </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P239" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="240" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>114</v>
       </c>
@@ -4539,10 +4932,13 @@
       <c r="C240">
         <v>1871</v>
       </c>
-    </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P240" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="241" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B241">
         <v>47</v>
@@ -4550,8 +4946,11 @@
       <c r="C241">
         <v>1871</v>
       </c>
-    </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P241" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="242" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>141</v>
       </c>
@@ -4561,8 +4960,11 @@
       <c r="C242">
         <v>1871</v>
       </c>
-    </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P242" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="243" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>44</v>
       </c>
@@ -4572,8 +4974,11 @@
       <c r="C243">
         <v>1872</v>
       </c>
-    </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P243" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="244" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>143</v>
       </c>
@@ -4583,8 +4988,11 @@
       <c r="C244">
         <v>1872</v>
       </c>
-    </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P244" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="245" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>103</v>
       </c>
@@ -4594,10 +5002,13 @@
       <c r="C245">
         <v>1872</v>
       </c>
-    </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P245" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="246" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B246">
         <v>48</v>
@@ -4605,10 +5016,13 @@
       <c r="C246">
         <v>1873</v>
       </c>
-    </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P246" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="247" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B247">
         <v>49</v>
@@ -4617,33 +5031,36 @@
         <v>1873</v>
       </c>
       <c r="D247" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E247" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F247" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G247" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="I247" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="J247" t="s">
+        <v>190</v>
+      </c>
+      <c r="K247" t="s">
+        <v>191</v>
+      </c>
+      <c r="L247" t="s">
         <v>189</v>
       </c>
-      <c r="K247" t="s">
-        <v>190</v>
-      </c>
-      <c r="L247" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P247" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="248" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B248">
         <v>49</v>
@@ -4652,33 +5069,36 @@
         <v>1873</v>
       </c>
       <c r="D248" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E248" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F248" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G248" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I248" t="s">
+        <v>195</v>
+      </c>
+      <c r="J248" t="s">
+        <v>196</v>
+      </c>
+      <c r="K248" t="s">
+        <v>197</v>
+      </c>
+      <c r="L248" t="s">
         <v>194</v>
       </c>
-      <c r="J248" t="s">
-        <v>195</v>
-      </c>
-      <c r="K248" t="s">
-        <v>196</v>
-      </c>
-      <c r="L248" t="s">
+      <c r="P248" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="249" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
         <v>193</v>
-      </c>
-    </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A249" t="s">
-        <v>192</v>
       </c>
       <c r="B249">
         <v>49</v>
@@ -4687,31 +5107,34 @@
         <v>1873</v>
       </c>
       <c r="D249" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E249" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F249" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G249" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I249" t="s">
+        <v>195</v>
+      </c>
+      <c r="J249" t="s">
+        <v>196</v>
+      </c>
+      <c r="K249" t="s">
+        <v>197</v>
+      </c>
+      <c r="L249" t="s">
         <v>194</v>
       </c>
-      <c r="J249" t="s">
-        <v>195</v>
-      </c>
-      <c r="K249" t="s">
-        <v>196</v>
-      </c>
-      <c r="L249" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P249" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="250" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>56</v>
       </c>
@@ -4721,10 +5144,13 @@
       <c r="C250">
         <v>1873</v>
       </c>
-    </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P250" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="251" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B251">
         <v>50</v>
@@ -4732,10 +5158,13 @@
       <c r="C251">
         <v>1873</v>
       </c>
-    </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P251" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="252" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B252">
         <v>51</v>
@@ -4743,8 +5172,11 @@
       <c r="C252">
         <v>1873</v>
       </c>
-    </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P252" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="253" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>141</v>
       </c>
@@ -4754,10 +5186,13 @@
       <c r="C253">
         <v>1873</v>
       </c>
-    </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P253" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="254" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B254">
         <v>51</v>
@@ -4765,10 +5200,13 @@
       <c r="C254">
         <v>1873</v>
       </c>
-    </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P254" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="255" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B255">
         <v>52</v>
@@ -4776,16 +5214,22 @@
       <c r="C255">
         <v>1873</v>
       </c>
-    </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P255" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="256" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B256">
         <v>52</v>
       </c>
       <c r="C256">
         <v>1874</v>
+      </c>
+      <c r="P256" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="257" spans="1:17" x14ac:dyDescent="0.25">
@@ -4798,6 +5242,9 @@
       <c r="C257">
         <v>1874</v>
       </c>
+      <c r="P257" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="258" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
@@ -4809,6 +5256,9 @@
       <c r="C258">
         <v>1874</v>
       </c>
+      <c r="P258" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="259" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
@@ -4820,6 +5270,9 @@
       <c r="C259">
         <v>1874</v>
       </c>
+      <c r="P259" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="260" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
@@ -4831,10 +5284,13 @@
       <c r="C260">
         <v>1874</v>
       </c>
+      <c r="P260" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="261" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B261">
         <v>55</v>
@@ -4842,13 +5298,16 @@
       <c r="C261">
         <v>1874</v>
       </c>
+      <c r="P261" t="s">
+        <v>113</v>
+      </c>
       <c r="Q261" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="262" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B262">
         <v>55</v>
@@ -4856,8 +5315,11 @@
       <c r="C262">
         <v>1875</v>
       </c>
+      <c r="P262" t="s">
+        <v>113</v>
+      </c>
       <c r="Q262" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="263" spans="1:17" x14ac:dyDescent="0.25">
@@ -4870,6 +5332,9 @@
       <c r="C263">
         <v>1875</v>
       </c>
+      <c r="P263" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="264" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
@@ -4881,16 +5346,22 @@
       <c r="C264">
         <v>1875</v>
       </c>
+      <c r="P264" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="265" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B265">
         <v>57</v>
       </c>
       <c r="C265">
         <v>1876</v>
+      </c>
+      <c r="P265" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="266" spans="1:17" x14ac:dyDescent="0.25">
@@ -4903,6 +5374,9 @@
       <c r="C266">
         <v>1876</v>
       </c>
+      <c r="P266" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="267" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
@@ -4914,10 +5388,13 @@
       <c r="C267">
         <v>1876</v>
       </c>
+      <c r="P267" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="268" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B268">
         <v>58</v>
@@ -4925,10 +5402,13 @@
       <c r="C268">
         <v>1876</v>
       </c>
+      <c r="P268" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="269" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B269">
         <v>59</v>
@@ -4936,16 +5416,22 @@
       <c r="C269">
         <v>1876</v>
       </c>
+      <c r="P269" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="270" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B270">
         <v>59</v>
       </c>
       <c r="C270">
         <v>1877</v>
+      </c>
+      <c r="P270" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="271" spans="1:17" x14ac:dyDescent="0.25">
@@ -4958,6 +5444,9 @@
       <c r="C271">
         <v>1877</v>
       </c>
+      <c r="P271" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="272" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
@@ -4969,10 +5458,13 @@
       <c r="C272">
         <v>1877</v>
       </c>
-    </row>
-    <row r="273" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P272" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="273" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B273">
         <v>61</v>
@@ -4980,8 +5472,11 @@
       <c r="C273">
         <v>1877</v>
       </c>
-    </row>
-    <row r="274" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P273" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="274" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>21</v>
       </c>
@@ -4991,10 +5486,13 @@
       <c r="C274">
         <v>1877</v>
       </c>
-    </row>
-    <row r="275" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P274" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="275" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B275">
         <v>63</v>
@@ -5002,8 +5500,11 @@
       <c r="C275">
         <v>1877</v>
       </c>
-    </row>
-    <row r="276" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P275" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="276" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>53</v>
       </c>
@@ -5013,10 +5514,13 @@
       <c r="C276">
         <v>1877</v>
       </c>
-    </row>
-    <row r="277" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P276" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="277" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B277">
         <v>64</v>
@@ -5024,10 +5528,13 @@
       <c r="C277">
         <v>1878</v>
       </c>
-    </row>
-    <row r="278" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P277" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="278" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B278">
         <v>64</v>
@@ -5036,31 +5543,34 @@
         <v>1878</v>
       </c>
       <c r="D278" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E278" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F278" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G278" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="I278" t="s">
+        <v>207</v>
+      </c>
+      <c r="J278" t="s">
+        <v>208</v>
+      </c>
+      <c r="K278" t="s">
+        <v>150</v>
+      </c>
+      <c r="L278" t="s">
         <v>206</v>
       </c>
-      <c r="J278" t="s">
-        <v>207</v>
-      </c>
-      <c r="K278" t="s">
-        <v>149</v>
-      </c>
-      <c r="L278" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="279" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P278" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="279" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>103</v>
       </c>
@@ -5070,10 +5580,13 @@
       <c r="C279">
         <v>1878</v>
       </c>
-    </row>
-    <row r="280" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P279" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="280" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B280">
         <v>65</v>
@@ -5081,8 +5594,11 @@
       <c r="C280">
         <v>1878</v>
       </c>
-    </row>
-    <row r="281" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P280" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="281" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>44</v>
       </c>
@@ -5092,10 +5608,13 @@
       <c r="C281">
         <v>1879</v>
       </c>
-    </row>
-    <row r="282" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P281" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="282" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B282">
         <v>66</v>
@@ -5103,10 +5622,13 @@
       <c r="C282">
         <v>1879</v>
       </c>
-    </row>
-    <row r="283" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P282" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="283" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B283">
         <v>67</v>
@@ -5114,8 +5636,11 @@
       <c r="C283">
         <v>1879</v>
       </c>
-    </row>
-    <row r="284" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P283" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="284" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>103</v>
       </c>
@@ -5125,10 +5650,13 @@
       <c r="C284">
         <v>1880</v>
       </c>
-    </row>
-    <row r="285" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P284" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="285" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B285">
         <v>68</v>
@@ -5136,10 +5664,13 @@
       <c r="C285">
         <v>1880</v>
       </c>
-    </row>
-    <row r="286" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P285" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="286" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B286">
         <v>68</v>
@@ -5147,10 +5678,13 @@
       <c r="C286">
         <v>1880</v>
       </c>
-    </row>
-    <row r="287" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P286" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="287" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B287">
         <v>69</v>
@@ -5158,10 +5692,13 @@
       <c r="C287">
         <v>1880</v>
       </c>
-    </row>
-    <row r="288" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P287" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="288" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B288">
         <v>69</v>
@@ -5169,10 +5706,13 @@
       <c r="C288">
         <v>1880</v>
       </c>
+      <c r="P288" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="289" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B289">
         <v>70</v>
@@ -5181,33 +5721,36 @@
         <v>1880</v>
       </c>
       <c r="D289" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E289" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F289" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G289" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="I289" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="J289" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K289" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L289" t="s">
-        <v>213</v>
+        <v>214</v>
+      </c>
+      <c r="P289" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="290" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B290">
         <v>71</v>
@@ -5216,39 +5759,45 @@
         <v>1880</v>
       </c>
       <c r="D290" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E290" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F290" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G290" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="I290" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="J290" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K290" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L290" t="s">
-        <v>213</v>
+        <v>214</v>
+      </c>
+      <c r="P290" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="291" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B291">
         <v>72</v>
       </c>
       <c r="C291">
         <v>1881</v>
+      </c>
+      <c r="P291" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="292" spans="1:17" x14ac:dyDescent="0.25">
@@ -5261,10 +5810,13 @@
       <c r="C292">
         <v>1881</v>
       </c>
+      <c r="P292" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="293" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B293">
         <v>73</v>
@@ -5273,28 +5825,31 @@
         <v>1881</v>
       </c>
       <c r="D293" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E293" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F293" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G293" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="I293" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J293" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K293" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L293" t="s">
-        <v>218</v>
+        <v>219</v>
+      </c>
+      <c r="P293" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="294" spans="1:17" x14ac:dyDescent="0.25">
@@ -5307,13 +5862,16 @@
       <c r="C294">
         <v>1881</v>
       </c>
+      <c r="P294" t="s">
+        <v>113</v>
+      </c>
       <c r="Q294" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="295" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B295">
         <v>74</v>
@@ -5321,16 +5879,22 @@
       <c r="C295">
         <v>1882</v>
       </c>
+      <c r="P295" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="296" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B296">
         <v>75</v>
       </c>
       <c r="C296">
         <v>1882</v>
+      </c>
+      <c r="P296" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="297" spans="1:17" x14ac:dyDescent="0.25">
@@ -5343,10 +5907,13 @@
       <c r="C297">
         <v>1882</v>
       </c>
+      <c r="P297" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="298" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B298">
         <v>76</v>
@@ -5354,10 +5921,13 @@
       <c r="C298">
         <v>1883</v>
       </c>
+      <c r="P298" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="299" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B299">
         <v>76</v>
@@ -5365,16 +5935,22 @@
       <c r="C299">
         <v>1883</v>
       </c>
+      <c r="P299" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="300" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B300">
         <v>77</v>
       </c>
       <c r="C300">
         <v>1884</v>
+      </c>
+      <c r="P300" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="301" spans="1:17" x14ac:dyDescent="0.25">
@@ -5387,16 +5963,22 @@
       <c r="C301">
         <v>1884</v>
       </c>
+      <c r="P301" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="302" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B302">
         <v>78</v>
       </c>
       <c r="C302">
         <v>1884</v>
+      </c>
+      <c r="P302" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="303" spans="1:17" x14ac:dyDescent="0.25">
@@ -5409,10 +5991,13 @@
       <c r="C303">
         <v>1884</v>
       </c>
+      <c r="P303" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="304" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B304">
         <v>79</v>
@@ -5420,10 +6005,13 @@
       <c r="C304">
         <v>1885</v>
       </c>
-    </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="P304" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="305" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B305">
         <v>79</v>
@@ -5431,10 +6019,13 @@
       <c r="C305">
         <v>1885</v>
       </c>
-    </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="P305" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="306" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B306">
         <v>80</v>
@@ -5442,16 +6033,693 @@
       <c r="C306">
         <v>1866</v>
       </c>
-    </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="P306" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="307" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B307">
         <v>80</v>
       </c>
       <c r="C307">
         <v>1866</v>
+      </c>
+      <c r="P307" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="308" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>231</v>
+      </c>
+      <c r="B308">
+        <v>81</v>
+      </c>
+      <c r="C308">
+        <v>1866</v>
+      </c>
+      <c r="P308" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="309" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>152</v>
+      </c>
+      <c r="B309">
+        <v>81</v>
+      </c>
+      <c r="C309">
+        <v>1866</v>
+      </c>
+      <c r="P309" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="310" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>212</v>
+      </c>
+      <c r="B310">
+        <v>81</v>
+      </c>
+      <c r="C310">
+        <v>1866</v>
+      </c>
+      <c r="P310" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="311" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>218</v>
+      </c>
+      <c r="B311">
+        <v>82</v>
+      </c>
+      <c r="C311">
+        <v>1866</v>
+      </c>
+      <c r="P311" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="312" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>210</v>
+      </c>
+      <c r="B312">
+        <v>82</v>
+      </c>
+      <c r="C312">
+        <v>1866</v>
+      </c>
+      <c r="P312" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="313" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>232</v>
+      </c>
+      <c r="B313">
+        <v>83</v>
+      </c>
+      <c r="C313">
+        <v>1866</v>
+      </c>
+      <c r="P313" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="314" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>234</v>
+      </c>
+      <c r="B314">
+        <v>83</v>
+      </c>
+      <c r="C314">
+        <v>1867</v>
+      </c>
+      <c r="D314" t="s">
+        <v>185</v>
+      </c>
+      <c r="E314" t="s">
+        <v>186</v>
+      </c>
+      <c r="F314" t="s">
+        <v>178</v>
+      </c>
+      <c r="G314" t="s">
+        <v>179</v>
+      </c>
+      <c r="I314" t="s">
+        <v>235</v>
+      </c>
+      <c r="J314" t="s">
+        <v>236</v>
+      </c>
+      <c r="K314" t="s">
+        <v>237</v>
+      </c>
+      <c r="L314" t="s">
+        <v>233</v>
+      </c>
+      <c r="P314" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="315" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>238</v>
+      </c>
+      <c r="B315">
+        <v>83</v>
+      </c>
+      <c r="C315">
+        <v>1867</v>
+      </c>
+      <c r="P315" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="316" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>240</v>
+      </c>
+      <c r="B316">
+        <v>84</v>
+      </c>
+      <c r="C316">
+        <v>1887</v>
+      </c>
+      <c r="D316" t="s">
+        <v>236</v>
+      </c>
+      <c r="E316" t="s">
+        <v>237</v>
+      </c>
+      <c r="F316" t="s">
+        <v>242</v>
+      </c>
+      <c r="G316" t="s">
+        <v>243</v>
+      </c>
+      <c r="I316" t="s">
+        <v>241</v>
+      </c>
+      <c r="J316" t="s">
+        <v>244</v>
+      </c>
+      <c r="K316" t="s">
+        <v>245</v>
+      </c>
+      <c r="L316" t="s">
+        <v>239</v>
+      </c>
+      <c r="P316" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="317" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>184</v>
+      </c>
+      <c r="B317">
+        <v>84</v>
+      </c>
+      <c r="C317">
+        <v>1887</v>
+      </c>
+      <c r="P317" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="318" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>175</v>
+      </c>
+      <c r="B318">
+        <v>85</v>
+      </c>
+      <c r="C318">
+        <v>1887</v>
+      </c>
+      <c r="P318" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="319" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>57</v>
+      </c>
+      <c r="B319">
+        <v>85</v>
+      </c>
+      <c r="C319">
+        <v>1887</v>
+      </c>
+      <c r="P319" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="320" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>21</v>
+      </c>
+      <c r="B320">
+        <v>86</v>
+      </c>
+      <c r="C320">
+        <v>1887</v>
+      </c>
+      <c r="P320" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="321" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>103</v>
+      </c>
+      <c r="B321">
+        <v>87</v>
+      </c>
+      <c r="C321">
+        <v>1888</v>
+      </c>
+      <c r="P321" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="322" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>59</v>
+      </c>
+      <c r="B322">
+        <v>88</v>
+      </c>
+      <c r="C322">
+        <v>1888</v>
+      </c>
+      <c r="P322" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="323" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>230</v>
+      </c>
+      <c r="B323">
+        <v>88</v>
+      </c>
+      <c r="C323">
+        <v>1889</v>
+      </c>
+      <c r="P323" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="324" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>246</v>
+      </c>
+      <c r="B324">
+        <v>89</v>
+      </c>
+      <c r="C324">
+        <v>1889</v>
+      </c>
+      <c r="P324" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="325" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>231</v>
+      </c>
+      <c r="B325">
+        <v>89</v>
+      </c>
+      <c r="C325">
+        <v>1889</v>
+      </c>
+      <c r="P325" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="326" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>64</v>
+      </c>
+      <c r="B326">
+        <v>90</v>
+      </c>
+      <c r="C326">
+        <v>1889</v>
+      </c>
+      <c r="P326" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="327" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>212</v>
+      </c>
+      <c r="B327">
+        <v>90</v>
+      </c>
+      <c r="C327">
+        <v>1889</v>
+      </c>
+      <c r="P327" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="328" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>247</v>
+      </c>
+      <c r="B328">
+        <v>91</v>
+      </c>
+      <c r="C328">
+        <v>1890</v>
+      </c>
+      <c r="P328" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="329" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
+        <v>184</v>
+      </c>
+      <c r="B329">
+        <v>91</v>
+      </c>
+      <c r="C329">
+        <v>1890</v>
+      </c>
+      <c r="P329" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="330" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
+        <v>103</v>
+      </c>
+      <c r="B330">
+        <v>92</v>
+      </c>
+      <c r="C330">
+        <v>1890</v>
+      </c>
+      <c r="P330" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="331" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
+        <v>246</v>
+      </c>
+      <c r="B331">
+        <v>93</v>
+      </c>
+      <c r="C331">
+        <v>1891</v>
+      </c>
+      <c r="P331" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="332" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
+        <v>55</v>
+      </c>
+      <c r="B332">
+        <v>93</v>
+      </c>
+      <c r="C332">
+        <v>1892</v>
+      </c>
+      <c r="P332" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="333" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
+        <v>227</v>
+      </c>
+      <c r="B333">
+        <v>94</v>
+      </c>
+      <c r="C333">
+        <v>1892</v>
+      </c>
+      <c r="P333" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="334" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
+        <v>212</v>
+      </c>
+      <c r="B334">
+        <v>94</v>
+      </c>
+      <c r="C334">
+        <v>1892</v>
+      </c>
+      <c r="P334" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="335" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
+        <v>231</v>
+      </c>
+      <c r="B335">
+        <v>95</v>
+      </c>
+      <c r="C335">
+        <v>1892</v>
+      </c>
+      <c r="P335" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="336" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>218</v>
+      </c>
+      <c r="B336">
+        <v>95</v>
+      </c>
+      <c r="C336">
+        <v>1892</v>
+      </c>
+      <c r="P336" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="337" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
+        <v>57</v>
+      </c>
+      <c r="B337">
+        <v>96</v>
+      </c>
+      <c r="C337">
+        <v>1892</v>
+      </c>
+      <c r="P337" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="338" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
+        <v>64</v>
+      </c>
+      <c r="B338">
+        <v>96</v>
+      </c>
+      <c r="C338">
+        <v>1892</v>
+      </c>
+      <c r="P338" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="339" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
+        <v>184</v>
+      </c>
+      <c r="B339">
+        <v>97</v>
+      </c>
+      <c r="C339">
+        <v>1893</v>
+      </c>
+      <c r="P339" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="340" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
+        <v>209</v>
+      </c>
+      <c r="B340">
+        <v>97</v>
+      </c>
+      <c r="C340">
+        <v>1893</v>
+      </c>
+      <c r="P340" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="341" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
+        <v>53</v>
+      </c>
+      <c r="B341">
+        <v>98</v>
+      </c>
+      <c r="C341">
+        <v>1893</v>
+      </c>
+      <c r="P341" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="342" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
+        <v>44</v>
+      </c>
+      <c r="B342">
+        <v>98</v>
+      </c>
+      <c r="C342">
+        <v>1894</v>
+      </c>
+      <c r="P342" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="343" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A343" t="s">
+        <v>55</v>
+      </c>
+      <c r="B343">
+        <v>99</v>
+      </c>
+      <c r="C343">
+        <v>1894</v>
+      </c>
+      <c r="P343" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="344" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A344" t="s">
+        <v>59</v>
+      </c>
+      <c r="B344">
+        <v>99</v>
+      </c>
+      <c r="C344">
+        <v>1894</v>
+      </c>
+      <c r="P344" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="345" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
+        <v>231</v>
+      </c>
+      <c r="B345">
+        <v>100</v>
+      </c>
+      <c r="C345">
+        <v>1895</v>
+      </c>
+      <c r="P345" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="346" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
+        <v>212</v>
+      </c>
+      <c r="B346">
+        <v>100</v>
+      </c>
+      <c r="C346">
+        <v>1895</v>
+      </c>
+      <c r="P346" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="347" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
+        <v>57</v>
+      </c>
+      <c r="B347">
+        <v>101</v>
+      </c>
+      <c r="C347">
+        <v>1895</v>
+      </c>
+      <c r="P347" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="348" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A348" t="s">
+        <v>248</v>
+      </c>
+      <c r="B348">
+        <v>101</v>
+      </c>
+      <c r="C348">
+        <v>1895</v>
+      </c>
+      <c r="P348" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="349" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
+        <v>249</v>
+      </c>
+      <c r="B349">
+        <v>103</v>
+      </c>
+      <c r="C349">
+        <v>1895</v>
+      </c>
+      <c r="D349" t="s">
+        <v>49</v>
+      </c>
+      <c r="E349" t="s">
+        <v>74</v>
+      </c>
+      <c r="F349" t="s">
+        <v>48</v>
+      </c>
+      <c r="G349" t="s">
+        <v>50</v>
+      </c>
+      <c r="I349" t="s">
+        <v>251</v>
+      </c>
+      <c r="J349" t="s">
+        <v>252</v>
+      </c>
+      <c r="K349" t="s">
+        <v>146</v>
+      </c>
+      <c r="L349" t="s">
+        <v>250</v>
+      </c>
+      <c r="P349" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="350" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
+        <v>64</v>
+      </c>
+      <c r="B350">
+        <v>104</v>
+      </c>
+      <c r="C350">
+        <v>1895</v>
       </c>
     </row>
   </sheetData>

--- a/Bisbats/Catalunya/Lleida/Blancafort/Sacraments/Baptismes/Excel/Baptismes_Parroquia_Blancafort.xlsx
+++ b/Bisbats/Catalunya/Lleida/Blancafort/Sacraments/Baptismes/Excel/Baptismes_Parroquia_Blancafort.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vstudio-code\repositorisArbre\DadesGenerals\Bisbats\Catalunya\Lleida\Blancafort\Sacraments\Baptismes\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96C53757-E3B2-4DC7-BEE4-39EE0132F724}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29E7D78B-ADA5-46EE-8FDB-015885FF2210}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$Q$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$Q$350</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1123" uniqueCount="301">
   <si>
     <t>Cognoms</t>
   </si>
@@ -369,9 +369,6 @@
     <t>Paula Gessé Miranda</t>
   </si>
   <si>
-    <t>6 Baptismes 1852-1895</t>
-  </si>
-  <si>
     <t>Badia Gessé</t>
   </si>
   <si>
@@ -516,6 +513,9 @@
     <t>Gessé Gessé Jaume Joaquim</t>
   </si>
   <si>
+    <t>Jaume Gessé</t>
+  </si>
+  <si>
     <t>Jaume Gessé i Maria Ros</t>
   </si>
   <si>
@@ -787,6 +787,150 @@
   </si>
   <si>
     <t xml:space="preserve">Medardo Miranda </t>
+  </si>
+  <si>
+    <t>4 Baptismes 1852-1895</t>
+  </si>
+  <si>
+    <t>3 Baptismes 1831-1851</t>
+  </si>
+  <si>
+    <t>Gessé Gessé Anton Joseph Domingo</t>
+  </si>
+  <si>
+    <t>26/09/1831</t>
+  </si>
+  <si>
+    <t>Anton Gessé</t>
+  </si>
+  <si>
+    <t>Antonia Gessé Clua</t>
+  </si>
+  <si>
+    <t>Pagès</t>
+  </si>
+  <si>
+    <t>Teresa Costa (Tia)</t>
+  </si>
+  <si>
+    <t>Anton Gessé (Oncle)</t>
+  </si>
+  <si>
+    <t>Badia Miret</t>
+  </si>
+  <si>
+    <t>Gessé Cortés</t>
+  </si>
+  <si>
+    <t>Estada Castells</t>
+  </si>
+  <si>
+    <t>Gessé Rodrigo</t>
+  </si>
+  <si>
+    <t>Bendicho Mas</t>
+  </si>
+  <si>
+    <t>25/03/1834</t>
+  </si>
+  <si>
+    <t>Gessé Gessé Bonaventura Medardo Domingo</t>
+  </si>
+  <si>
+    <t>Medarda Ferrer</t>
+  </si>
+  <si>
+    <t>Ensenyat Cases</t>
+  </si>
+  <si>
+    <t>Gessé Mas</t>
+  </si>
+  <si>
+    <t>Gessé Taribo</t>
+  </si>
+  <si>
+    <t>Gessé Ferrer</t>
+  </si>
+  <si>
+    <t>17/04/1837</t>
+  </si>
+  <si>
+    <t>Gessé Gessé Antonia Maria Joana</t>
+  </si>
+  <si>
+    <t>Blasi Gessé (Oncle)</t>
+  </si>
+  <si>
+    <t>Maria Gessé Conde (Tia)</t>
+  </si>
+  <si>
+    <t>Vidal Caufapé</t>
+  </si>
+  <si>
+    <t>Gessé Gessé Francesca Maria Dominga</t>
+  </si>
+  <si>
+    <t>22/12/1839</t>
+  </si>
+  <si>
+    <t>Francisco Castells Macarulla (Fadri)</t>
+  </si>
+  <si>
+    <t>Maria Badia Miret</t>
+  </si>
+  <si>
+    <t>Mas Español</t>
+  </si>
+  <si>
+    <t>Ensenyat Barrera</t>
+  </si>
+  <si>
+    <t>Arant Ferrer</t>
+  </si>
+  <si>
+    <t>Gràs Ros</t>
+  </si>
+  <si>
+    <t>Gessé Gessé Josepa Maria Antonia</t>
+  </si>
+  <si>
+    <t>Josep Folguera (Fadrí)(Pagès) (Torre de la meó)</t>
+  </si>
+  <si>
+    <t>Maria Gessé Casals (Donsella)(Tia)</t>
+  </si>
+  <si>
+    <t>02/09/1842</t>
+  </si>
+  <si>
+    <t>Aran Ferrer</t>
+  </si>
+  <si>
+    <t>Gessé Farrando</t>
+  </si>
+  <si>
+    <t>Gessé Incognit</t>
+  </si>
+  <si>
+    <t>12/04/1848</t>
+  </si>
+  <si>
+    <t>Gessé Gessé Joseph Jaume Julià</t>
+  </si>
+  <si>
+    <t>Vicenta Gessé</t>
+  </si>
+  <si>
+    <t>Joseph Estada (Fadri)</t>
+  </si>
+  <si>
+    <t>Joseph Gessé i Teresa Gessé</t>
+  </si>
+  <si>
+    <t>Thomas Gessé i Rita Gessé</t>
+  </si>
+  <si>
+    <t>Aran Pedra</t>
   </si>
 </sst>
 </file>
@@ -1121,11 +1265,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q350"/>
+  <dimension ref="A1:Q436"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A335" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O364" sqref="O364"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A411" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A437" sqref="A437"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3281,7 +3425,7 @@
     </row>
     <row r="131" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B131">
         <v>1</v>
@@ -3290,12 +3434,12 @@
         <v>1852</v>
       </c>
       <c r="P131" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="132" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B132">
         <v>1</v>
@@ -3304,12 +3448,12 @@
         <v>1852</v>
       </c>
       <c r="P132" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="133" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B133">
         <v>1</v>
@@ -3318,7 +3462,7 @@
         <v>1852</v>
       </c>
       <c r="P133" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="134" spans="1:16" x14ac:dyDescent="0.25">
@@ -3332,12 +3476,12 @@
         <v>1852</v>
       </c>
       <c r="P134" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="135" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B135">
         <v>2</v>
@@ -3346,12 +3490,12 @@
         <v>1852</v>
       </c>
       <c r="P135" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="136" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B136">
         <v>3</v>
@@ -3360,12 +3504,12 @@
         <v>1852</v>
       </c>
       <c r="P136" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="137" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B137">
         <v>3</v>
@@ -3374,23 +3518,23 @@
         <v>1852</v>
       </c>
       <c r="P137" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="138" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="P138" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="139" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B139">
         <v>4</v>
@@ -3399,7 +3543,7 @@
         <v>1852</v>
       </c>
       <c r="P139" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="140" spans="1:16" x14ac:dyDescent="0.25">
@@ -3413,12 +3557,12 @@
         <v>1853</v>
       </c>
       <c r="P140" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="141" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B141">
         <v>4</v>
@@ -3427,12 +3571,12 @@
         <v>1853</v>
       </c>
       <c r="P141" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="142" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B142">
         <v>5</v>
@@ -3441,12 +3585,12 @@
         <v>1853</v>
       </c>
       <c r="P142" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="143" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B143">
         <v>5</v>
@@ -3455,12 +3599,12 @@
         <v>1853</v>
       </c>
       <c r="P143" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="144" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B144">
         <v>6</v>
@@ -3469,7 +3613,7 @@
         <v>1853</v>
       </c>
       <c r="P144" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="145" spans="1:16" x14ac:dyDescent="0.25">
@@ -3483,12 +3627,12 @@
         <v>1853</v>
       </c>
       <c r="P145" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="146" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B146">
         <v>6</v>
@@ -3497,12 +3641,12 @@
         <v>1854</v>
       </c>
       <c r="P146" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="147" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B147">
         <v>7</v>
@@ -3511,12 +3655,12 @@
         <v>1854</v>
       </c>
       <c r="P147" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="148" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B148">
         <v>7</v>
@@ -3525,12 +3669,12 @@
         <v>1854</v>
       </c>
       <c r="P148" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="149" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B149">
         <v>8</v>
@@ -3539,12 +3683,12 @@
         <v>1854</v>
       </c>
       <c r="P149" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="150" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B150">
         <v>8</v>
@@ -3553,7 +3697,7 @@
         <v>1854</v>
       </c>
       <c r="P150" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="151" spans="1:16" x14ac:dyDescent="0.25">
@@ -3567,12 +3711,12 @@
         <v>1854</v>
       </c>
       <c r="P151" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="152" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B152">
         <v>9</v>
@@ -3581,12 +3725,12 @@
         <v>1854</v>
       </c>
       <c r="P152" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="153" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B153">
         <v>9</v>
@@ -3595,12 +3739,12 @@
         <v>1855</v>
       </c>
       <c r="P153" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="154" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B154">
         <v>9</v>
@@ -3609,12 +3753,12 @@
         <v>1855</v>
       </c>
       <c r="P154" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="155" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B155">
         <v>10</v>
@@ -3623,12 +3767,12 @@
         <v>1855</v>
       </c>
       <c r="P155" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="156" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B156">
         <v>10</v>
@@ -3637,12 +3781,12 @@
         <v>1855</v>
       </c>
       <c r="P156" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="157" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B157">
         <v>10</v>
@@ -3651,7 +3795,7 @@
         <v>1855</v>
       </c>
       <c r="P157" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="158" spans="1:16" x14ac:dyDescent="0.25">
@@ -3665,12 +3809,12 @@
         <v>1856</v>
       </c>
       <c r="P158" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="159" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B159">
         <v>11</v>
@@ -3679,12 +3823,12 @@
         <v>1856</v>
       </c>
       <c r="P159" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="160" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B160">
         <v>12</v>
@@ -3693,7 +3837,7 @@
         <v>1856</v>
       </c>
       <c r="P160" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="161" spans="1:16" x14ac:dyDescent="0.25">
@@ -3707,12 +3851,12 @@
         <v>1856</v>
       </c>
       <c r="P161" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="162" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B162">
         <v>13</v>
@@ -3721,12 +3865,12 @@
         <v>1857</v>
       </c>
       <c r="P162" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="163" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B163">
         <v>13</v>
@@ -3735,12 +3879,12 @@
         <v>1857</v>
       </c>
       <c r="P163" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="164" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B164">
         <v>14</v>
@@ -3749,12 +3893,12 @@
         <v>1857</v>
       </c>
       <c r="P164" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="165" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B165">
         <v>15</v>
@@ -3763,12 +3907,12 @@
         <v>1857</v>
       </c>
       <c r="P165" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="166" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B166">
         <v>16</v>
@@ -3777,12 +3921,12 @@
         <v>1858</v>
       </c>
       <c r="P166" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="167" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B167">
         <v>16</v>
@@ -3791,12 +3935,12 @@
         <v>1858</v>
       </c>
       <c r="P167" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="168" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B168">
         <v>16</v>
@@ -3805,12 +3949,12 @@
         <v>1858</v>
       </c>
       <c r="P168" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="169" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B169">
         <v>17</v>
@@ -3819,7 +3963,7 @@
         <v>1858</v>
       </c>
       <c r="P169" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="170" spans="1:16" x14ac:dyDescent="0.25">
@@ -3833,7 +3977,7 @@
         <v>1858</v>
       </c>
       <c r="P170" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="171" spans="1:16" x14ac:dyDescent="0.25">
@@ -3847,12 +3991,12 @@
         <v>1858</v>
       </c>
       <c r="P171" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="172" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B172">
         <v>18</v>
@@ -3861,12 +4005,12 @@
         <v>1858</v>
       </c>
       <c r="P172" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="173" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B173">
         <v>19</v>
@@ -3875,12 +4019,12 @@
         <v>1859</v>
       </c>
       <c r="P173" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="174" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B174">
         <v>19</v>
@@ -3889,12 +4033,12 @@
         <v>1860</v>
       </c>
       <c r="P174" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="175" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B175">
         <v>20</v>
@@ -3903,12 +4047,12 @@
         <v>1860</v>
       </c>
       <c r="P175" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="176" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B176">
         <v>20</v>
@@ -3917,7 +4061,7 @@
         <v>1860</v>
       </c>
       <c r="P176" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="177" spans="1:16" x14ac:dyDescent="0.25">
@@ -3931,12 +4075,12 @@
         <v>1860</v>
       </c>
       <c r="P177" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="178" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B178">
         <v>21</v>
@@ -3945,12 +4089,12 @@
         <v>1860</v>
       </c>
       <c r="P178" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="179" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B179">
         <v>21</v>
@@ -3959,12 +4103,12 @@
         <v>1860</v>
       </c>
       <c r="P179" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="180" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B180">
         <v>22</v>
@@ -3973,12 +4117,12 @@
         <v>1860</v>
       </c>
       <c r="P180" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="181" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B181">
         <v>22</v>
@@ -3987,12 +4131,12 @@
         <v>1860</v>
       </c>
       <c r="P181" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="182" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B182">
         <v>22</v>
@@ -4001,7 +4145,7 @@
         <v>1861</v>
       </c>
       <c r="P182" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="183" spans="1:16" x14ac:dyDescent="0.25">
@@ -4015,12 +4159,12 @@
         <v>1861</v>
       </c>
       <c r="P183" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="184" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B184">
         <v>23</v>
@@ -4029,12 +4173,12 @@
         <v>1861</v>
       </c>
       <c r="P184" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="185" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B185">
         <v>24</v>
@@ -4043,7 +4187,7 @@
         <v>1861</v>
       </c>
       <c r="P185" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="186" spans="1:16" x14ac:dyDescent="0.25">
@@ -4057,12 +4201,12 @@
         <v>1861</v>
       </c>
       <c r="P186" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="187" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B187">
         <v>25</v>
@@ -4071,12 +4215,12 @@
         <v>1861</v>
       </c>
       <c r="P187" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="188" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B188">
         <v>25</v>
@@ -4085,12 +4229,12 @@
         <v>1862</v>
       </c>
       <c r="P188" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="189" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B189">
         <v>26</v>
@@ -4099,12 +4243,12 @@
         <v>1862</v>
       </c>
       <c r="P189" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="190" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B190">
         <v>26</v>
@@ -4113,12 +4257,12 @@
         <v>1862</v>
       </c>
       <c r="P190" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="191" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B191">
         <v>27</v>
@@ -4127,12 +4271,12 @@
         <v>1862</v>
       </c>
       <c r="P191" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="192" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B192">
         <v>27</v>
@@ -4141,12 +4285,12 @@
         <v>1863</v>
       </c>
       <c r="P192" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="193" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B193">
         <v>28</v>
@@ -4155,12 +4299,12 @@
         <v>1863</v>
       </c>
       <c r="P193" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="194" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B194">
         <v>28</v>
@@ -4169,12 +4313,12 @@
         <v>1863</v>
       </c>
       <c r="P194" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="195" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B195">
         <v>29</v>
@@ -4183,12 +4327,12 @@
         <v>1863</v>
       </c>
       <c r="P195" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="196" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B196">
         <v>29</v>
@@ -4200,33 +4344,33 @@
         <v>75</v>
       </c>
       <c r="E196" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F196" t="s">
+        <v>146</v>
+      </c>
+      <c r="G196" t="s">
         <v>147</v>
       </c>
-      <c r="G196" t="s">
+      <c r="I196" t="s">
+        <v>143</v>
+      </c>
+      <c r="J196" t="s">
         <v>148</v>
       </c>
-      <c r="I196" t="s">
-        <v>144</v>
-      </c>
-      <c r="J196" t="s">
+      <c r="K196" t="s">
         <v>149</v>
       </c>
-      <c r="K196" t="s">
-        <v>150</v>
-      </c>
       <c r="L196" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="P196" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="197" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B197">
         <v>30</v>
@@ -4235,12 +4379,12 @@
         <v>1863</v>
       </c>
       <c r="P197" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="198" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B198">
         <v>30</v>
@@ -4249,12 +4393,12 @@
         <v>1863</v>
       </c>
       <c r="P198" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="199" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B199">
         <v>31</v>
@@ -4263,12 +4407,12 @@
         <v>1863</v>
       </c>
       <c r="P199" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="200" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B200">
         <v>31</v>
@@ -4277,7 +4421,7 @@
         <v>1864</v>
       </c>
       <c r="P200" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="201" spans="1:16" x14ac:dyDescent="0.25">
@@ -4291,12 +4435,12 @@
         <v>1864</v>
       </c>
       <c r="P201" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="202" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B202">
         <v>32</v>
@@ -4305,12 +4449,12 @@
         <v>1864</v>
       </c>
       <c r="P202" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="203" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B203">
         <v>32</v>
@@ -4319,12 +4463,12 @@
         <v>1864</v>
       </c>
       <c r="P203" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="204" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B204">
         <v>33</v>
@@ -4333,12 +4477,12 @@
         <v>1864</v>
       </c>
       <c r="P204" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="205" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B205">
         <v>33</v>
@@ -4347,12 +4491,12 @@
         <v>1865</v>
       </c>
       <c r="P205" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="206" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B206">
         <v>33</v>
@@ -4361,12 +4505,12 @@
         <v>1865</v>
       </c>
       <c r="P206" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="207" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B207">
         <v>34</v>
@@ -4375,12 +4519,12 @@
         <v>1865</v>
       </c>
       <c r="P207" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="208" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B208">
         <v>34</v>
@@ -4398,27 +4542,27 @@
         <v>172</v>
       </c>
       <c r="G208" t="s">
+        <v>147</v>
+      </c>
+      <c r="I208" t="s">
+        <v>152</v>
+      </c>
+      <c r="J208" t="s">
         <v>148</v>
-      </c>
-      <c r="I208" t="s">
-        <v>153</v>
-      </c>
-      <c r="J208" t="s">
-        <v>149</v>
       </c>
       <c r="K208" t="s">
         <v>173</v>
       </c>
       <c r="L208" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="P208" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="209" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B209">
         <v>34</v>
@@ -4427,12 +4571,12 @@
         <v>1866</v>
       </c>
       <c r="P209" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="210" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B210">
         <v>35</v>
@@ -4441,12 +4585,12 @@
         <v>1866</v>
       </c>
       <c r="P210" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="211" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B211">
         <v>35</v>
@@ -4455,12 +4599,12 @@
         <v>1866</v>
       </c>
       <c r="P211" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="212" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B212">
         <v>35</v>
@@ -4469,7 +4613,7 @@
         <v>1866</v>
       </c>
       <c r="P212" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="213" spans="1:16" x14ac:dyDescent="0.25">
@@ -4483,12 +4627,12 @@
         <v>1866</v>
       </c>
       <c r="P213" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="214" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B214">
         <v>36</v>
@@ -4497,12 +4641,12 @@
         <v>1866</v>
       </c>
       <c r="P214" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="215" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B215">
         <v>36</v>
@@ -4511,12 +4655,12 @@
         <v>1866</v>
       </c>
       <c r="P215" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="216" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B216">
         <v>37</v>
@@ -4525,12 +4669,12 @@
         <v>1867</v>
       </c>
       <c r="P216" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="217" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B217">
         <v>37</v>
@@ -4539,12 +4683,12 @@
         <v>1867</v>
       </c>
       <c r="P217" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="218" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B218">
         <v>37</v>
@@ -4553,12 +4697,12 @@
         <v>1867</v>
       </c>
       <c r="P218" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="219" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B219">
         <v>38</v>
@@ -4567,12 +4711,12 @@
         <v>1868</v>
       </c>
       <c r="P219" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="220" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B220">
         <v>38</v>
@@ -4581,7 +4725,7 @@
         <v>1868</v>
       </c>
       <c r="P220" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="221" spans="1:16" x14ac:dyDescent="0.25">
@@ -4595,12 +4739,12 @@
         <v>1868</v>
       </c>
       <c r="P221" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="222" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B222">
         <v>39</v>
@@ -4609,7 +4753,7 @@
         <v>1868</v>
       </c>
       <c r="P222" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="223" spans="1:16" x14ac:dyDescent="0.25">
@@ -4623,12 +4767,12 @@
         <v>1868</v>
       </c>
       <c r="P223" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="224" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B224">
         <v>40</v>
@@ -4649,7 +4793,7 @@
         <v>163</v>
       </c>
       <c r="I224" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J224" t="s">
         <v>164</v>
@@ -4658,10 +4802,10 @@
         <v>165</v>
       </c>
       <c r="L224" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="P224" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="225" spans="1:16" x14ac:dyDescent="0.25">
@@ -4678,33 +4822,33 @@
         <v>169</v>
       </c>
       <c r="E225" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F225" t="s">
         <v>168</v>
       </c>
       <c r="G225" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I225" t="s">
         <v>166</v>
       </c>
       <c r="J225" t="s">
+        <v>148</v>
+      </c>
+      <c r="K225" t="s">
         <v>149</v>
-      </c>
-      <c r="K225" t="s">
-        <v>150</v>
       </c>
       <c r="L225" t="s">
         <v>166</v>
       </c>
       <c r="P225" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="226" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B226">
         <v>41</v>
@@ -4713,12 +4857,12 @@
         <v>1869</v>
       </c>
       <c r="P226" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="227" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B227">
         <v>42</v>
@@ -4727,12 +4871,12 @@
         <v>1869</v>
       </c>
       <c r="P227" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="228" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B228">
         <v>42</v>
@@ -4741,12 +4885,12 @@
         <v>1869</v>
       </c>
       <c r="P228" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="229" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B229">
         <v>43</v>
@@ -4755,12 +4899,12 @@
         <v>1869</v>
       </c>
       <c r="P229" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="230" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B230">
         <v>43</v>
@@ -4769,7 +4913,7 @@
         <v>1869</v>
       </c>
       <c r="P230" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="231" spans="1:16" x14ac:dyDescent="0.25">
@@ -4783,12 +4927,12 @@
         <v>1869</v>
       </c>
       <c r="P231" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="232" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B232">
         <v>44</v>
@@ -4797,12 +4941,12 @@
         <v>1869</v>
       </c>
       <c r="P232" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="233" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B233">
         <v>44</v>
@@ -4811,7 +4955,7 @@
         <v>1870</v>
       </c>
       <c r="P233" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="234" spans="1:16" x14ac:dyDescent="0.25">
@@ -4825,7 +4969,7 @@
         <v>1870</v>
       </c>
       <c r="P234" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="235" spans="1:16" x14ac:dyDescent="0.25">
@@ -4863,7 +5007,7 @@
         <v>177</v>
       </c>
       <c r="P235" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="236" spans="1:16" x14ac:dyDescent="0.25">
@@ -4877,7 +5021,7 @@
         <v>1870</v>
       </c>
       <c r="P236" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="237" spans="1:16" x14ac:dyDescent="0.25">
@@ -4891,12 +5035,12 @@
         <v>1870</v>
       </c>
       <c r="P237" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="238" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B238">
         <v>46</v>
@@ -4905,12 +5049,12 @@
         <v>1871</v>
       </c>
       <c r="P238" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="239" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B239">
         <v>46</v>
@@ -4919,12 +5063,12 @@
         <v>1871</v>
       </c>
       <c r="P239" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="240" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B240">
         <v>46</v>
@@ -4933,7 +5077,7 @@
         <v>1871</v>
       </c>
       <c r="P240" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="241" spans="1:16" x14ac:dyDescent="0.25">
@@ -4947,12 +5091,12 @@
         <v>1871</v>
       </c>
       <c r="P241" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="242" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B242">
         <v>47</v>
@@ -4961,7 +5105,7 @@
         <v>1871</v>
       </c>
       <c r="P242" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="243" spans="1:16" x14ac:dyDescent="0.25">
@@ -4975,12 +5119,12 @@
         <v>1872</v>
       </c>
       <c r="P243" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="244" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B244">
         <v>48</v>
@@ -4989,7 +5133,7 @@
         <v>1872</v>
       </c>
       <c r="P244" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="245" spans="1:16" x14ac:dyDescent="0.25">
@@ -5003,7 +5147,7 @@
         <v>1872</v>
       </c>
       <c r="P245" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="246" spans="1:16" x14ac:dyDescent="0.25">
@@ -5017,7 +5161,7 @@
         <v>1873</v>
       </c>
       <c r="P246" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="247" spans="1:16" x14ac:dyDescent="0.25">
@@ -5055,7 +5199,7 @@
         <v>189</v>
       </c>
       <c r="P247" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="248" spans="1:16" x14ac:dyDescent="0.25">
@@ -5072,13 +5216,13 @@
         <v>169</v>
       </c>
       <c r="E248" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F248" t="s">
         <v>172</v>
       </c>
       <c r="G248" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I248" t="s">
         <v>195</v>
@@ -5093,7 +5237,7 @@
         <v>194</v>
       </c>
       <c r="P248" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="249" spans="1:16" x14ac:dyDescent="0.25">
@@ -5110,13 +5254,13 @@
         <v>169</v>
       </c>
       <c r="E249" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F249" t="s">
         <v>172</v>
       </c>
       <c r="G249" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I249" t="s">
         <v>195</v>
@@ -5131,7 +5275,7 @@
         <v>194</v>
       </c>
       <c r="P249" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="250" spans="1:16" x14ac:dyDescent="0.25">
@@ -5145,7 +5289,7 @@
         <v>1873</v>
       </c>
       <c r="P250" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="251" spans="1:16" x14ac:dyDescent="0.25">
@@ -5159,7 +5303,7 @@
         <v>1873</v>
       </c>
       <c r="P251" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="252" spans="1:16" x14ac:dyDescent="0.25">
@@ -5173,12 +5317,12 @@
         <v>1873</v>
       </c>
       <c r="P252" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="253" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B253">
         <v>51</v>
@@ -5187,7 +5331,7 @@
         <v>1873</v>
       </c>
       <c r="P253" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="254" spans="1:16" x14ac:dyDescent="0.25">
@@ -5201,7 +5345,7 @@
         <v>1873</v>
       </c>
       <c r="P254" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="255" spans="1:16" x14ac:dyDescent="0.25">
@@ -5215,7 +5359,7 @@
         <v>1873</v>
       </c>
       <c r="P255" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="256" spans="1:16" x14ac:dyDescent="0.25">
@@ -5229,12 +5373,12 @@
         <v>1874</v>
       </c>
       <c r="P256" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="257" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B257">
         <v>53</v>
@@ -5243,12 +5387,12 @@
         <v>1874</v>
       </c>
       <c r="P257" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="258" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B258">
         <v>53</v>
@@ -5257,7 +5401,7 @@
         <v>1874</v>
       </c>
       <c r="P258" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="259" spans="1:17" x14ac:dyDescent="0.25">
@@ -5271,7 +5415,7 @@
         <v>1874</v>
       </c>
       <c r="P259" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="260" spans="1:17" x14ac:dyDescent="0.25">
@@ -5285,7 +5429,7 @@
         <v>1874</v>
       </c>
       <c r="P260" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="261" spans="1:17" x14ac:dyDescent="0.25">
@@ -5299,7 +5443,7 @@
         <v>1874</v>
       </c>
       <c r="P261" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
       <c r="Q261" t="s">
         <v>202</v>
@@ -5316,7 +5460,7 @@
         <v>1875</v>
       </c>
       <c r="P262" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
       <c r="Q262" t="s">
         <v>202</v>
@@ -5333,7 +5477,7 @@
         <v>1875</v>
       </c>
       <c r="P263" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="264" spans="1:17" x14ac:dyDescent="0.25">
@@ -5347,7 +5491,7 @@
         <v>1875</v>
       </c>
       <c r="P264" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="265" spans="1:17" x14ac:dyDescent="0.25">
@@ -5361,12 +5505,12 @@
         <v>1876</v>
       </c>
       <c r="P265" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="266" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B266">
         <v>57</v>
@@ -5375,7 +5519,7 @@
         <v>1876</v>
       </c>
       <c r="P266" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="267" spans="1:17" x14ac:dyDescent="0.25">
@@ -5389,7 +5533,7 @@
         <v>1876</v>
       </c>
       <c r="P267" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="268" spans="1:17" x14ac:dyDescent="0.25">
@@ -5403,7 +5547,7 @@
         <v>1876</v>
       </c>
       <c r="P268" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="269" spans="1:17" x14ac:dyDescent="0.25">
@@ -5417,7 +5561,7 @@
         <v>1876</v>
       </c>
       <c r="P269" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="270" spans="1:17" x14ac:dyDescent="0.25">
@@ -5431,7 +5575,7 @@
         <v>1877</v>
       </c>
       <c r="P270" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="271" spans="1:17" x14ac:dyDescent="0.25">
@@ -5445,7 +5589,7 @@
         <v>1877</v>
       </c>
       <c r="P271" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="272" spans="1:17" x14ac:dyDescent="0.25">
@@ -5459,12 +5603,12 @@
         <v>1877</v>
       </c>
       <c r="P272" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="273" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B273">
         <v>61</v>
@@ -5473,7 +5617,7 @@
         <v>1877</v>
       </c>
       <c r="P273" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="274" spans="1:16" x14ac:dyDescent="0.25">
@@ -5487,7 +5631,7 @@
         <v>1877</v>
       </c>
       <c r="P274" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="275" spans="1:16" x14ac:dyDescent="0.25">
@@ -5501,7 +5645,7 @@
         <v>1877</v>
       </c>
       <c r="P275" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="276" spans="1:16" x14ac:dyDescent="0.25">
@@ -5515,7 +5659,7 @@
         <v>1877</v>
       </c>
       <c r="P276" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="277" spans="1:16" x14ac:dyDescent="0.25">
@@ -5529,7 +5673,7 @@
         <v>1878</v>
       </c>
       <c r="P277" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="278" spans="1:16" x14ac:dyDescent="0.25">
@@ -5561,13 +5705,13 @@
         <v>208</v>
       </c>
       <c r="K278" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L278" t="s">
         <v>206</v>
       </c>
       <c r="P278" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="279" spans="1:16" x14ac:dyDescent="0.25">
@@ -5581,7 +5725,7 @@
         <v>1878</v>
       </c>
       <c r="P279" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="280" spans="1:16" x14ac:dyDescent="0.25">
@@ -5595,7 +5739,7 @@
         <v>1878</v>
       </c>
       <c r="P280" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="281" spans="1:16" x14ac:dyDescent="0.25">
@@ -5609,7 +5753,7 @@
         <v>1879</v>
       </c>
       <c r="P281" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="282" spans="1:16" x14ac:dyDescent="0.25">
@@ -5623,7 +5767,7 @@
         <v>1879</v>
       </c>
       <c r="P282" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="283" spans="1:16" x14ac:dyDescent="0.25">
@@ -5637,7 +5781,7 @@
         <v>1879</v>
       </c>
       <c r="P283" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="284" spans="1:16" x14ac:dyDescent="0.25">
@@ -5651,7 +5795,7 @@
         <v>1880</v>
       </c>
       <c r="P284" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="285" spans="1:16" x14ac:dyDescent="0.25">
@@ -5665,7 +5809,7 @@
         <v>1880</v>
       </c>
       <c r="P285" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="286" spans="1:16" x14ac:dyDescent="0.25">
@@ -5679,7 +5823,7 @@
         <v>1880</v>
       </c>
       <c r="P286" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="287" spans="1:16" x14ac:dyDescent="0.25">
@@ -5693,7 +5837,7 @@
         <v>1880</v>
       </c>
       <c r="P287" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="288" spans="1:16" x14ac:dyDescent="0.25">
@@ -5707,7 +5851,7 @@
         <v>1880</v>
       </c>
       <c r="P288" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="289" spans="1:17" x14ac:dyDescent="0.25">
@@ -5745,7 +5889,7 @@
         <v>214</v>
       </c>
       <c r="P289" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="290" spans="1:17" x14ac:dyDescent="0.25">
@@ -5783,7 +5927,7 @@
         <v>214</v>
       </c>
       <c r="P290" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="291" spans="1:17" x14ac:dyDescent="0.25">
@@ -5797,7 +5941,7 @@
         <v>1881</v>
       </c>
       <c r="P291" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="292" spans="1:17" x14ac:dyDescent="0.25">
@@ -5811,7 +5955,7 @@
         <v>1881</v>
       </c>
       <c r="P292" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="293" spans="1:17" x14ac:dyDescent="0.25">
@@ -5849,7 +5993,7 @@
         <v>219</v>
       </c>
       <c r="P293" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="294" spans="1:17" x14ac:dyDescent="0.25">
@@ -5863,7 +6007,7 @@
         <v>1881</v>
       </c>
       <c r="P294" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
       <c r="Q294" t="s">
         <v>202</v>
@@ -5880,7 +6024,7 @@
         <v>1882</v>
       </c>
       <c r="P295" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="296" spans="1:17" x14ac:dyDescent="0.25">
@@ -5894,7 +6038,7 @@
         <v>1882</v>
       </c>
       <c r="P296" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="297" spans="1:17" x14ac:dyDescent="0.25">
@@ -5908,7 +6052,7 @@
         <v>1882</v>
       </c>
       <c r="P297" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="298" spans="1:17" x14ac:dyDescent="0.25">
@@ -5922,12 +6066,12 @@
         <v>1883</v>
       </c>
       <c r="P298" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="299" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B299">
         <v>76</v>
@@ -5936,7 +6080,7 @@
         <v>1883</v>
       </c>
       <c r="P299" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="300" spans="1:17" x14ac:dyDescent="0.25">
@@ -5950,7 +6094,7 @@
         <v>1884</v>
       </c>
       <c r="P300" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="301" spans="1:17" x14ac:dyDescent="0.25">
@@ -5964,7 +6108,7 @@
         <v>1884</v>
       </c>
       <c r="P301" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="302" spans="1:17" x14ac:dyDescent="0.25">
@@ -5978,7 +6122,7 @@
         <v>1884</v>
       </c>
       <c r="P302" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="303" spans="1:17" x14ac:dyDescent="0.25">
@@ -5992,7 +6136,7 @@
         <v>1884</v>
       </c>
       <c r="P303" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="304" spans="1:17" x14ac:dyDescent="0.25">
@@ -6006,7 +6150,7 @@
         <v>1885</v>
       </c>
       <c r="P304" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="305" spans="1:16" x14ac:dyDescent="0.25">
@@ -6020,7 +6164,7 @@
         <v>1885</v>
       </c>
       <c r="P305" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="306" spans="1:16" x14ac:dyDescent="0.25">
@@ -6034,7 +6178,7 @@
         <v>1866</v>
       </c>
       <c r="P306" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="307" spans="1:16" x14ac:dyDescent="0.25">
@@ -6048,7 +6192,7 @@
         <v>1866</v>
       </c>
       <c r="P307" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="308" spans="1:16" x14ac:dyDescent="0.25">
@@ -6062,12 +6206,12 @@
         <v>1866</v>
       </c>
       <c r="P308" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="309" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B309">
         <v>81</v>
@@ -6076,7 +6220,7 @@
         <v>1866</v>
       </c>
       <c r="P309" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="310" spans="1:16" x14ac:dyDescent="0.25">
@@ -6090,7 +6234,7 @@
         <v>1866</v>
       </c>
       <c r="P310" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="311" spans="1:16" x14ac:dyDescent="0.25">
@@ -6104,7 +6248,7 @@
         <v>1866</v>
       </c>
       <c r="P311" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="312" spans="1:16" x14ac:dyDescent="0.25">
@@ -6118,7 +6262,7 @@
         <v>1866</v>
       </c>
       <c r="P312" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="313" spans="1:16" x14ac:dyDescent="0.25">
@@ -6132,7 +6276,7 @@
         <v>1866</v>
       </c>
       <c r="P313" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="314" spans="1:16" x14ac:dyDescent="0.25">
@@ -6170,7 +6314,7 @@
         <v>233</v>
       </c>
       <c r="P314" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="315" spans="1:16" x14ac:dyDescent="0.25">
@@ -6184,7 +6328,7 @@
         <v>1867</v>
       </c>
       <c r="P315" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="316" spans="1:16" x14ac:dyDescent="0.25">
@@ -6222,7 +6366,7 @@
         <v>239</v>
       </c>
       <c r="P316" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="317" spans="1:16" x14ac:dyDescent="0.25">
@@ -6236,7 +6380,7 @@
         <v>1887</v>
       </c>
       <c r="P317" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="318" spans="1:16" x14ac:dyDescent="0.25">
@@ -6250,7 +6394,7 @@
         <v>1887</v>
       </c>
       <c r="P318" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="319" spans="1:16" x14ac:dyDescent="0.25">
@@ -6264,7 +6408,7 @@
         <v>1887</v>
       </c>
       <c r="P319" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="320" spans="1:16" x14ac:dyDescent="0.25">
@@ -6278,7 +6422,7 @@
         <v>1887</v>
       </c>
       <c r="P320" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="321" spans="1:16" x14ac:dyDescent="0.25">
@@ -6292,7 +6436,7 @@
         <v>1888</v>
       </c>
       <c r="P321" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="322" spans="1:16" x14ac:dyDescent="0.25">
@@ -6306,7 +6450,7 @@
         <v>1888</v>
       </c>
       <c r="P322" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="323" spans="1:16" x14ac:dyDescent="0.25">
@@ -6320,7 +6464,7 @@
         <v>1889</v>
       </c>
       <c r="P323" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="324" spans="1:16" x14ac:dyDescent="0.25">
@@ -6334,7 +6478,7 @@
         <v>1889</v>
       </c>
       <c r="P324" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="325" spans="1:16" x14ac:dyDescent="0.25">
@@ -6348,7 +6492,7 @@
         <v>1889</v>
       </c>
       <c r="P325" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="326" spans="1:16" x14ac:dyDescent="0.25">
@@ -6362,7 +6506,7 @@
         <v>1889</v>
       </c>
       <c r="P326" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="327" spans="1:16" x14ac:dyDescent="0.25">
@@ -6376,7 +6520,7 @@
         <v>1889</v>
       </c>
       <c r="P327" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="328" spans="1:16" x14ac:dyDescent="0.25">
@@ -6390,7 +6534,7 @@
         <v>1890</v>
       </c>
       <c r="P328" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="329" spans="1:16" x14ac:dyDescent="0.25">
@@ -6404,7 +6548,7 @@
         <v>1890</v>
       </c>
       <c r="P329" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="330" spans="1:16" x14ac:dyDescent="0.25">
@@ -6418,7 +6562,7 @@
         <v>1890</v>
       </c>
       <c r="P330" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="331" spans="1:16" x14ac:dyDescent="0.25">
@@ -6432,7 +6576,7 @@
         <v>1891</v>
       </c>
       <c r="P331" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="332" spans="1:16" x14ac:dyDescent="0.25">
@@ -6446,7 +6590,7 @@
         <v>1892</v>
       </c>
       <c r="P332" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="333" spans="1:16" x14ac:dyDescent="0.25">
@@ -6460,7 +6604,7 @@
         <v>1892</v>
       </c>
       <c r="P333" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="334" spans="1:16" x14ac:dyDescent="0.25">
@@ -6474,7 +6618,7 @@
         <v>1892</v>
       </c>
       <c r="P334" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="335" spans="1:16" x14ac:dyDescent="0.25">
@@ -6488,7 +6632,7 @@
         <v>1892</v>
       </c>
       <c r="P335" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="336" spans="1:16" x14ac:dyDescent="0.25">
@@ -6502,7 +6646,7 @@
         <v>1892</v>
       </c>
       <c r="P336" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="337" spans="1:16" x14ac:dyDescent="0.25">
@@ -6516,7 +6660,7 @@
         <v>1892</v>
       </c>
       <c r="P337" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="338" spans="1:16" x14ac:dyDescent="0.25">
@@ -6530,7 +6674,7 @@
         <v>1892</v>
       </c>
       <c r="P338" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="339" spans="1:16" x14ac:dyDescent="0.25">
@@ -6544,7 +6688,7 @@
         <v>1893</v>
       </c>
       <c r="P339" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="340" spans="1:16" x14ac:dyDescent="0.25">
@@ -6558,7 +6702,7 @@
         <v>1893</v>
       </c>
       <c r="P340" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="341" spans="1:16" x14ac:dyDescent="0.25">
@@ -6572,7 +6716,7 @@
         <v>1893</v>
       </c>
       <c r="P341" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="342" spans="1:16" x14ac:dyDescent="0.25">
@@ -6586,7 +6730,7 @@
         <v>1894</v>
       </c>
       <c r="P342" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="343" spans="1:16" x14ac:dyDescent="0.25">
@@ -6600,7 +6744,7 @@
         <v>1894</v>
       </c>
       <c r="P343" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="344" spans="1:16" x14ac:dyDescent="0.25">
@@ -6614,7 +6758,7 @@
         <v>1894</v>
       </c>
       <c r="P344" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="345" spans="1:16" x14ac:dyDescent="0.25">
@@ -6628,7 +6772,7 @@
         <v>1895</v>
       </c>
       <c r="P345" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="346" spans="1:16" x14ac:dyDescent="0.25">
@@ -6642,7 +6786,7 @@
         <v>1895</v>
       </c>
       <c r="P346" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="347" spans="1:16" x14ac:dyDescent="0.25">
@@ -6656,7 +6800,7 @@
         <v>1895</v>
       </c>
       <c r="P347" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="348" spans="1:16" x14ac:dyDescent="0.25">
@@ -6670,7 +6814,7 @@
         <v>1895</v>
       </c>
       <c r="P348" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="349" spans="1:16" x14ac:dyDescent="0.25">
@@ -6702,13 +6846,13 @@
         <v>252</v>
       </c>
       <c r="K349" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L349" t="s">
         <v>250</v>
       </c>
       <c r="P349" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="350" spans="1:16" x14ac:dyDescent="0.25">
@@ -6721,9 +6865,1318 @@
       <c r="C350">
         <v>1895</v>
       </c>
+      <c r="P350" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="351" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A351" t="s">
+        <v>255</v>
+      </c>
+      <c r="B351">
+        <v>1</v>
+      </c>
+      <c r="C351">
+        <v>1831</v>
+      </c>
+      <c r="D351" t="s">
+        <v>257</v>
+      </c>
+      <c r="E351" t="s">
+        <v>258</v>
+      </c>
+      <c r="J351" t="s">
+        <v>261</v>
+      </c>
+      <c r="K351" t="s">
+        <v>260</v>
+      </c>
+      <c r="L351" t="s">
+        <v>256</v>
+      </c>
+      <c r="M351" t="s">
+        <v>259</v>
+      </c>
+      <c r="P351" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="352" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A352" t="s">
+        <v>262</v>
+      </c>
+      <c r="B352">
+        <v>1</v>
+      </c>
+      <c r="C352">
+        <v>1831</v>
+      </c>
+      <c r="P352" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="353" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A353" t="s">
+        <v>263</v>
+      </c>
+      <c r="B353">
+        <v>1</v>
+      </c>
+      <c r="C353">
+        <v>1832</v>
+      </c>
+      <c r="P353" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="354" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A354" t="s">
+        <v>264</v>
+      </c>
+      <c r="B354">
+        <v>1</v>
+      </c>
+      <c r="C354">
+        <v>1832</v>
+      </c>
+      <c r="P354" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="355" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A355" t="s">
+        <v>265</v>
+      </c>
+      <c r="B355">
+        <v>2</v>
+      </c>
+      <c r="C355">
+        <v>1832</v>
+      </c>
+      <c r="P355" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="356" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
+        <v>263</v>
+      </c>
+      <c r="B356">
+        <v>2</v>
+      </c>
+      <c r="C356">
+        <v>1833</v>
+      </c>
+      <c r="P356" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="357" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
+        <v>266</v>
+      </c>
+      <c r="B357">
+        <v>2</v>
+      </c>
+      <c r="C357">
+        <v>1833</v>
+      </c>
+      <c r="P357" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="358" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A358" t="s">
+        <v>53</v>
+      </c>
+      <c r="B358">
+        <v>2</v>
+      </c>
+      <c r="C358">
+        <v>1833</v>
+      </c>
+      <c r="P358" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="359" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
+        <v>268</v>
+      </c>
+      <c r="B359">
+        <v>3</v>
+      </c>
+      <c r="C359">
+        <v>1834</v>
+      </c>
+      <c r="D359" t="s">
+        <v>257</v>
+      </c>
+      <c r="E359" t="s">
+        <v>258</v>
+      </c>
+      <c r="J359" t="s">
+        <v>51</v>
+      </c>
+      <c r="K359" t="s">
+        <v>269</v>
+      </c>
+      <c r="L359" t="s">
+        <v>267</v>
+      </c>
+      <c r="M359" t="s">
+        <v>259</v>
+      </c>
+      <c r="P359" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="360" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A360" t="s">
+        <v>183</v>
+      </c>
+      <c r="B360">
+        <v>3</v>
+      </c>
+      <c r="C360">
+        <v>1834</v>
+      </c>
+      <c r="P360" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="361" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A361" t="s">
+        <v>265</v>
+      </c>
+      <c r="B361">
+        <v>3</v>
+      </c>
+      <c r="C361">
+        <v>1834</v>
+      </c>
+      <c r="P361" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="362" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A362" t="s">
+        <v>262</v>
+      </c>
+      <c r="B362">
+        <v>3</v>
+      </c>
+      <c r="C362">
+        <v>1834</v>
+      </c>
+      <c r="P362" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="363" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A363" t="s">
+        <v>125</v>
+      </c>
+      <c r="B363">
+        <v>3</v>
+      </c>
+      <c r="C363">
+        <v>1834</v>
+      </c>
+      <c r="P363" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="364" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A364" t="s">
+        <v>124</v>
+      </c>
+      <c r="B364">
+        <v>4</v>
+      </c>
+      <c r="C364">
+        <v>1834</v>
+      </c>
+      <c r="P364" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="365" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A365" t="s">
+        <v>270</v>
+      </c>
+      <c r="B365">
+        <v>4</v>
+      </c>
+      <c r="C365">
+        <v>1834</v>
+      </c>
+      <c r="P365" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="366" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A366" t="s">
+        <v>103</v>
+      </c>
+      <c r="B366">
+        <v>4</v>
+      </c>
+      <c r="C366">
+        <v>1835</v>
+      </c>
+      <c r="P366" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="367" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A367" t="s">
+        <v>266</v>
+      </c>
+      <c r="B367">
+        <v>4</v>
+      </c>
+      <c r="C367">
+        <v>1835</v>
+      </c>
+      <c r="P367" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="368" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A368" t="s">
+        <v>264</v>
+      </c>
+      <c r="B368">
+        <v>5</v>
+      </c>
+      <c r="C368">
+        <v>1835</v>
+      </c>
+      <c r="P368" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="369" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A369" t="s">
+        <v>124</v>
+      </c>
+      <c r="B369">
+        <v>5</v>
+      </c>
+      <c r="C369">
+        <v>1835</v>
+      </c>
+      <c r="P369" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="370" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A370" t="s">
+        <v>271</v>
+      </c>
+      <c r="B370">
+        <v>5</v>
+      </c>
+      <c r="C370">
+        <v>1835</v>
+      </c>
+      <c r="P370" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="371" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A371" t="s">
+        <v>272</v>
+      </c>
+      <c r="B371">
+        <v>5</v>
+      </c>
+      <c r="C371">
+        <v>1836</v>
+      </c>
+      <c r="P371" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="372" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A372" t="s">
+        <v>271</v>
+      </c>
+      <c r="B372">
+        <v>6</v>
+      </c>
+      <c r="C372">
+        <v>1836</v>
+      </c>
+      <c r="P372" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="373" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A373" t="s">
+        <v>270</v>
+      </c>
+      <c r="B373">
+        <v>6</v>
+      </c>
+      <c r="C373">
+        <v>1836</v>
+      </c>
+      <c r="P373" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="374" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A374" t="s">
+        <v>273</v>
+      </c>
+      <c r="B374">
+        <v>6</v>
+      </c>
+      <c r="C374">
+        <v>1836</v>
+      </c>
+      <c r="P374" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="375" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A375" t="s">
+        <v>53</v>
+      </c>
+      <c r="B375">
+        <v>6</v>
+      </c>
+      <c r="C375">
+        <v>1837</v>
+      </c>
+      <c r="P375" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="376" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A376" t="s">
+        <v>275</v>
+      </c>
+      <c r="B376">
+        <v>7</v>
+      </c>
+      <c r="C376">
+        <v>1837</v>
+      </c>
+      <c r="D376" t="s">
+        <v>257</v>
+      </c>
+      <c r="E376" t="s">
+        <v>258</v>
+      </c>
+      <c r="J376" t="s">
+        <v>276</v>
+      </c>
+      <c r="K376" t="s">
+        <v>277</v>
+      </c>
+      <c r="L376" t="s">
+        <v>274</v>
+      </c>
+      <c r="M376" t="s">
+        <v>259</v>
+      </c>
+      <c r="P376" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="377" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A377" t="s">
+        <v>103</v>
+      </c>
+      <c r="B377">
+        <v>7</v>
+      </c>
+      <c r="C377">
+        <v>1837</v>
+      </c>
+      <c r="P377" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="378" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A378" t="s">
+        <v>265</v>
+      </c>
+      <c r="B378">
+        <v>7</v>
+      </c>
+      <c r="C378">
+        <v>1837</v>
+      </c>
+      <c r="P378" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="379" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A379" t="s">
+        <v>183</v>
+      </c>
+      <c r="B379">
+        <v>7</v>
+      </c>
+      <c r="C379">
+        <v>1837</v>
+      </c>
+      <c r="P379" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="380" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A380" t="s">
+        <v>125</v>
+      </c>
+      <c r="B380">
+        <v>7</v>
+      </c>
+      <c r="C380">
+        <v>1837</v>
+      </c>
+      <c r="P380" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="381" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A381" t="s">
+        <v>271</v>
+      </c>
+      <c r="B381">
+        <v>8</v>
+      </c>
+      <c r="C381">
+        <v>1837</v>
+      </c>
+      <c r="P381" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="382" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A382" t="s">
+        <v>272</v>
+      </c>
+      <c r="B382">
+        <v>8</v>
+      </c>
+      <c r="C382">
+        <v>1837</v>
+      </c>
+      <c r="P382" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="383" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A383" t="s">
+        <v>264</v>
+      </c>
+      <c r="B383">
+        <v>8</v>
+      </c>
+      <c r="C383">
+        <v>1838</v>
+      </c>
+      <c r="P383" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="384" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A384" t="s">
+        <v>124</v>
+      </c>
+      <c r="B384">
+        <v>8</v>
+      </c>
+      <c r="C384">
+        <v>1838</v>
+      </c>
+      <c r="P384" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="385" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A385" t="s">
+        <v>33</v>
+      </c>
+      <c r="B385">
+        <v>9</v>
+      </c>
+      <c r="C385">
+        <v>1838</v>
+      </c>
+      <c r="P385" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="386" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A386" t="s">
+        <v>273</v>
+      </c>
+      <c r="B386">
+        <v>9</v>
+      </c>
+      <c r="C386">
+        <v>1838</v>
+      </c>
+      <c r="P386" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="387" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A387" t="s">
+        <v>278</v>
+      </c>
+      <c r="B387">
+        <v>9</v>
+      </c>
+      <c r="C387">
+        <v>1839</v>
+      </c>
+      <c r="P387" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="388" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A388" t="s">
+        <v>103</v>
+      </c>
+      <c r="B388">
+        <v>9</v>
+      </c>
+      <c r="C388">
+        <v>1839</v>
+      </c>
+      <c r="P388" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="389" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A389" t="s">
+        <v>272</v>
+      </c>
+      <c r="B389">
+        <v>10</v>
+      </c>
+      <c r="C389">
+        <v>1839</v>
+      </c>
+      <c r="P389" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="390" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A390" t="s">
+        <v>125</v>
+      </c>
+      <c r="B390">
+        <v>10</v>
+      </c>
+      <c r="C390">
+        <v>1839</v>
+      </c>
+      <c r="P390" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="391" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A391" t="s">
+        <v>279</v>
+      </c>
+      <c r="B391">
+        <v>10</v>
+      </c>
+      <c r="C391">
+        <v>1839</v>
+      </c>
+      <c r="D391" t="s">
+        <v>257</v>
+      </c>
+      <c r="E391" t="s">
+        <v>258</v>
+      </c>
+      <c r="J391" t="s">
+        <v>281</v>
+      </c>
+      <c r="K391" t="s">
+        <v>282</v>
+      </c>
+      <c r="L391" t="s">
+        <v>280</v>
+      </c>
+      <c r="M391" t="s">
+        <v>259</v>
+      </c>
+      <c r="P391" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="392" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A392" t="s">
+        <v>33</v>
+      </c>
+      <c r="B392">
+        <v>10</v>
+      </c>
+      <c r="C392">
+        <v>1840</v>
+      </c>
+      <c r="P392" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="393" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A393" t="s">
+        <v>283</v>
+      </c>
+      <c r="B393">
+        <v>11</v>
+      </c>
+      <c r="C393">
+        <v>1840</v>
+      </c>
+      <c r="P393" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="394" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A394" t="s">
+        <v>271</v>
+      </c>
+      <c r="B394">
+        <v>11</v>
+      </c>
+      <c r="C394">
+        <v>1840</v>
+      </c>
+      <c r="P394" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="395" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A395" t="s">
+        <v>124</v>
+      </c>
+      <c r="B395">
+        <v>11</v>
+      </c>
+      <c r="C395">
+        <v>1840</v>
+      </c>
+      <c r="P395" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="396" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A396" t="s">
+        <v>272</v>
+      </c>
+      <c r="B396">
+        <v>11</v>
+      </c>
+      <c r="C396">
+        <v>1841</v>
+      </c>
+      <c r="P396" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="397" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A397" t="s">
+        <v>284</v>
+      </c>
+      <c r="B397">
+        <v>12</v>
+      </c>
+      <c r="C397">
+        <v>1841</v>
+      </c>
+      <c r="P397" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="398" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A398" t="s">
+        <v>116</v>
+      </c>
+      <c r="B398">
+        <v>12</v>
+      </c>
+      <c r="C398">
+        <v>1841</v>
+      </c>
+      <c r="P398" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="399" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A399" t="s">
+        <v>285</v>
+      </c>
+      <c r="B399">
+        <v>12</v>
+      </c>
+      <c r="C399">
+        <v>1841</v>
+      </c>
+      <c r="P399" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="400" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A400" t="s">
+        <v>33</v>
+      </c>
+      <c r="B400">
+        <v>13</v>
+      </c>
+      <c r="C400">
+        <v>1842</v>
+      </c>
+      <c r="P400" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="401" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A401" t="s">
+        <v>103</v>
+      </c>
+      <c r="B401">
+        <v>13</v>
+      </c>
+      <c r="C401">
+        <v>1842</v>
+      </c>
+      <c r="P401" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="402" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A402" t="s">
+        <v>286</v>
+      </c>
+      <c r="B402">
+        <v>13</v>
+      </c>
+      <c r="C402">
+        <v>1842</v>
+      </c>
+      <c r="P402" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="403" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A403" t="s">
+        <v>287</v>
+      </c>
+      <c r="B403">
+        <v>13</v>
+      </c>
+      <c r="C403">
+        <v>1842</v>
+      </c>
+      <c r="D403" t="s">
+        <v>257</v>
+      </c>
+      <c r="E403" t="s">
+        <v>258</v>
+      </c>
+      <c r="J403" t="s">
+        <v>288</v>
+      </c>
+      <c r="K403" t="s">
+        <v>289</v>
+      </c>
+      <c r="L403" t="s">
+        <v>290</v>
+      </c>
+      <c r="M403" t="s">
+        <v>259</v>
+      </c>
+      <c r="P403" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="404" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A404" t="s">
+        <v>126</v>
+      </c>
+      <c r="B404">
+        <v>14</v>
+      </c>
+      <c r="C404">
+        <v>1843</v>
+      </c>
+      <c r="P404" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="405" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A405" t="s">
+        <v>271</v>
+      </c>
+      <c r="B405">
+        <v>14</v>
+      </c>
+      <c r="C405">
+        <v>1843</v>
+      </c>
+      <c r="P405" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="406" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A406" t="s">
+        <v>272</v>
+      </c>
+      <c r="B406">
+        <v>14</v>
+      </c>
+      <c r="C406">
+        <v>1844</v>
+      </c>
+      <c r="P406" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="407" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A407" t="s">
+        <v>124</v>
+      </c>
+      <c r="B407">
+        <v>15</v>
+      </c>
+      <c r="C407">
+        <v>1844</v>
+      </c>
+      <c r="P407" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="408" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A408" t="s">
+        <v>116</v>
+      </c>
+      <c r="B408">
+        <v>15</v>
+      </c>
+      <c r="C408">
+        <v>1844</v>
+      </c>
+      <c r="P408" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="409" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A409" t="s">
+        <v>33</v>
+      </c>
+      <c r="B409">
+        <v>15</v>
+      </c>
+      <c r="C409">
+        <v>1844</v>
+      </c>
+      <c r="P409" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="410" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A410" t="s">
+        <v>103</v>
+      </c>
+      <c r="B410">
+        <v>15</v>
+      </c>
+      <c r="C410">
+        <v>1844</v>
+      </c>
+      <c r="P410" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="411" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A411" t="s">
+        <v>126</v>
+      </c>
+      <c r="B411">
+        <v>16</v>
+      </c>
+      <c r="C411">
+        <v>1845</v>
+      </c>
+      <c r="P411" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="412" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A412" t="s">
+        <v>125</v>
+      </c>
+      <c r="B412">
+        <v>16</v>
+      </c>
+      <c r="C412">
+        <v>1845</v>
+      </c>
+      <c r="P412" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="413" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A413" t="s">
+        <v>115</v>
+      </c>
+      <c r="B413">
+        <v>16</v>
+      </c>
+      <c r="C413">
+        <v>1845</v>
+      </c>
+      <c r="P413" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="414" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A414" t="s">
+        <v>272</v>
+      </c>
+      <c r="B414">
+        <v>16</v>
+      </c>
+      <c r="C414">
+        <v>1845</v>
+      </c>
+      <c r="P414" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="415" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A415" t="s">
+        <v>114</v>
+      </c>
+      <c r="B415">
+        <v>17</v>
+      </c>
+      <c r="C415">
+        <v>1845</v>
+      </c>
+      <c r="P415" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="416" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A416" t="s">
+        <v>116</v>
+      </c>
+      <c r="B416">
+        <v>17</v>
+      </c>
+      <c r="C416">
+        <v>1845</v>
+      </c>
+      <c r="P416" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="417" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A417" t="s">
+        <v>124</v>
+      </c>
+      <c r="B417">
+        <v>17</v>
+      </c>
+      <c r="C417">
+        <v>1846</v>
+      </c>
+      <c r="P417" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="418" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A418" t="s">
+        <v>55</v>
+      </c>
+      <c r="B418">
+        <v>17</v>
+      </c>
+      <c r="C418">
+        <v>1846</v>
+      </c>
+      <c r="P418" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="419" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A419" t="s">
+        <v>291</v>
+      </c>
+      <c r="B419">
+        <v>18</v>
+      </c>
+      <c r="C419">
+        <v>1846</v>
+      </c>
+      <c r="P419" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="420" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A420" t="s">
+        <v>292</v>
+      </c>
+      <c r="B420">
+        <v>18</v>
+      </c>
+      <c r="C420">
+        <v>1847</v>
+      </c>
+      <c r="P420" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="421" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A421" t="s">
+        <v>125</v>
+      </c>
+      <c r="B421">
+        <v>18</v>
+      </c>
+      <c r="C421">
+        <v>1847</v>
+      </c>
+      <c r="P421" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="422" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A422" t="s">
+        <v>293</v>
+      </c>
+      <c r="B422">
+        <v>19</v>
+      </c>
+      <c r="C422">
+        <v>1847</v>
+      </c>
+      <c r="P422" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="423" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A423" t="s">
+        <v>126</v>
+      </c>
+      <c r="B423">
+        <v>19</v>
+      </c>
+      <c r="C423">
+        <v>1847</v>
+      </c>
+      <c r="P423" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="424" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A424" t="s">
+        <v>124</v>
+      </c>
+      <c r="B424">
+        <v>19</v>
+      </c>
+      <c r="C424">
+        <v>1847</v>
+      </c>
+      <c r="P424" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="425" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A425" t="s">
+        <v>116</v>
+      </c>
+      <c r="B425">
+        <v>19</v>
+      </c>
+      <c r="C425">
+        <v>1847</v>
+      </c>
+      <c r="P425" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="426" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A426" t="s">
+        <v>115</v>
+      </c>
+      <c r="B426">
+        <v>20</v>
+      </c>
+      <c r="C426">
+        <v>1847</v>
+      </c>
+      <c r="P426" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="427" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A427" t="s">
+        <v>272</v>
+      </c>
+      <c r="B427">
+        <v>20</v>
+      </c>
+      <c r="C427">
+        <v>1847</v>
+      </c>
+      <c r="P427" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="428" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A428" t="s">
+        <v>121</v>
+      </c>
+      <c r="B428">
+        <v>20</v>
+      </c>
+      <c r="C428">
+        <v>1848</v>
+      </c>
+      <c r="P428" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="429" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A429" t="s">
+        <v>103</v>
+      </c>
+      <c r="B429">
+        <v>21</v>
+      </c>
+      <c r="C429">
+        <v>1848</v>
+      </c>
+      <c r="P429" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="430" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A430" t="s">
+        <v>295</v>
+      </c>
+      <c r="B430">
+        <v>21</v>
+      </c>
+      <c r="C430">
+        <v>1848</v>
+      </c>
+      <c r="D430" t="s">
+        <v>161</v>
+      </c>
+      <c r="E430" t="s">
+        <v>296</v>
+      </c>
+      <c r="F430" t="s">
+        <v>298</v>
+      </c>
+      <c r="G430" t="s">
+        <v>299</v>
+      </c>
+      <c r="J430" t="s">
+        <v>297</v>
+      </c>
+      <c r="K430" t="s">
+        <v>173</v>
+      </c>
+      <c r="L430" t="s">
+        <v>294</v>
+      </c>
+      <c r="M430" t="s">
+        <v>259</v>
+      </c>
+      <c r="P430" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="431" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A431" t="s">
+        <v>300</v>
+      </c>
+      <c r="B431">
+        <v>21</v>
+      </c>
+      <c r="C431">
+        <v>1848</v>
+      </c>
+      <c r="P431" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="432" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A432" t="s">
+        <v>55</v>
+      </c>
+      <c r="B432">
+        <v>21</v>
+      </c>
+      <c r="C432">
+        <v>1849</v>
+      </c>
+      <c r="P432" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A433" t="s">
+        <v>128</v>
+      </c>
+      <c r="B433">
+        <v>22</v>
+      </c>
+      <c r="C433">
+        <v>1849</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A434" t="s">
+        <v>114</v>
+      </c>
+      <c r="B434">
+        <v>22</v>
+      </c>
+      <c r="C434">
+        <v>1849</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A435" t="s">
+        <v>115</v>
+      </c>
+      <c r="B435">
+        <v>22</v>
+      </c>
+      <c r="C435">
+        <v>1849</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A436" t="s">
+        <v>124</v>
+      </c>
+      <c r="B436">
+        <v>22</v>
+      </c>
+      <c r="C436">
+        <v>1850</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:Q350" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Bisbats/Catalunya/Lleida/Blancafort/Sacraments/Baptismes/Excel/Baptismes_Parroquia_Blancafort.xlsx
+++ b/Bisbats/Catalunya/Lleida/Blancafort/Sacraments/Baptismes/Excel/Baptismes_Parroquia_Blancafort.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vstudio-code\repositorisArbre\DadesGenerals\Bisbats\Catalunya\Lleida\Blancafort\Sacraments\Baptismes\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29E7D78B-ADA5-46EE-8FDB-015885FF2210}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C319A09-4856-4445-B22C-ECA5B9132D70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1123" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="329">
   <si>
     <t>Cognoms</t>
   </si>
@@ -931,6 +931,90 @@
   </si>
   <si>
     <t>Aran Pedra</t>
+  </si>
+  <si>
+    <t>Gessé Queralt</t>
+  </si>
+  <si>
+    <t>Gessé Taribó</t>
+  </si>
+  <si>
+    <t>Domingo Pedra</t>
+  </si>
+  <si>
+    <t>06/05/1851</t>
+  </si>
+  <si>
+    <t>Gessé Gessé Joseph Liberato Ramon</t>
+  </si>
+  <si>
+    <t>Joseph Gessé i Rita Marquet</t>
+  </si>
+  <si>
+    <t>Jaume Gessé Marquet</t>
+  </si>
+  <si>
+    <t>Thomas Gessé i Rita Marquet</t>
+  </si>
+  <si>
+    <t>Joseph Gessé</t>
+  </si>
+  <si>
+    <t>Rosa Cortés</t>
+  </si>
+  <si>
+    <t>Vicenta Gessé Marquet</t>
+  </si>
+  <si>
+    <t>Badia Cortés</t>
+  </si>
+  <si>
+    <t>2 Quinque Libri 1750-1831</t>
+  </si>
+  <si>
+    <t>Jubillà</t>
+  </si>
+  <si>
+    <t>Seufenís?</t>
+  </si>
+  <si>
+    <t>Terés</t>
+  </si>
+  <si>
+    <t>Gessé</t>
+  </si>
+  <si>
+    <t>Castells</t>
+  </si>
+  <si>
+    <t>Badia</t>
+  </si>
+  <si>
+    <t>Gessé Amat</t>
+  </si>
+  <si>
+    <t>Ferrer Molins</t>
+  </si>
+  <si>
+    <t>Badia Oliva</t>
+  </si>
+  <si>
+    <t>Castells Mas</t>
+  </si>
+  <si>
+    <t>Porta</t>
+  </si>
+  <si>
+    <t>Farré</t>
+  </si>
+  <si>
+    <t>Molins Gessé</t>
+  </si>
+  <si>
+    <t>Castells Hospital</t>
+  </si>
+  <si>
+    <t>Terés Flores</t>
   </si>
 </sst>
 </file>
@@ -1265,11 +1349,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q436"/>
+  <dimension ref="A1:Q477"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A411" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A437" sqref="A437"/>
+      <pane ySplit="1" topLeftCell="A445" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A478" sqref="A478"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8131,7 +8215,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>128</v>
       </c>
@@ -8141,8 +8225,11 @@
       <c r="C433">
         <v>1849</v>
       </c>
-    </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="P433" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="434" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>114</v>
       </c>
@@ -8152,8 +8239,11 @@
       <c r="C434">
         <v>1849</v>
       </c>
-    </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="P434" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="435" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>115</v>
       </c>
@@ -8163,8 +8253,11 @@
       <c r="C435">
         <v>1849</v>
       </c>
-    </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="P435" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="436" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>124</v>
       </c>
@@ -8173,6 +8266,526 @@
       </c>
       <c r="C436">
         <v>1850</v>
+      </c>
+      <c r="P436" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="437" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A437" t="s">
+        <v>301</v>
+      </c>
+      <c r="B437">
+        <v>23</v>
+      </c>
+      <c r="C437">
+        <v>1850</v>
+      </c>
+      <c r="P437" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="438" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A438" t="s">
+        <v>120</v>
+      </c>
+      <c r="B438">
+        <v>23</v>
+      </c>
+      <c r="C438">
+        <v>1850</v>
+      </c>
+      <c r="P438" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="439" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A439" t="s">
+        <v>302</v>
+      </c>
+      <c r="B439">
+        <v>23</v>
+      </c>
+      <c r="C439">
+        <v>1850</v>
+      </c>
+      <c r="P439" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="440" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A440" t="s">
+        <v>303</v>
+      </c>
+      <c r="B440">
+        <v>23</v>
+      </c>
+      <c r="C440">
+        <v>1850</v>
+      </c>
+      <c r="P440" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="441" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A441" t="s">
+        <v>125</v>
+      </c>
+      <c r="B441">
+        <v>23</v>
+      </c>
+      <c r="C441">
+        <v>1851</v>
+      </c>
+      <c r="P441" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="442" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A442" t="s">
+        <v>305</v>
+      </c>
+      <c r="B442">
+        <v>24</v>
+      </c>
+      <c r="C442">
+        <v>1851</v>
+      </c>
+      <c r="D442" t="s">
+        <v>307</v>
+      </c>
+      <c r="E442" t="s">
+        <v>311</v>
+      </c>
+      <c r="F442" t="s">
+        <v>306</v>
+      </c>
+      <c r="G442" t="s">
+        <v>308</v>
+      </c>
+      <c r="I442" t="s">
+        <v>304</v>
+      </c>
+      <c r="J442" t="s">
+        <v>309</v>
+      </c>
+      <c r="K442" t="s">
+        <v>310</v>
+      </c>
+      <c r="L442" t="s">
+        <v>304</v>
+      </c>
+      <c r="P442" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="443" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A443" t="s">
+        <v>126</v>
+      </c>
+      <c r="B443">
+        <v>24</v>
+      </c>
+      <c r="C443">
+        <v>1851</v>
+      </c>
+      <c r="P443" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="444" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A444" t="s">
+        <v>124</v>
+      </c>
+      <c r="B444">
+        <v>24</v>
+      </c>
+      <c r="C444">
+        <v>1851</v>
+      </c>
+      <c r="P444" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="445" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A445" t="s">
+        <v>122</v>
+      </c>
+      <c r="B445">
+        <v>25</v>
+      </c>
+      <c r="C445">
+        <v>1851</v>
+      </c>
+      <c r="P445" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="446" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A446" t="s">
+        <v>103</v>
+      </c>
+      <c r="B446">
+        <v>25</v>
+      </c>
+      <c r="C446">
+        <v>1851</v>
+      </c>
+      <c r="P446" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="447" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A447" t="s">
+        <v>130</v>
+      </c>
+      <c r="B447">
+        <v>25</v>
+      </c>
+      <c r="C447">
+        <v>1851</v>
+      </c>
+      <c r="P447" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="448" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A448" t="s">
+        <v>55</v>
+      </c>
+      <c r="B448">
+        <v>26</v>
+      </c>
+      <c r="C448">
+        <v>1851</v>
+      </c>
+      <c r="P448" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="449" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A449" t="s">
+        <v>312</v>
+      </c>
+      <c r="B449">
+        <v>26</v>
+      </c>
+      <c r="C449">
+        <v>1852</v>
+      </c>
+      <c r="P449" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="450" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A450" t="s">
+        <v>315</v>
+      </c>
+      <c r="B450">
+        <v>1</v>
+      </c>
+      <c r="C450">
+        <v>1737</v>
+      </c>
+      <c r="P450" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="451" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A451" t="s">
+        <v>314</v>
+      </c>
+      <c r="B451">
+        <v>1</v>
+      </c>
+      <c r="C451">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="452" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A452" t="s">
+        <v>316</v>
+      </c>
+      <c r="B452">
+        <v>1</v>
+      </c>
+      <c r="C452">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="453" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A453" t="s">
+        <v>317</v>
+      </c>
+      <c r="B453">
+        <v>2</v>
+      </c>
+      <c r="C453">
+        <v>1738</v>
+      </c>
+    </row>
+    <row r="454" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A454" t="s">
+        <v>318</v>
+      </c>
+      <c r="B454">
+        <v>2</v>
+      </c>
+      <c r="C454">
+        <v>1738</v>
+      </c>
+    </row>
+    <row r="455" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A455" t="s">
+        <v>317</v>
+      </c>
+      <c r="B455">
+        <v>2</v>
+      </c>
+      <c r="C455">
+        <v>1739</v>
+      </c>
+    </row>
+    <row r="456" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A456" t="s">
+        <v>314</v>
+      </c>
+      <c r="B456">
+        <v>3</v>
+      </c>
+      <c r="C456">
+        <v>1739</v>
+      </c>
+    </row>
+    <row r="457" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A457" t="s">
+        <v>317</v>
+      </c>
+      <c r="B457">
+        <v>3</v>
+      </c>
+      <c r="C457">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="458" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A458" t="s">
+        <v>318</v>
+      </c>
+      <c r="B458">
+        <v>3</v>
+      </c>
+      <c r="C458">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="459" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A459" t="s">
+        <v>319</v>
+      </c>
+      <c r="B459">
+        <v>4</v>
+      </c>
+      <c r="C459">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="460" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A460" t="s">
+        <v>316</v>
+      </c>
+      <c r="B460">
+        <v>4</v>
+      </c>
+      <c r="C460">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="461" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A461" t="s">
+        <v>318</v>
+      </c>
+      <c r="B461">
+        <v>4</v>
+      </c>
+      <c r="C461">
+        <v>1741</v>
+      </c>
+    </row>
+    <row r="462" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A462" t="s">
+        <v>319</v>
+      </c>
+      <c r="B462">
+        <v>5</v>
+      </c>
+      <c r="C462">
+        <v>1742</v>
+      </c>
+    </row>
+    <row r="463" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A463" t="s">
+        <v>314</v>
+      </c>
+      <c r="B463">
+        <v>5</v>
+      </c>
+      <c r="C463">
+        <v>1742</v>
+      </c>
+    </row>
+    <row r="464" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A464" t="s">
+        <v>320</v>
+      </c>
+      <c r="B464">
+        <v>5</v>
+      </c>
+      <c r="C464">
+        <v>1743</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A465" t="s">
+        <v>321</v>
+      </c>
+      <c r="B465">
+        <v>6</v>
+      </c>
+      <c r="C465">
+        <v>1743</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A466" t="s">
+        <v>322</v>
+      </c>
+      <c r="B466">
+        <v>6</v>
+      </c>
+      <c r="C466">
+        <v>1744</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A467" t="s">
+        <v>323</v>
+      </c>
+      <c r="B467">
+        <v>6</v>
+      </c>
+      <c r="C467">
+        <v>1744</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A468" t="s">
+        <v>314</v>
+      </c>
+      <c r="B468">
+        <v>7</v>
+      </c>
+      <c r="C468">
+        <v>1745</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A469" t="s">
+        <v>324</v>
+      </c>
+      <c r="B469">
+        <v>7</v>
+      </c>
+      <c r="C469">
+        <v>1745</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A470" t="s">
+        <v>323</v>
+      </c>
+      <c r="B470">
+        <v>8</v>
+      </c>
+      <c r="C470">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A471" t="s">
+        <v>325</v>
+      </c>
+      <c r="B471">
+        <v>8</v>
+      </c>
+      <c r="C471">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A472" t="s">
+        <v>325</v>
+      </c>
+      <c r="B472">
+        <v>8</v>
+      </c>
+      <c r="C472">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A473" t="s">
+        <v>323</v>
+      </c>
+      <c r="B473">
+        <v>9</v>
+      </c>
+      <c r="C473">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A474" t="s">
+        <v>324</v>
+      </c>
+      <c r="B474">
+        <v>9</v>
+      </c>
+      <c r="C474">
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A475" t="s">
+        <v>326</v>
+      </c>
+      <c r="B475">
+        <v>10</v>
+      </c>
+      <c r="C475">
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A476" t="s">
+        <v>327</v>
+      </c>
+      <c r="B476">
+        <v>10</v>
+      </c>
+      <c r="C476">
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A477" t="s">
+        <v>328</v>
+      </c>
+      <c r="B477">
+        <v>10</v>
+      </c>
+      <c r="C477">
+        <v>1748</v>
       </c>
     </row>
   </sheetData>

--- a/Bisbats/Catalunya/Lleida/Blancafort/Sacraments/Baptismes/Excel/Baptismes_Parroquia_Blancafort.xlsx
+++ b/Bisbats/Catalunya/Lleida/Blancafort/Sacraments/Baptismes/Excel/Baptismes_Parroquia_Blancafort.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vstudio-code\repositorisArbre\DadesGenerals\Bisbats\Catalunya\Lleida\Blancafort\Sacraments\Baptismes\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C319A09-4856-4445-B22C-ECA5B9132D70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF5078EB-4F9F-462C-8972-CE6E116F2FD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1291" uniqueCount="361">
   <si>
     <t>Cognoms</t>
   </si>
@@ -1015,6 +1015,102 @@
   </si>
   <si>
     <t>Terés Flores</t>
+  </si>
+  <si>
+    <t>Jubullà Hospital</t>
+  </si>
+  <si>
+    <t>Mas Gessé</t>
+  </si>
+  <si>
+    <t>Gessé Fondevila</t>
+  </si>
+  <si>
+    <t>Camarasa Gessé</t>
+  </si>
+  <si>
+    <t>Farré Amat</t>
+  </si>
+  <si>
+    <t>Mas Salse</t>
+  </si>
+  <si>
+    <t>Hospital Nadal</t>
+  </si>
+  <si>
+    <t>Jubillà Hospital</t>
+  </si>
+  <si>
+    <t>Gessé Cirès</t>
+  </si>
+  <si>
+    <t>Molins Gese</t>
+  </si>
+  <si>
+    <t>Terés Lloret</t>
+  </si>
+  <si>
+    <t>Mas Soro?</t>
+  </si>
+  <si>
+    <t>Jubillà Farré</t>
+  </si>
+  <si>
+    <t>Mauri Moltò</t>
+  </si>
+  <si>
+    <t>Gessé Pérez</t>
+  </si>
+  <si>
+    <t>Mas Castells</t>
+  </si>
+  <si>
+    <t>Gessé Subira</t>
+  </si>
+  <si>
+    <t>Badia Pasqual</t>
+  </si>
+  <si>
+    <t>Jesinto Gessé Polo</t>
+  </si>
+  <si>
+    <t>03/02/1762</t>
+  </si>
+  <si>
+    <t>Concordia Gessé (Donsella) (Tia)</t>
+  </si>
+  <si>
+    <t>Thomàs Gessé (Moso) (Oncle)</t>
+  </si>
+  <si>
+    <t>Gessé Subirà</t>
+  </si>
+  <si>
+    <t>Gessé Perez</t>
+  </si>
+  <si>
+    <t>Borros</t>
+  </si>
+  <si>
+    <t>Gessé ¿?</t>
+  </si>
+  <si>
+    <t>Badia Pérez</t>
+  </si>
+  <si>
+    <t>Gessé Caufapé</t>
+  </si>
+  <si>
+    <t>Isabet Caufapé</t>
+  </si>
+  <si>
+    <t>Gessé Caufapé Maria Isabet Blasia</t>
+  </si>
+  <si>
+    <t>Gessé Fontdevila</t>
+  </si>
+  <si>
+    <t>Gessé Subirada</t>
   </si>
 </sst>
 </file>
@@ -1349,11 +1445,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q477"/>
+  <dimension ref="A1:Q570"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A445" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A478" sqref="A478"/>
+      <pane ySplit="1" topLeftCell="A550" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A571" sqref="A571"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8788,6 +8884,1053 @@
         <v>1748</v>
       </c>
     </row>
+    <row r="478" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A478" t="s">
+        <v>329</v>
+      </c>
+      <c r="B478">
+        <v>11</v>
+      </c>
+      <c r="C478">
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A479" t="s">
+        <v>330</v>
+      </c>
+      <c r="B479">
+        <v>11</v>
+      </c>
+      <c r="C479">
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A480" t="s">
+        <v>331</v>
+      </c>
+      <c r="B480">
+        <v>11</v>
+      </c>
+      <c r="C480">
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="481" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A481" t="s">
+        <v>332</v>
+      </c>
+      <c r="B481">
+        <v>11</v>
+      </c>
+      <c r="C481">
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="482" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A482" t="s">
+        <v>333</v>
+      </c>
+      <c r="B482">
+        <v>12</v>
+      </c>
+      <c r="C482">
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="483" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A483" t="s">
+        <v>151</v>
+      </c>
+      <c r="B483">
+        <v>12</v>
+      </c>
+      <c r="C483">
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="484" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A484" t="s">
+        <v>334</v>
+      </c>
+      <c r="B484">
+        <v>12</v>
+      </c>
+      <c r="C484">
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="485" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A485" t="s">
+        <v>182</v>
+      </c>
+      <c r="B485">
+        <v>13</v>
+      </c>
+      <c r="C485">
+        <v>1749</v>
+      </c>
+      <c r="Q485" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="486" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A486" t="s">
+        <v>327</v>
+      </c>
+      <c r="B486">
+        <v>13</v>
+      </c>
+      <c r="C486">
+        <v>1750</v>
+      </c>
+      <c r="Q486" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="487" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A487" t="s">
+        <v>335</v>
+      </c>
+      <c r="B487">
+        <v>13</v>
+      </c>
+      <c r="C487">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="488" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A488" t="s">
+        <v>323</v>
+      </c>
+      <c r="B488">
+        <v>14</v>
+      </c>
+      <c r="C488">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="489" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A489" t="s">
+        <v>336</v>
+      </c>
+      <c r="B489">
+        <v>14</v>
+      </c>
+      <c r="C489">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="490" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A490" t="s">
+        <v>337</v>
+      </c>
+      <c r="B490">
+        <v>14</v>
+      </c>
+      <c r="C490">
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="491" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A491" t="s">
+        <v>332</v>
+      </c>
+      <c r="B491">
+        <v>14</v>
+      </c>
+      <c r="C491">
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="492" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A492" t="s">
+        <v>338</v>
+      </c>
+      <c r="B492">
+        <v>15</v>
+      </c>
+      <c r="C492">
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="493" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A493" t="s">
+        <v>334</v>
+      </c>
+      <c r="B493">
+        <v>15</v>
+      </c>
+      <c r="C493">
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="494" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A494" t="s">
+        <v>331</v>
+      </c>
+      <c r="B494">
+        <v>15</v>
+      </c>
+      <c r="C494">
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="495" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A495" t="s">
+        <v>330</v>
+      </c>
+      <c r="B495">
+        <v>15</v>
+      </c>
+      <c r="C495">
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="496" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A496" t="s">
+        <v>339</v>
+      </c>
+      <c r="B496">
+        <v>16</v>
+      </c>
+      <c r="C496">
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A497" t="s">
+        <v>324</v>
+      </c>
+      <c r="B497">
+        <v>16</v>
+      </c>
+      <c r="C497">
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A498" t="s">
+        <v>340</v>
+      </c>
+      <c r="B498">
+        <v>16</v>
+      </c>
+      <c r="C498">
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A499" t="s">
+        <v>335</v>
+      </c>
+      <c r="B499">
+        <v>16</v>
+      </c>
+      <c r="C499">
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A500" t="s">
+        <v>331</v>
+      </c>
+      <c r="B500">
+        <v>17</v>
+      </c>
+      <c r="C500">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A501" t="s">
+        <v>327</v>
+      </c>
+      <c r="B501">
+        <v>17</v>
+      </c>
+      <c r="C501">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A502" t="s">
+        <v>316</v>
+      </c>
+      <c r="B502">
+        <v>17</v>
+      </c>
+      <c r="C502">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="503" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A503" t="s">
+        <v>335</v>
+      </c>
+      <c r="B503">
+        <v>18</v>
+      </c>
+      <c r="C503">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="504" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A504" t="s">
+        <v>323</v>
+      </c>
+      <c r="B504">
+        <v>18</v>
+      </c>
+      <c r="C504">
+        <v>1753</v>
+      </c>
+    </row>
+    <row r="505" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A505" t="s">
+        <v>182</v>
+      </c>
+      <c r="B505">
+        <v>18</v>
+      </c>
+      <c r="C505">
+        <v>1753</v>
+      </c>
+    </row>
+    <row r="506" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A506" t="s">
+        <v>332</v>
+      </c>
+      <c r="B506">
+        <v>18</v>
+      </c>
+      <c r="C506">
+        <v>1753</v>
+      </c>
+    </row>
+    <row r="507" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A507" t="s">
+        <v>341</v>
+      </c>
+      <c r="B507">
+        <v>19</v>
+      </c>
+      <c r="C507">
+        <v>1753</v>
+      </c>
+    </row>
+    <row r="508" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A508" t="s">
+        <v>334</v>
+      </c>
+      <c r="B508">
+        <v>19</v>
+      </c>
+      <c r="C508">
+        <v>1754</v>
+      </c>
+    </row>
+    <row r="509" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A509" t="s">
+        <v>335</v>
+      </c>
+      <c r="B509">
+        <v>19</v>
+      </c>
+      <c r="C509">
+        <v>1754</v>
+      </c>
+    </row>
+    <row r="510" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A510" t="s">
+        <v>330</v>
+      </c>
+      <c r="B510">
+        <v>20</v>
+      </c>
+      <c r="C510">
+        <v>1754</v>
+      </c>
+    </row>
+    <row r="511" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A511" t="s">
+        <v>332</v>
+      </c>
+      <c r="B511">
+        <v>20</v>
+      </c>
+      <c r="C511">
+        <v>1754</v>
+      </c>
+    </row>
+    <row r="512" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A512" t="s">
+        <v>326</v>
+      </c>
+      <c r="B512">
+        <v>20</v>
+      </c>
+      <c r="C512">
+        <v>1754</v>
+      </c>
+    </row>
+    <row r="513" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A513" t="s">
+        <v>182</v>
+      </c>
+      <c r="B513">
+        <v>21</v>
+      </c>
+      <c r="C513">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="514" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A514" t="s">
+        <v>327</v>
+      </c>
+      <c r="B514">
+        <v>21</v>
+      </c>
+      <c r="C514">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="515" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A515" t="s">
+        <v>331</v>
+      </c>
+      <c r="B515">
+        <v>21</v>
+      </c>
+      <c r="C515">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="516" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A516" t="s">
+        <v>342</v>
+      </c>
+      <c r="B516">
+        <v>21</v>
+      </c>
+      <c r="C516">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="517" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A517" t="s">
+        <v>332</v>
+      </c>
+      <c r="B517">
+        <v>22</v>
+      </c>
+      <c r="C517">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="518" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A518" t="s">
+        <v>339</v>
+      </c>
+      <c r="B518">
+        <v>22</v>
+      </c>
+      <c r="C518">
+        <v>1756</v>
+      </c>
+    </row>
+    <row r="519" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A519" t="s">
+        <v>341</v>
+      </c>
+      <c r="B519">
+        <v>22</v>
+      </c>
+      <c r="C519">
+        <v>1756</v>
+      </c>
+    </row>
+    <row r="520" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A520" t="s">
+        <v>335</v>
+      </c>
+      <c r="B520">
+        <v>22</v>
+      </c>
+      <c r="C520">
+        <v>1756</v>
+      </c>
+    </row>
+    <row r="521" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A521" t="s">
+        <v>331</v>
+      </c>
+      <c r="B521">
+        <v>23</v>
+      </c>
+      <c r="C521">
+        <v>1756</v>
+      </c>
+    </row>
+    <row r="522" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A522" t="s">
+        <v>343</v>
+      </c>
+      <c r="B522">
+        <v>23</v>
+      </c>
+      <c r="C522">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="523" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A523" t="s">
+        <v>344</v>
+      </c>
+      <c r="B523">
+        <v>23</v>
+      </c>
+      <c r="C523">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="524" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A524" t="s">
+        <v>334</v>
+      </c>
+      <c r="B524">
+        <v>23</v>
+      </c>
+      <c r="C524">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="525" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A525" t="s">
+        <v>335</v>
+      </c>
+      <c r="B525">
+        <v>24</v>
+      </c>
+      <c r="C525">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="526" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A526" t="s">
+        <v>182</v>
+      </c>
+      <c r="B526">
+        <v>24</v>
+      </c>
+      <c r="C526">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="527" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A527" t="s">
+        <v>330</v>
+      </c>
+      <c r="B527">
+        <v>24</v>
+      </c>
+      <c r="C527">
+        <v>1758</v>
+      </c>
+    </row>
+    <row r="528" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A528" t="s">
+        <v>124</v>
+      </c>
+      <c r="B528">
+        <v>24</v>
+      </c>
+      <c r="C528">
+        <v>1758</v>
+      </c>
+    </row>
+    <row r="529" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A529" t="s">
+        <v>327</v>
+      </c>
+      <c r="B529">
+        <v>24</v>
+      </c>
+      <c r="C529">
+        <v>1758</v>
+      </c>
+    </row>
+    <row r="530" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A530" t="s">
+        <v>341</v>
+      </c>
+      <c r="B530">
+        <v>25</v>
+      </c>
+      <c r="C530">
+        <v>1758</v>
+      </c>
+    </row>
+    <row r="531" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A531" t="s">
+        <v>332</v>
+      </c>
+      <c r="B531">
+        <v>25</v>
+      </c>
+      <c r="C531">
+        <v>1758</v>
+      </c>
+    </row>
+    <row r="532" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A532" t="s">
+        <v>343</v>
+      </c>
+      <c r="B532">
+        <v>25</v>
+      </c>
+      <c r="C532">
+        <v>1758</v>
+      </c>
+    </row>
+    <row r="533" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A533" t="s">
+        <v>335</v>
+      </c>
+      <c r="B533">
+        <v>25</v>
+      </c>
+      <c r="C533">
+        <v>1759</v>
+      </c>
+    </row>
+    <row r="534" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A534" t="s">
+        <v>339</v>
+      </c>
+      <c r="B534">
+        <v>26</v>
+      </c>
+      <c r="C534">
+        <v>1759</v>
+      </c>
+    </row>
+    <row r="535" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A535" t="s">
+        <v>344</v>
+      </c>
+      <c r="B535">
+        <v>26</v>
+      </c>
+      <c r="C535">
+        <v>1759</v>
+      </c>
+    </row>
+    <row r="536" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A536" t="s">
+        <v>332</v>
+      </c>
+      <c r="B536">
+        <v>26</v>
+      </c>
+      <c r="C536">
+        <v>1759</v>
+      </c>
+    </row>
+    <row r="537" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A537" t="s">
+        <v>334</v>
+      </c>
+      <c r="B537">
+        <v>27</v>
+      </c>
+      <c r="C537">
+        <v>1759</v>
+      </c>
+    </row>
+    <row r="538" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A538" t="s">
+        <v>331</v>
+      </c>
+      <c r="B538">
+        <v>27</v>
+      </c>
+      <c r="C538">
+        <v>1759</v>
+      </c>
+    </row>
+    <row r="539" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A539" t="s">
+        <v>345</v>
+      </c>
+      <c r="B539">
+        <v>27</v>
+      </c>
+      <c r="C539">
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="540" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A540" t="s">
+        <v>330</v>
+      </c>
+      <c r="B540">
+        <v>27</v>
+      </c>
+      <c r="C540">
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="541" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A541" t="s">
+        <v>182</v>
+      </c>
+      <c r="B541">
+        <v>28</v>
+      </c>
+      <c r="C541">
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="542" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A542" t="s">
+        <v>341</v>
+      </c>
+      <c r="B542">
+        <v>28</v>
+      </c>
+      <c r="C542">
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="543" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A543" t="s">
+        <v>124</v>
+      </c>
+      <c r="B543">
+        <v>28</v>
+      </c>
+      <c r="C543">
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="544" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A544" t="s">
+        <v>332</v>
+      </c>
+      <c r="B544">
+        <v>28</v>
+      </c>
+      <c r="C544">
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="545" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A545" t="s">
+        <v>335</v>
+      </c>
+      <c r="B545">
+        <v>29</v>
+      </c>
+      <c r="C545">
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="546" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A546" t="s">
+        <v>346</v>
+      </c>
+      <c r="B546">
+        <v>29</v>
+      </c>
+      <c r="C546">
+        <v>1761</v>
+      </c>
+    </row>
+    <row r="547" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A547" t="s">
+        <v>344</v>
+      </c>
+      <c r="B547">
+        <v>29</v>
+      </c>
+      <c r="C547">
+        <v>1761</v>
+      </c>
+    </row>
+    <row r="548" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A548" t="s">
+        <v>327</v>
+      </c>
+      <c r="B548">
+        <v>29</v>
+      </c>
+      <c r="C548">
+        <v>1761</v>
+      </c>
+    </row>
+    <row r="549" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A549" t="s">
+        <v>339</v>
+      </c>
+      <c r="B549">
+        <v>30</v>
+      </c>
+      <c r="C549">
+        <v>1761</v>
+      </c>
+    </row>
+    <row r="550" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A550" t="s">
+        <v>341</v>
+      </c>
+      <c r="B550">
+        <v>30</v>
+      </c>
+      <c r="C550">
+        <v>1761</v>
+      </c>
+    </row>
+    <row r="551" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A551" t="s">
+        <v>358</v>
+      </c>
+      <c r="B551">
+        <v>30</v>
+      </c>
+      <c r="C551">
+        <v>1761</v>
+      </c>
+      <c r="D551" t="s">
+        <v>347</v>
+      </c>
+      <c r="E551" t="s">
+        <v>357</v>
+      </c>
+      <c r="J551" t="s">
+        <v>350</v>
+      </c>
+      <c r="K551" t="s">
+        <v>349</v>
+      </c>
+      <c r="L551" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="552" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A552" t="s">
+        <v>334</v>
+      </c>
+      <c r="B552">
+        <v>30</v>
+      </c>
+      <c r="C552">
+        <v>1762</v>
+      </c>
+    </row>
+    <row r="553" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A553" t="s">
+        <v>351</v>
+      </c>
+      <c r="B553">
+        <v>31</v>
+      </c>
+      <c r="C553">
+        <v>1762</v>
+      </c>
+    </row>
+    <row r="554" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A554" t="s">
+        <v>332</v>
+      </c>
+      <c r="B554">
+        <v>31</v>
+      </c>
+      <c r="C554">
+        <v>1762</v>
+      </c>
+    </row>
+    <row r="555" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A555" t="s">
+        <v>352</v>
+      </c>
+      <c r="B555">
+        <v>31</v>
+      </c>
+      <c r="C555">
+        <v>1762</v>
+      </c>
+    </row>
+    <row r="556" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A556" t="s">
+        <v>330</v>
+      </c>
+      <c r="B556">
+        <v>32</v>
+      </c>
+      <c r="C556">
+        <v>1762</v>
+      </c>
+      <c r="Q556" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="557" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A557" t="s">
+        <v>182</v>
+      </c>
+      <c r="B557">
+        <v>32</v>
+      </c>
+      <c r="C557">
+        <v>1762</v>
+      </c>
+    </row>
+    <row r="558" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A558" t="s">
+        <v>354</v>
+      </c>
+      <c r="B558">
+        <v>32</v>
+      </c>
+      <c r="C558">
+        <v>1763</v>
+      </c>
+    </row>
+    <row r="559" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A559" t="s">
+        <v>355</v>
+      </c>
+      <c r="B559">
+        <v>32</v>
+      </c>
+      <c r="C559">
+        <v>1763</v>
+      </c>
+    </row>
+    <row r="560" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A560" t="s">
+        <v>356</v>
+      </c>
+      <c r="B560">
+        <v>33</v>
+      </c>
+      <c r="C560">
+        <v>1763</v>
+      </c>
+    </row>
+    <row r="561" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A561" t="s">
+        <v>344</v>
+      </c>
+      <c r="B561">
+        <v>33</v>
+      </c>
+      <c r="C561">
+        <v>1763</v>
+      </c>
+    </row>
+    <row r="562" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A562" t="s">
+        <v>359</v>
+      </c>
+      <c r="B562">
+        <v>34</v>
+      </c>
+      <c r="C562">
+        <v>1763</v>
+      </c>
+    </row>
+    <row r="563" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A563" t="s">
+        <v>332</v>
+      </c>
+      <c r="B563">
+        <v>34</v>
+      </c>
+      <c r="C563">
+        <v>1763</v>
+      </c>
+    </row>
+    <row r="564" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A564" t="s">
+        <v>335</v>
+      </c>
+      <c r="B564">
+        <v>34</v>
+      </c>
+      <c r="C564">
+        <v>1763</v>
+      </c>
+    </row>
+    <row r="565" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A565" t="s">
+        <v>334</v>
+      </c>
+      <c r="B565">
+        <v>34</v>
+      </c>
+      <c r="C565">
+        <v>1763</v>
+      </c>
+    </row>
+    <row r="566" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A566" t="s">
+        <v>341</v>
+      </c>
+      <c r="B566">
+        <v>35</v>
+      </c>
+      <c r="C566">
+        <v>1764</v>
+      </c>
+    </row>
+    <row r="567" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A567" t="s">
+        <v>332</v>
+      </c>
+      <c r="B567">
+        <v>35</v>
+      </c>
+      <c r="C567">
+        <v>1764</v>
+      </c>
+    </row>
+    <row r="568" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A568" t="s">
+        <v>356</v>
+      </c>
+      <c r="B568">
+        <v>36</v>
+      </c>
+      <c r="C568">
+        <v>1764</v>
+      </c>
+    </row>
+    <row r="569" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A569" t="s">
+        <v>360</v>
+      </c>
+      <c r="B569">
+        <v>36</v>
+      </c>
+      <c r="C569">
+        <v>1764</v>
+      </c>
+    </row>
+    <row r="570" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A570" t="s">
+        <v>343</v>
+      </c>
+      <c r="B570">
+        <v>36</v>
+      </c>
+      <c r="C570">
+        <v>1764</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:Q350" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Bisbats/Catalunya/Lleida/Blancafort/Sacraments/Baptismes/Excel/Baptismes_Parroquia_Blancafort.xlsx
+++ b/Bisbats/Catalunya/Lleida/Blancafort/Sacraments/Baptismes/Excel/Baptismes_Parroquia_Blancafort.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vstudio-code\repositorisArbre\DadesGenerals\Bisbats\Catalunya\Lleida\Blancafort\Sacraments\Baptismes\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF5078EB-4F9F-462C-8972-CE6E116F2FD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5880AC97-5552-4560-BF11-90C5515084C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1291" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1450" uniqueCount="366">
   <si>
     <t>Cognoms</t>
   </si>
@@ -1111,6 +1111,21 @@
   </si>
   <si>
     <t>Gessé Subirada</t>
+  </si>
+  <si>
+    <t>Farré Castells</t>
+  </si>
+  <si>
+    <t>Gessé Therés</t>
+  </si>
+  <si>
+    <t>Gessé Fons</t>
+  </si>
+  <si>
+    <t>Gessé Pasqual</t>
+  </si>
+  <si>
+    <t>Rodrigo Castells</t>
   </si>
 </sst>
 </file>
@@ -1445,11 +1460,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q570"/>
+  <dimension ref="A1:Q597"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A550" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A571" sqref="A571"/>
+      <pane ySplit="1" topLeftCell="A571" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A598" sqref="A598"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8597,6 +8612,9 @@
       <c r="C451">
         <v>1737</v>
       </c>
+      <c r="P451" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="452" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
@@ -8608,6 +8626,9 @@
       <c r="C452">
         <v>1737</v>
       </c>
+      <c r="P452" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="453" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
@@ -8619,6 +8640,9 @@
       <c r="C453">
         <v>1738</v>
       </c>
+      <c r="P453" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="454" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
@@ -8630,6 +8654,9 @@
       <c r="C454">
         <v>1738</v>
       </c>
+      <c r="P454" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="455" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
@@ -8641,6 +8668,9 @@
       <c r="C455">
         <v>1739</v>
       </c>
+      <c r="P455" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="456" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
@@ -8652,6 +8682,9 @@
       <c r="C456">
         <v>1739</v>
       </c>
+      <c r="P456" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="457" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
@@ -8663,6 +8696,9 @@
       <c r="C457">
         <v>1740</v>
       </c>
+      <c r="P457" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="458" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
@@ -8674,6 +8710,9 @@
       <c r="C458">
         <v>1740</v>
       </c>
+      <c r="P458" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="459" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
@@ -8685,6 +8724,9 @@
       <c r="C459">
         <v>1740</v>
       </c>
+      <c r="P459" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="460" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
@@ -8696,6 +8738,9 @@
       <c r="C460">
         <v>1740</v>
       </c>
+      <c r="P460" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="461" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
@@ -8707,6 +8752,9 @@
       <c r="C461">
         <v>1741</v>
       </c>
+      <c r="P461" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="462" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
@@ -8718,6 +8766,9 @@
       <c r="C462">
         <v>1742</v>
       </c>
+      <c r="P462" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="463" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
@@ -8729,6 +8780,9 @@
       <c r="C463">
         <v>1742</v>
       </c>
+      <c r="P463" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="464" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
@@ -8740,8 +8794,11 @@
       <c r="C464">
         <v>1743</v>
       </c>
-    </row>
-    <row r="465" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="P464" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="465" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>321</v>
       </c>
@@ -8751,8 +8808,11 @@
       <c r="C465">
         <v>1743</v>
       </c>
-    </row>
-    <row r="466" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="P465" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="466" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>322</v>
       </c>
@@ -8762,8 +8822,11 @@
       <c r="C466">
         <v>1744</v>
       </c>
-    </row>
-    <row r="467" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="P466" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="467" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>323</v>
       </c>
@@ -8773,8 +8836,11 @@
       <c r="C467">
         <v>1744</v>
       </c>
-    </row>
-    <row r="468" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="P467" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="468" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>314</v>
       </c>
@@ -8784,8 +8850,11 @@
       <c r="C468">
         <v>1745</v>
       </c>
-    </row>
-    <row r="469" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="P468" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="469" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>324</v>
       </c>
@@ -8795,8 +8864,11 @@
       <c r="C469">
         <v>1745</v>
       </c>
-    </row>
-    <row r="470" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="P469" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="470" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>323</v>
       </c>
@@ -8806,8 +8878,11 @@
       <c r="C470">
         <v>1746</v>
       </c>
-    </row>
-    <row r="471" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="P470" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="471" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>325</v>
       </c>
@@ -8817,8 +8892,11 @@
       <c r="C471">
         <v>1746</v>
       </c>
-    </row>
-    <row r="472" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="P471" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="472" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>325</v>
       </c>
@@ -8828,8 +8906,11 @@
       <c r="C472">
         <v>1746</v>
       </c>
-    </row>
-    <row r="473" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="P472" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="473" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>323</v>
       </c>
@@ -8839,8 +8920,11 @@
       <c r="C473">
         <v>1747</v>
       </c>
-    </row>
-    <row r="474" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="P473" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="474" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>324</v>
       </c>
@@ -8850,8 +8934,11 @@
       <c r="C474">
         <v>1748</v>
       </c>
-    </row>
-    <row r="475" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="P474" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="475" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>326</v>
       </c>
@@ -8861,8 +8948,11 @@
       <c r="C475">
         <v>1748</v>
       </c>
-    </row>
-    <row r="476" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="P475" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="476" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>327</v>
       </c>
@@ -8872,8 +8962,11 @@
       <c r="C476">
         <v>1748</v>
       </c>
-    </row>
-    <row r="477" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="P476" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="477" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>328</v>
       </c>
@@ -8883,8 +8976,11 @@
       <c r="C477">
         <v>1748</v>
       </c>
-    </row>
-    <row r="478" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="P477" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="478" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>329</v>
       </c>
@@ -8894,8 +8990,11 @@
       <c r="C478">
         <v>1748</v>
       </c>
-    </row>
-    <row r="479" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="P478" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="479" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>330</v>
       </c>
@@ -8905,8 +9004,11 @@
       <c r="C479">
         <v>1749</v>
       </c>
-    </row>
-    <row r="480" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="P479" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="480" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>331</v>
       </c>
@@ -8915,6 +9017,9 @@
       </c>
       <c r="C480">
         <v>1749</v>
+      </c>
+      <c r="P480" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="481" spans="1:17" x14ac:dyDescent="0.25">
@@ -8927,6 +9032,9 @@
       <c r="C481">
         <v>1749</v>
       </c>
+      <c r="P481" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="482" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
@@ -8938,6 +9046,9 @@
       <c r="C482">
         <v>1749</v>
       </c>
+      <c r="P482" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="483" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
@@ -8949,6 +9060,9 @@
       <c r="C483">
         <v>1749</v>
       </c>
+      <c r="P483" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="484" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
@@ -8960,6 +9074,9 @@
       <c r="C484">
         <v>1749</v>
       </c>
+      <c r="P484" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="485" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
@@ -8971,6 +9088,9 @@
       <c r="C485">
         <v>1749</v>
       </c>
+      <c r="P485" t="s">
+        <v>313</v>
+      </c>
       <c r="Q485" t="s">
         <v>202</v>
       </c>
@@ -8985,6 +9105,9 @@
       <c r="C486">
         <v>1750</v>
       </c>
+      <c r="P486" t="s">
+        <v>313</v>
+      </c>
       <c r="Q486" t="s">
         <v>202</v>
       </c>
@@ -8999,6 +9122,9 @@
       <c r="C487">
         <v>1750</v>
       </c>
+      <c r="P487" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="488" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
@@ -9010,6 +9136,9 @@
       <c r="C488">
         <v>1750</v>
       </c>
+      <c r="P488" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="489" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
@@ -9021,6 +9150,9 @@
       <c r="C489">
         <v>1750</v>
       </c>
+      <c r="P489" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="490" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
@@ -9032,6 +9164,9 @@
       <c r="C490">
         <v>1751</v>
       </c>
+      <c r="P490" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="491" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
@@ -9043,6 +9178,9 @@
       <c r="C491">
         <v>1751</v>
       </c>
+      <c r="P491" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="492" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
@@ -9054,6 +9192,9 @@
       <c r="C492">
         <v>1751</v>
       </c>
+      <c r="P492" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="493" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
@@ -9065,6 +9206,9 @@
       <c r="C493">
         <v>1751</v>
       </c>
+      <c r="P493" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="494" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
@@ -9076,6 +9220,9 @@
       <c r="C494">
         <v>1751</v>
       </c>
+      <c r="P494" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="495" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
@@ -9087,6 +9234,9 @@
       <c r="C495">
         <v>1751</v>
       </c>
+      <c r="P495" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="496" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
@@ -9098,8 +9248,11 @@
       <c r="C496">
         <v>1751</v>
       </c>
-    </row>
-    <row r="497" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="P496" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="497" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>324</v>
       </c>
@@ -9109,8 +9262,11 @@
       <c r="C497">
         <v>1751</v>
       </c>
-    </row>
-    <row r="498" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="P497" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="498" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>340</v>
       </c>
@@ -9120,8 +9276,11 @@
       <c r="C498">
         <v>1751</v>
       </c>
-    </row>
-    <row r="499" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="P498" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="499" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>335</v>
       </c>
@@ -9131,8 +9290,11 @@
       <c r="C499">
         <v>1751</v>
       </c>
-    </row>
-    <row r="500" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="P499" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="500" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>331</v>
       </c>
@@ -9142,8 +9304,11 @@
       <c r="C500">
         <v>1752</v>
       </c>
-    </row>
-    <row r="501" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="P500" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="501" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>327</v>
       </c>
@@ -9153,8 +9318,11 @@
       <c r="C501">
         <v>1752</v>
       </c>
-    </row>
-    <row r="502" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="P501" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="502" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>316</v>
       </c>
@@ -9164,8 +9332,11 @@
       <c r="C502">
         <v>1752</v>
       </c>
-    </row>
-    <row r="503" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="P502" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="503" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>335</v>
       </c>
@@ -9175,8 +9346,11 @@
       <c r="C503">
         <v>1752</v>
       </c>
-    </row>
-    <row r="504" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="P503" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="504" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>323</v>
       </c>
@@ -9186,8 +9360,11 @@
       <c r="C504">
         <v>1753</v>
       </c>
-    </row>
-    <row r="505" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="P504" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="505" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>182</v>
       </c>
@@ -9197,8 +9374,11 @@
       <c r="C505">
         <v>1753</v>
       </c>
-    </row>
-    <row r="506" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="P505" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="506" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>332</v>
       </c>
@@ -9208,8 +9388,11 @@
       <c r="C506">
         <v>1753</v>
       </c>
-    </row>
-    <row r="507" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="P506" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="507" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>341</v>
       </c>
@@ -9219,8 +9402,11 @@
       <c r="C507">
         <v>1753</v>
       </c>
-    </row>
-    <row r="508" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="P507" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="508" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>334</v>
       </c>
@@ -9230,8 +9416,11 @@
       <c r="C508">
         <v>1754</v>
       </c>
-    </row>
-    <row r="509" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="P508" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="509" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>335</v>
       </c>
@@ -9241,8 +9430,11 @@
       <c r="C509">
         <v>1754</v>
       </c>
-    </row>
-    <row r="510" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="P509" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="510" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>330</v>
       </c>
@@ -9252,8 +9444,11 @@
       <c r="C510">
         <v>1754</v>
       </c>
-    </row>
-    <row r="511" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="P510" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="511" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>332</v>
       </c>
@@ -9263,8 +9458,11 @@
       <c r="C511">
         <v>1754</v>
       </c>
-    </row>
-    <row r="512" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="P511" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="512" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>326</v>
       </c>
@@ -9274,8 +9472,11 @@
       <c r="C512">
         <v>1754</v>
       </c>
-    </row>
-    <row r="513" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="P512" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="513" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>182</v>
       </c>
@@ -9285,8 +9486,11 @@
       <c r="C513">
         <v>1755</v>
       </c>
-    </row>
-    <row r="514" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="P513" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="514" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
         <v>327</v>
       </c>
@@ -9296,8 +9500,11 @@
       <c r="C514">
         <v>1755</v>
       </c>
-    </row>
-    <row r="515" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="P514" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="515" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>331</v>
       </c>
@@ -9307,8 +9514,11 @@
       <c r="C515">
         <v>1755</v>
       </c>
-    </row>
-    <row r="516" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="P515" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="516" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>342</v>
       </c>
@@ -9318,8 +9528,11 @@
       <c r="C516">
         <v>1755</v>
       </c>
-    </row>
-    <row r="517" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="P516" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="517" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>332</v>
       </c>
@@ -9329,8 +9542,11 @@
       <c r="C517">
         <v>1755</v>
       </c>
-    </row>
-    <row r="518" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="P517" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="518" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>339</v>
       </c>
@@ -9340,8 +9556,11 @@
       <c r="C518">
         <v>1756</v>
       </c>
-    </row>
-    <row r="519" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="P518" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="519" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
         <v>341</v>
       </c>
@@ -9351,8 +9570,11 @@
       <c r="C519">
         <v>1756</v>
       </c>
-    </row>
-    <row r="520" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="P519" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="520" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
         <v>335</v>
       </c>
@@ -9362,8 +9584,11 @@
       <c r="C520">
         <v>1756</v>
       </c>
-    </row>
-    <row r="521" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="P520" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="521" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
         <v>331</v>
       </c>
@@ -9373,8 +9598,11 @@
       <c r="C521">
         <v>1756</v>
       </c>
-    </row>
-    <row r="522" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="P521" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="522" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
         <v>343</v>
       </c>
@@ -9384,8 +9612,11 @@
       <c r="C522">
         <v>1757</v>
       </c>
-    </row>
-    <row r="523" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="P522" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="523" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
         <v>344</v>
       </c>
@@ -9395,8 +9626,11 @@
       <c r="C523">
         <v>1757</v>
       </c>
-    </row>
-    <row r="524" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="P523" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="524" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
         <v>334</v>
       </c>
@@ -9406,8 +9640,11 @@
       <c r="C524">
         <v>1757</v>
       </c>
-    </row>
-    <row r="525" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="P524" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="525" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
         <v>335</v>
       </c>
@@ -9417,8 +9654,11 @@
       <c r="C525">
         <v>1757</v>
       </c>
-    </row>
-    <row r="526" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="P525" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="526" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
         <v>182</v>
       </c>
@@ -9428,8 +9668,11 @@
       <c r="C526">
         <v>1757</v>
       </c>
-    </row>
-    <row r="527" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="P526" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="527" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
         <v>330</v>
       </c>
@@ -9439,8 +9682,11 @@
       <c r="C527">
         <v>1758</v>
       </c>
-    </row>
-    <row r="528" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="P527" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="528" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
         <v>124</v>
       </c>
@@ -9450,8 +9696,11 @@
       <c r="C528">
         <v>1758</v>
       </c>
-    </row>
-    <row r="529" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="P528" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="529" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
         <v>327</v>
       </c>
@@ -9461,8 +9710,11 @@
       <c r="C529">
         <v>1758</v>
       </c>
-    </row>
-    <row r="530" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="P529" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="530" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
         <v>341</v>
       </c>
@@ -9472,8 +9724,11 @@
       <c r="C530">
         <v>1758</v>
       </c>
-    </row>
-    <row r="531" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="P530" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="531" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
         <v>332</v>
       </c>
@@ -9483,8 +9738,11 @@
       <c r="C531">
         <v>1758</v>
       </c>
-    </row>
-    <row r="532" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="P531" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="532" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>343</v>
       </c>
@@ -9494,8 +9752,11 @@
       <c r="C532">
         <v>1758</v>
       </c>
-    </row>
-    <row r="533" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="P532" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="533" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
         <v>335</v>
       </c>
@@ -9505,8 +9766,11 @@
       <c r="C533">
         <v>1759</v>
       </c>
-    </row>
-    <row r="534" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="P533" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="534" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>339</v>
       </c>
@@ -9516,8 +9780,11 @@
       <c r="C534">
         <v>1759</v>
       </c>
-    </row>
-    <row r="535" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="P534" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="535" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
         <v>344</v>
       </c>
@@ -9527,8 +9794,11 @@
       <c r="C535">
         <v>1759</v>
       </c>
-    </row>
-    <row r="536" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="P535" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="536" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
         <v>332</v>
       </c>
@@ -9538,8 +9808,11 @@
       <c r="C536">
         <v>1759</v>
       </c>
-    </row>
-    <row r="537" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="P536" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="537" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
         <v>334</v>
       </c>
@@ -9549,8 +9822,11 @@
       <c r="C537">
         <v>1759</v>
       </c>
-    </row>
-    <row r="538" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="P537" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="538" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
         <v>331</v>
       </c>
@@ -9560,8 +9836,11 @@
       <c r="C538">
         <v>1759</v>
       </c>
-    </row>
-    <row r="539" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="P538" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="539" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
         <v>345</v>
       </c>
@@ -9571,8 +9850,11 @@
       <c r="C539">
         <v>1760</v>
       </c>
-    </row>
-    <row r="540" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="P539" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="540" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
         <v>330</v>
       </c>
@@ -9582,8 +9864,11 @@
       <c r="C540">
         <v>1760</v>
       </c>
-    </row>
-    <row r="541" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="P540" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="541" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
         <v>182</v>
       </c>
@@ -9593,8 +9878,11 @@
       <c r="C541">
         <v>1760</v>
       </c>
-    </row>
-    <row r="542" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="P541" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="542" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
         <v>341</v>
       </c>
@@ -9604,8 +9892,11 @@
       <c r="C542">
         <v>1760</v>
       </c>
-    </row>
-    <row r="543" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="P542" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="543" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
         <v>124</v>
       </c>
@@ -9615,8 +9906,11 @@
       <c r="C543">
         <v>1760</v>
       </c>
-    </row>
-    <row r="544" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="P543" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="544" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
         <v>332</v>
       </c>
@@ -9625,6 +9919,9 @@
       </c>
       <c r="C544">
         <v>1760</v>
+      </c>
+      <c r="P544" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="545" spans="1:17" x14ac:dyDescent="0.25">
@@ -9637,6 +9934,9 @@
       <c r="C545">
         <v>1760</v>
       </c>
+      <c r="P545" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="546" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
@@ -9648,6 +9948,9 @@
       <c r="C546">
         <v>1761</v>
       </c>
+      <c r="P546" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="547" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
@@ -9659,6 +9962,9 @@
       <c r="C547">
         <v>1761</v>
       </c>
+      <c r="P547" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="548" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
@@ -9670,6 +9976,9 @@
       <c r="C548">
         <v>1761</v>
       </c>
+      <c r="P548" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="549" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
@@ -9681,6 +9990,9 @@
       <c r="C549">
         <v>1761</v>
       </c>
+      <c r="P549" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="550" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
@@ -9692,6 +10004,9 @@
       <c r="C550">
         <v>1761</v>
       </c>
+      <c r="P550" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="551" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
@@ -9718,6 +10033,9 @@
       <c r="L551" t="s">
         <v>348</v>
       </c>
+      <c r="P551" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="552" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
@@ -9729,6 +10047,9 @@
       <c r="C552">
         <v>1762</v>
       </c>
+      <c r="P552" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="553" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
@@ -9740,6 +10061,9 @@
       <c r="C553">
         <v>1762</v>
       </c>
+      <c r="P553" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="554" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
@@ -9751,6 +10075,9 @@
       <c r="C554">
         <v>1762</v>
       </c>
+      <c r="P554" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="555" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
@@ -9762,6 +10089,9 @@
       <c r="C555">
         <v>1762</v>
       </c>
+      <c r="P555" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="556" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
@@ -9773,6 +10103,9 @@
       <c r="C556">
         <v>1762</v>
       </c>
+      <c r="P556" t="s">
+        <v>313</v>
+      </c>
       <c r="Q556" t="s">
         <v>353</v>
       </c>
@@ -9787,6 +10120,9 @@
       <c r="C557">
         <v>1762</v>
       </c>
+      <c r="P557" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="558" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
@@ -9798,6 +10134,9 @@
       <c r="C558">
         <v>1763</v>
       </c>
+      <c r="P558" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="559" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
@@ -9809,6 +10148,9 @@
       <c r="C559">
         <v>1763</v>
       </c>
+      <c r="P559" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="560" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
@@ -9820,8 +10162,11 @@
       <c r="C560">
         <v>1763</v>
       </c>
-    </row>
-    <row r="561" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="P560" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="561" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
         <v>344</v>
       </c>
@@ -9831,8 +10176,11 @@
       <c r="C561">
         <v>1763</v>
       </c>
-    </row>
-    <row r="562" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="P561" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="562" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
         <v>359</v>
       </c>
@@ -9842,8 +10190,11 @@
       <c r="C562">
         <v>1763</v>
       </c>
-    </row>
-    <row r="563" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="P562" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="563" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
         <v>332</v>
       </c>
@@ -9853,8 +10204,11 @@
       <c r="C563">
         <v>1763</v>
       </c>
-    </row>
-    <row r="564" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="P563" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="564" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
         <v>335</v>
       </c>
@@ -9864,8 +10218,11 @@
       <c r="C564">
         <v>1763</v>
       </c>
-    </row>
-    <row r="565" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="P564" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="565" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
         <v>334</v>
       </c>
@@ -9875,8 +10232,11 @@
       <c r="C565">
         <v>1763</v>
       </c>
-    </row>
-    <row r="566" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="P565" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="566" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
         <v>341</v>
       </c>
@@ -9886,8 +10246,11 @@
       <c r="C566">
         <v>1764</v>
       </c>
-    </row>
-    <row r="567" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="P566" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="567" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
         <v>332</v>
       </c>
@@ -9897,8 +10260,11 @@
       <c r="C567">
         <v>1764</v>
       </c>
-    </row>
-    <row r="568" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="P567" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="568" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
         <v>356</v>
       </c>
@@ -9908,8 +10274,11 @@
       <c r="C568">
         <v>1764</v>
       </c>
-    </row>
-    <row r="569" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="P568" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="569" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
         <v>360</v>
       </c>
@@ -9919,8 +10288,11 @@
       <c r="C569">
         <v>1764</v>
       </c>
-    </row>
-    <row r="570" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="P569" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="570" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
         <v>343</v>
       </c>
@@ -9929,6 +10301,342 @@
       </c>
       <c r="C570">
         <v>1764</v>
+      </c>
+      <c r="P570" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="571" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A571" t="s">
+        <v>355</v>
+      </c>
+      <c r="B571">
+        <v>37</v>
+      </c>
+      <c r="C571">
+        <v>1764</v>
+      </c>
+      <c r="P571" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="572" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A572" t="s">
+        <v>327</v>
+      </c>
+      <c r="B572">
+        <v>37</v>
+      </c>
+      <c r="C572">
+        <v>1765</v>
+      </c>
+      <c r="P572" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="573" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A573" t="s">
+        <v>265</v>
+      </c>
+      <c r="B573">
+        <v>38</v>
+      </c>
+      <c r="C573">
+        <v>1765</v>
+      </c>
+      <c r="P573" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="574" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A574" t="s">
+        <v>182</v>
+      </c>
+      <c r="B574">
+        <v>38</v>
+      </c>
+      <c r="C574">
+        <v>1765</v>
+      </c>
+      <c r="P574" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="575" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A575" t="s">
+        <v>356</v>
+      </c>
+      <c r="B575">
+        <v>38</v>
+      </c>
+      <c r="C575">
+        <v>1765</v>
+      </c>
+      <c r="P575" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="576" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A576" t="s">
+        <v>332</v>
+      </c>
+      <c r="B576">
+        <v>39</v>
+      </c>
+      <c r="C576">
+        <v>1766</v>
+      </c>
+      <c r="P576" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="577" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A577" t="s">
+        <v>327</v>
+      </c>
+      <c r="B577">
+        <v>39</v>
+      </c>
+      <c r="C577">
+        <v>1766</v>
+      </c>
+      <c r="P577" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="578" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A578" t="s">
+        <v>355</v>
+      </c>
+      <c r="B578">
+        <v>39</v>
+      </c>
+      <c r="C578">
+        <v>1766</v>
+      </c>
+      <c r="P578" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="579" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A579" t="s">
+        <v>341</v>
+      </c>
+      <c r="B579">
+        <v>40</v>
+      </c>
+      <c r="C579">
+        <v>1766</v>
+      </c>
+      <c r="P579" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="580" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A580" t="s">
+        <v>343</v>
+      </c>
+      <c r="B580">
+        <v>40</v>
+      </c>
+      <c r="C580">
+        <v>1766</v>
+      </c>
+      <c r="P580" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="581" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A581" t="s">
+        <v>265</v>
+      </c>
+      <c r="B581">
+        <v>40</v>
+      </c>
+      <c r="C581">
+        <v>1766</v>
+      </c>
+      <c r="P581" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="582" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A582" t="s">
+        <v>360</v>
+      </c>
+      <c r="B582">
+        <v>41</v>
+      </c>
+      <c r="C582">
+        <v>1767</v>
+      </c>
+      <c r="P582" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="583" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A583" t="s">
+        <v>356</v>
+      </c>
+      <c r="B583">
+        <v>41</v>
+      </c>
+      <c r="C583">
+        <v>1767</v>
+      </c>
+    </row>
+    <row r="584" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A584" t="s">
+        <v>332</v>
+      </c>
+      <c r="B584">
+        <v>41</v>
+      </c>
+      <c r="C584">
+        <v>1767</v>
+      </c>
+    </row>
+    <row r="585" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A585" t="s">
+        <v>330</v>
+      </c>
+      <c r="B585">
+        <v>42</v>
+      </c>
+      <c r="C585">
+        <v>1768</v>
+      </c>
+    </row>
+    <row r="586" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A586" t="s">
+        <v>361</v>
+      </c>
+      <c r="B586">
+        <v>42</v>
+      </c>
+      <c r="C586">
+        <v>1768</v>
+      </c>
+    </row>
+    <row r="587" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A587" t="s">
+        <v>332</v>
+      </c>
+      <c r="B587">
+        <v>43</v>
+      </c>
+      <c r="C587">
+        <v>1768</v>
+      </c>
+    </row>
+    <row r="588" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A588" t="s">
+        <v>341</v>
+      </c>
+      <c r="B588">
+        <v>43</v>
+      </c>
+      <c r="C588">
+        <v>1768</v>
+      </c>
+    </row>
+    <row r="589" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A589" t="s">
+        <v>355</v>
+      </c>
+      <c r="B589">
+        <v>43</v>
+      </c>
+      <c r="C589">
+        <v>1768</v>
+      </c>
+    </row>
+    <row r="590" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A590" t="s">
+        <v>360</v>
+      </c>
+      <c r="B590">
+        <v>44</v>
+      </c>
+      <c r="C590">
+        <v>1769</v>
+      </c>
+    </row>
+    <row r="591" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A591" t="s">
+        <v>362</v>
+      </c>
+      <c r="B591">
+        <v>44</v>
+      </c>
+      <c r="C591">
+        <v>1769</v>
+      </c>
+    </row>
+    <row r="592" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A592" t="s">
+        <v>363</v>
+      </c>
+      <c r="B592">
+        <v>44</v>
+      </c>
+      <c r="C592">
+        <v>1769</v>
+      </c>
+    </row>
+    <row r="593" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A593" t="s">
+        <v>356</v>
+      </c>
+      <c r="B593">
+        <v>45</v>
+      </c>
+      <c r="C593">
+        <v>1770</v>
+      </c>
+    </row>
+    <row r="594" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A594" t="s">
+        <v>330</v>
+      </c>
+      <c r="B594">
+        <v>45</v>
+      </c>
+      <c r="C594">
+        <v>1770</v>
+      </c>
+    </row>
+    <row r="595" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A595" t="s">
+        <v>364</v>
+      </c>
+      <c r="B595">
+        <v>45</v>
+      </c>
+      <c r="C595">
+        <v>1770</v>
+      </c>
+    </row>
+    <row r="596" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A596" t="s">
+        <v>365</v>
+      </c>
+      <c r="B596">
+        <v>46</v>
+      </c>
+      <c r="C596">
+        <v>1770</v>
+      </c>
+    </row>
+    <row r="597" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A597" t="s">
+        <v>355</v>
+      </c>
+      <c r="B597">
+        <v>46</v>
+      </c>
+      <c r="C597">
+        <v>1770</v>
       </c>
     </row>
   </sheetData>

--- a/Bisbats/Catalunya/Lleida/Blancafort/Sacraments/Baptismes/Excel/Baptismes_Parroquia_Blancafort.xlsx
+++ b/Bisbats/Catalunya/Lleida/Blancafort/Sacraments/Baptismes/Excel/Baptismes_Parroquia_Blancafort.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vstudio-code\repositorisArbre\DadesGenerals\Bisbats\Catalunya\Lleida\Blancafort\Sacraments\Baptismes\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5880AC97-5552-4560-BF11-90C5515084C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BB92CFA-845C-4FFC-87A0-0A1749D42E9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1450" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1461" uniqueCount="368">
   <si>
     <t>Cognoms</t>
   </si>
@@ -1126,6 +1126,12 @@
   </si>
   <si>
     <t>Rodrigo Castells</t>
+  </si>
+  <si>
+    <t>Mas Samarra</t>
+  </si>
+  <si>
+    <t>Castells Molins</t>
   </si>
 </sst>
 </file>
@@ -1460,11 +1466,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q597"/>
+  <dimension ref="A1:Q608"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A571" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A598" sqref="A598"/>
+      <pane ySplit="1" topLeftCell="A573" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A609" sqref="A609"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10639,6 +10645,127 @@
         <v>1770</v>
       </c>
     </row>
+    <row r="598" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A598" t="s">
+        <v>366</v>
+      </c>
+      <c r="B598">
+        <v>47</v>
+      </c>
+      <c r="C598">
+        <v>1770</v>
+      </c>
+    </row>
+    <row r="599" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A599" t="s">
+        <v>362</v>
+      </c>
+      <c r="B599">
+        <v>47</v>
+      </c>
+      <c r="C599">
+        <v>1771</v>
+      </c>
+    </row>
+    <row r="600" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A600" t="s">
+        <v>361</v>
+      </c>
+      <c r="B600">
+        <v>47</v>
+      </c>
+      <c r="C600">
+        <v>1771</v>
+      </c>
+    </row>
+    <row r="601" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A601" t="s">
+        <v>367</v>
+      </c>
+      <c r="B601">
+        <v>48</v>
+      </c>
+      <c r="C601">
+        <v>1771</v>
+      </c>
+    </row>
+    <row r="602" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A602" t="s">
+        <v>356</v>
+      </c>
+      <c r="B602">
+        <v>48</v>
+      </c>
+      <c r="C602">
+        <v>1771</v>
+      </c>
+    </row>
+    <row r="603" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A603" t="s">
+        <v>330</v>
+      </c>
+      <c r="B603">
+        <v>48</v>
+      </c>
+      <c r="C603">
+        <v>1771</v>
+      </c>
+    </row>
+    <row r="604" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A604" t="s">
+        <v>332</v>
+      </c>
+      <c r="B604">
+        <v>49</v>
+      </c>
+      <c r="C604">
+        <v>1771</v>
+      </c>
+    </row>
+    <row r="605" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A605" t="s">
+        <v>365</v>
+      </c>
+      <c r="B605">
+        <v>49</v>
+      </c>
+      <c r="C605">
+        <v>1771</v>
+      </c>
+    </row>
+    <row r="606" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A606" t="s">
+        <v>360</v>
+      </c>
+      <c r="B606">
+        <v>50</v>
+      </c>
+      <c r="C606">
+        <v>1772</v>
+      </c>
+    </row>
+    <row r="607" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A607" t="s">
+        <v>366</v>
+      </c>
+      <c r="B607">
+        <v>50</v>
+      </c>
+      <c r="C607">
+        <v>1772</v>
+      </c>
+    </row>
+    <row r="608" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A608" t="s">
+        <v>364</v>
+      </c>
+      <c r="B608">
+        <v>50</v>
+      </c>
+      <c r="C608">
+        <v>1772</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:Q350" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Bisbats/Catalunya/Lleida/Blancafort/Sacraments/Baptismes/Excel/Baptismes_Parroquia_Blancafort.xlsx
+++ b/Bisbats/Catalunya/Lleida/Blancafort/Sacraments/Baptismes/Excel/Baptismes_Parroquia_Blancafort.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vstudio-code\repositorisArbre\DadesGenerals\Bisbats\Catalunya\Lleida\Blancafort\Sacraments\Baptismes\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BB92CFA-845C-4FFC-87A0-0A1749D42E9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A542E217-4FDC-4EB5-AB69-B1F0AD023BE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1461" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1503" uniqueCount="375">
   <si>
     <t>Cognoms</t>
   </si>
@@ -1132,6 +1132,27 @@
   </si>
   <si>
     <t>Castells Molins</t>
+  </si>
+  <si>
+    <t>Badia Perez</t>
+  </si>
+  <si>
+    <t>Rodrigo Mas</t>
+  </si>
+  <si>
+    <t>Puig ¿?</t>
+  </si>
+  <si>
+    <t>Gessé Terés</t>
+  </si>
+  <si>
+    <t>Sarrà Jubillà</t>
+  </si>
+  <si>
+    <t>Jubillà Mas</t>
+  </si>
+  <si>
+    <t>Castells Perez</t>
   </si>
 </sst>
 </file>
@@ -1466,11 +1487,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q608"/>
+  <dimension ref="A1:Q648"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A573" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A609" sqref="A609"/>
+      <pane ySplit="1" topLeftCell="A612" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A648" sqref="A648"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10766,6 +10787,452 @@
         <v>1772</v>
       </c>
     </row>
+    <row r="609" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A609" t="s">
+        <v>368</v>
+      </c>
+      <c r="B609">
+        <v>51</v>
+      </c>
+      <c r="C609">
+        <v>1772</v>
+      </c>
+    </row>
+    <row r="610" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A610" t="s">
+        <v>125</v>
+      </c>
+      <c r="B610">
+        <v>51</v>
+      </c>
+      <c r="C610">
+        <v>1773</v>
+      </c>
+    </row>
+    <row r="611" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A611" t="s">
+        <v>356</v>
+      </c>
+      <c r="B611">
+        <v>52</v>
+      </c>
+      <c r="C611">
+        <v>1773</v>
+      </c>
+      <c r="Q611" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="612" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A612" t="s">
+        <v>362</v>
+      </c>
+      <c r="B612">
+        <v>52</v>
+      </c>
+      <c r="C612">
+        <v>1773</v>
+      </c>
+      <c r="Q612" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="613" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A613" t="s">
+        <v>367</v>
+      </c>
+      <c r="B613">
+        <v>53</v>
+      </c>
+      <c r="C613">
+        <v>1773</v>
+      </c>
+    </row>
+    <row r="614" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A614" t="s">
+        <v>365</v>
+      </c>
+      <c r="B614">
+        <v>53</v>
+      </c>
+      <c r="C614">
+        <v>1773</v>
+      </c>
+    </row>
+    <row r="615" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A615" t="s">
+        <v>151</v>
+      </c>
+      <c r="B615">
+        <v>53</v>
+      </c>
+      <c r="C615">
+        <v>1773</v>
+      </c>
+    </row>
+    <row r="616" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A616" t="s">
+        <v>366</v>
+      </c>
+      <c r="B616">
+        <v>54</v>
+      </c>
+      <c r="C616">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="617" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A617" t="s">
+        <v>361</v>
+      </c>
+      <c r="B617">
+        <v>54</v>
+      </c>
+      <c r="C617">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="618" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A618" t="s">
+        <v>355</v>
+      </c>
+      <c r="B618">
+        <v>54</v>
+      </c>
+      <c r="C618">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="619" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A619" t="s">
+        <v>125</v>
+      </c>
+      <c r="B619">
+        <v>55</v>
+      </c>
+      <c r="C619">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="620" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A620" t="s">
+        <v>330</v>
+      </c>
+      <c r="B620">
+        <v>55</v>
+      </c>
+      <c r="C620">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="621" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A621" t="s">
+        <v>364</v>
+      </c>
+      <c r="B621">
+        <v>56</v>
+      </c>
+      <c r="C621">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="622" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A622" t="s">
+        <v>356</v>
+      </c>
+      <c r="B622">
+        <v>57</v>
+      </c>
+      <c r="C622">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="623" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A623" t="s">
+        <v>367</v>
+      </c>
+      <c r="B623">
+        <v>57</v>
+      </c>
+      <c r="C623">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="624" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A624" t="s">
+        <v>366</v>
+      </c>
+      <c r="B624">
+        <v>57</v>
+      </c>
+      <c r="C624">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="625" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A625" t="s">
+        <v>369</v>
+      </c>
+      <c r="B625">
+        <v>58</v>
+      </c>
+      <c r="C625">
+        <v>1776</v>
+      </c>
+    </row>
+    <row r="626" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A626" t="s">
+        <v>362</v>
+      </c>
+      <c r="B626">
+        <v>58</v>
+      </c>
+      <c r="C626">
+        <v>1776</v>
+      </c>
+    </row>
+    <row r="627" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A627" t="s">
+        <v>360</v>
+      </c>
+      <c r="B627">
+        <v>59</v>
+      </c>
+      <c r="C627">
+        <v>1776</v>
+      </c>
+    </row>
+    <row r="628" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A628" t="s">
+        <v>330</v>
+      </c>
+      <c r="B628">
+        <v>59</v>
+      </c>
+      <c r="C628">
+        <v>1776</v>
+      </c>
+    </row>
+    <row r="629" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A629" t="s">
+        <v>330</v>
+      </c>
+      <c r="B629">
+        <v>60</v>
+      </c>
+      <c r="C629">
+        <v>1776</v>
+      </c>
+    </row>
+    <row r="630" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A630" t="s">
+        <v>361</v>
+      </c>
+      <c r="B630">
+        <v>60</v>
+      </c>
+      <c r="C630">
+        <v>1777</v>
+      </c>
+    </row>
+    <row r="631" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A631" t="s">
+        <v>368</v>
+      </c>
+      <c r="B631">
+        <v>60</v>
+      </c>
+      <c r="C631">
+        <v>1777</v>
+      </c>
+    </row>
+    <row r="632" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A632" t="s">
+        <v>125</v>
+      </c>
+      <c r="B632">
+        <v>61</v>
+      </c>
+      <c r="C632">
+        <v>1777</v>
+      </c>
+    </row>
+    <row r="633" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A633" t="s">
+        <v>364</v>
+      </c>
+      <c r="B633">
+        <v>61</v>
+      </c>
+      <c r="C633">
+        <v>1777</v>
+      </c>
+    </row>
+    <row r="634" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A634" t="s">
+        <v>365</v>
+      </c>
+      <c r="B634">
+        <v>61</v>
+      </c>
+      <c r="C634">
+        <v>1777</v>
+      </c>
+    </row>
+    <row r="635" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A635" t="s">
+        <v>366</v>
+      </c>
+      <c r="B635">
+        <v>61</v>
+      </c>
+      <c r="C635">
+        <v>1777</v>
+      </c>
+    </row>
+    <row r="636" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A636" t="s">
+        <v>370</v>
+      </c>
+      <c r="B636">
+        <v>62</v>
+      </c>
+      <c r="C636">
+        <v>1778</v>
+      </c>
+    </row>
+    <row r="637" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A637" t="s">
+        <v>371</v>
+      </c>
+      <c r="B637">
+        <v>63</v>
+      </c>
+      <c r="C637">
+        <v>1778</v>
+      </c>
+    </row>
+    <row r="638" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A638" t="s">
+        <v>367</v>
+      </c>
+      <c r="B638">
+        <v>63</v>
+      </c>
+      <c r="C638">
+        <v>1778</v>
+      </c>
+    </row>
+    <row r="639" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A639" t="s">
+        <v>372</v>
+      </c>
+      <c r="B639">
+        <v>63</v>
+      </c>
+      <c r="C639">
+        <v>1778</v>
+      </c>
+    </row>
+    <row r="640" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A640" t="s">
+        <v>125</v>
+      </c>
+      <c r="B640">
+        <v>64</v>
+      </c>
+      <c r="C640">
+        <v>1779</v>
+      </c>
+    </row>
+    <row r="641" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A641" t="s">
+        <v>361</v>
+      </c>
+      <c r="B641">
+        <v>64</v>
+      </c>
+      <c r="C641">
+        <v>1779</v>
+      </c>
+    </row>
+    <row r="642" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A642" t="s">
+        <v>366</v>
+      </c>
+      <c r="B642">
+        <v>65</v>
+      </c>
+      <c r="C642">
+        <v>1779</v>
+      </c>
+    </row>
+    <row r="643" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A643" t="s">
+        <v>365</v>
+      </c>
+      <c r="B643">
+        <v>65</v>
+      </c>
+      <c r="C643">
+        <v>1780</v>
+      </c>
+    </row>
+    <row r="644" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A644" t="s">
+        <v>373</v>
+      </c>
+      <c r="B644">
+        <v>65</v>
+      </c>
+      <c r="C644">
+        <v>1780</v>
+      </c>
+    </row>
+    <row r="645" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A645" t="s">
+        <v>58</v>
+      </c>
+      <c r="B645">
+        <v>65</v>
+      </c>
+      <c r="C645">
+        <v>1780</v>
+      </c>
+    </row>
+    <row r="646" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A646" t="s">
+        <v>364</v>
+      </c>
+      <c r="B646">
+        <v>66</v>
+      </c>
+      <c r="C646">
+        <v>1780</v>
+      </c>
+    </row>
+    <row r="647" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A647" t="s">
+        <v>374</v>
+      </c>
+      <c r="B647">
+        <v>66</v>
+      </c>
+      <c r="C647">
+        <v>1780</v>
+      </c>
+    </row>
+    <row r="648" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A648" t="s">
+        <v>370</v>
+      </c>
+      <c r="B648">
+        <v>66</v>
+      </c>
+      <c r="C648">
+        <v>1780</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:Q350" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
